--- a/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19005" windowHeight="11700"/>
+    <workbookView xWindow="15195" yWindow="-15" windowWidth="15255" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="Calendar">'General Settings'!$J$19</definedName>
     <definedName name="Currency">'General Settings'!$J$14</definedName>
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
-    <definedName name="Discounting">'General Settings'!$J$20</definedName>
-    <definedName name="Discounting2">'General Settings'!$J$21</definedName>
+    <definedName name="Discounting">'General Settings'!#REF!</definedName>
+    <definedName name="Discounting2">'General Settings'!#REF!</definedName>
     <definedName name="DiscountingCurve" localSheetId="2">HKD_YCRH_Swaps_STD!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$J$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$9</definedName>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="153">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -607,12 +607,6 @@
   </si>
   <si>
     <t>STD</t>
-  </si>
-  <si>
-    <t>Discounting2</t>
-  </si>
-  <si>
-    <t>Discounting</t>
   </si>
   <si>
     <t>Actual/365 (Fixed)</t>
@@ -1346,7 +1340,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1702,6 +1696,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2045,7 +2042,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2067,19 +2066,19 @@
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="160" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="161"/>
-      <c r="H2" s="162" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="162"/>
+      <c r="H2" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="165"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2129,9 +2128,7 @@
       <c r="I4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="92">
-        <v>41599.50409722222</v>
-      </c>
+      <c r="J4" s="92"/>
       <c r="K4" s="97"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2359,7 +2356,7 @@
       </c>
       <c r="D10" s="13" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_HKDYCSTD#0006</v>
+        <v>HKDYCSTD#0002</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2399,7 +2396,7 @@
         <v/>
       </c>
       <c r="E11" s="158" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
@@ -2434,20 +2431,20 @@
         <v>22</v>
       </c>
       <c r="D12" s="16" t="str">
-        <f>"_"&amp;Currency&amp;$E$12</f>
-        <v>_HKDYCSTD</v>
+        <f>Currency&amp;$E$12</f>
+        <v>HKDYCSTD</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>97</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="162" t="s">
+      <c r="H12" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2635,10 +2632,10 @@
       <c r="G17" s="1"/>
       <c r="H17" s="91"/>
       <c r="I17" s="90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J17" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K17" s="88"/>
       <c r="L17" s="1"/>
@@ -2666,7 +2663,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="22">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="D18" s="23">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2677,10 +2674,10 @@
       <c r="G18" s="1"/>
       <c r="H18" s="91"/>
       <c r="I18" s="90" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J18" s="92" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K18" s="88"/>
       <c r="L18" s="1"/>
@@ -2708,11 +2705,11 @@
       <c r="B19" s="2"/>
       <c r="C19" s="24">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>47078</v>
+        <v>47079</v>
       </c>
       <c r="D19" s="9">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.65510057280654344</v>
+        <v>0.63146264465127411</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -2745,7 +2742,7 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
     </row>
-    <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="25" t="s">
@@ -2758,15 +2755,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="92" t="str">
-        <f>PROPER(Currency)&amp;"YC"</f>
-        <v>HkdYC</v>
-      </c>
-      <c r="K20" s="88"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="85"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2787,23 +2779,24 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="159" t="str">
+        <f>UPPER(Currency)&amp;"STD"</f>
+        <v>HKDSTD</v>
+      </c>
+      <c r="D21" s="159" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C21,YieldCurve)</f>
+        <v>1</v>
+      </c>
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" s="92" t="str">
-        <f>PROPER(Currency)&amp;"YCSTD"</f>
-        <v>HkdYCSTD</v>
-      </c>
-      <c r="K21" s="88"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2824,7 +2817,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2832,10 +2825,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="85"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3600,10 +3593,6 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3632,10 +3621,6 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -4218,14 +4203,14 @@
       </c>
       <c r="F3" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0005</v>
+        <v>HKD_YCSTDRH_OND#0002</v>
       </c>
       <c r="G3" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
       <c r="H3" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,14 +4232,14 @@
       </c>
       <c r="F4" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0005</v>
+        <v>HKD_YCSTDRH_SWD#0002</v>
       </c>
       <c r="G4" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
       <c r="H4" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4276,14 +4261,14 @@
       </c>
       <c r="F5" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0005</v>
+        <v>HKD_YCSTDRH_2WD#0002</v>
       </c>
       <c r="G5" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
       <c r="H5" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4305,14 +4290,14 @@
       </c>
       <c r="F6" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3WD#0005</v>
+        <v>HKD_YCSTDRH_3WD#0002</v>
       </c>
       <c r="G6" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
       <c r="H6" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4334,14 +4319,14 @@
       </c>
       <c r="F7" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0005</v>
+        <v>HKD_YCSTDRH_1MD#0002</v>
       </c>
       <c r="G7" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
       <c r="H7" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4363,14 +4348,14 @@
       </c>
       <c r="F8" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0005</v>
+        <v>HKD_YCSTDRH_2MD#0002</v>
       </c>
       <c r="G8" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
       <c r="H8" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4392,14 +4377,14 @@
       </c>
       <c r="F9" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0005</v>
+        <v>HKD_YCSTDRH_3MD#0002</v>
       </c>
       <c r="G9" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
       <c r="H9" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4421,14 +4406,14 @@
       </c>
       <c r="F10" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_4MD#0005</v>
+        <v>HKD_YCSTDRH_4MD#0002</v>
       </c>
       <c r="G10" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
       <c r="H10" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,14 +4435,14 @@
       </c>
       <c r="F11" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_5MD#0005</v>
+        <v>HKD_YCSTDRH_5MD#0002</v>
       </c>
       <c r="G11" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
         <v/>
       </c>
       <c r="H11" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4479,14 +4464,14 @@
       </c>
       <c r="F12" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E12,D12,C12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0005</v>
+        <v>HKD_YCSTDRH_6MD#0002</v>
       </c>
       <c r="G12" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
         <v/>
       </c>
       <c r="H12" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,14 +4493,14 @@
       </c>
       <c r="F13" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E13,D13,C13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_7MD#0005</v>
+        <v>HKD_YCSTDRH_7MD#0002</v>
       </c>
       <c r="G13" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
         <v/>
       </c>
       <c r="H13" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4537,14 +4522,14 @@
       </c>
       <c r="F14" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E14,D14,C14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_8MD#0005</v>
+        <v>HKD_YCSTDRH_8MD#0002</v>
       </c>
       <c r="G14" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
         <v/>
       </c>
       <c r="H14" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4566,14 +4551,14 @@
       </c>
       <c r="F15" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E15,D15,C15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0005</v>
+        <v>HKD_YCSTDRH_9MD#0002</v>
       </c>
       <c r="G15" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
         <v/>
       </c>
       <c r="H15" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4595,14 +4580,14 @@
       </c>
       <c r="F16" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E16,D16,C16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_10MD#0005</v>
+        <v>HKD_YCSTDRH_10MD#0002</v>
       </c>
       <c r="G16" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
         <v/>
       </c>
       <c r="H16" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4624,14 +4609,14 @@
       </c>
       <c r="F17" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E17,D17,C17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_11MD#0005</v>
+        <v>HKD_YCSTDRH_11MD#0002</v>
       </c>
       <c r="G17" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
         <v/>
       </c>
       <c r="H17" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4653,14 +4638,14 @@
       </c>
       <c r="F18" s="109" t="str">
         <f>_xll.qlDepositRateHelper(E18,D18,C18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0005</v>
+        <v>HKD_YCSTDRH_1YD#0002</v>
       </c>
       <c r="G18" s="108" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
         <v/>
       </c>
       <c r="H18" s="154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4759,22 +4744,22 @@
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="136"/>
       <c r="B3" s="148" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="148"/>
       <c r="D3" s="148"/>
       <c r="E3" s="148"/>
       <c r="F3" s="148" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G3" s="148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" s="148" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J3" s="148" t="s">
         <v>132</v>
@@ -4792,22 +4777,22 @@
         <v>ohObjectSave - operToVectorImpl: error converting parameter 'ObjectList' to type 'class std::basic_string&lt;char,struct std::char_traits&lt;char&gt;,class std::allocator&lt;char&gt; &gt;' : Unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'class s</v>
       </c>
       <c r="N3" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P3" s="145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="145" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R3" s="145" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="S3" s="145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T3" s="145" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -4827,14 +4812,14 @@
       </c>
       <c r="L4" s="143" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H_Hibor3M#0005</v>
+        <v>HKD_YCSTDRH_QM3H_Hibor3M#0002</v>
       </c>
       <c r="M4" s="142" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
       <c r="N4" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P4" s="141">
         <v>0</v>
@@ -4843,13 +4828,13 @@
         <v>107</v>
       </c>
       <c r="R4" s="141" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S4" s="141" t="b">
         <v>1</v>
       </c>
       <c r="T4" s="141" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="137" customFormat="1" x14ac:dyDescent="0.2">
@@ -4867,13 +4852,13 @@
       <c r="L5" s="139"/>
       <c r="M5" s="139"/>
       <c r="N5" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="136"/>
       <c r="B6" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="135" t="s">
         <v>37</v>
@@ -4885,10 +4870,10 @@
         <v>103</v>
       </c>
       <c r="F6" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H6" s="134" t="str">
         <f t="shared" ref="H6:H42" si="0">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
@@ -4907,20 +4892,20 @@
       </c>
       <c r="L6" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H1Y#0002</v>
       </c>
       <c r="M6" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
       <c r="N6" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="136"/>
       <c r="B7" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="135" t="s">
         <v>38</v>
@@ -4932,10 +4917,10 @@
         <v>103</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="133" t="str">
         <f t="shared" si="0"/>
@@ -4954,20 +4939,20 @@
       </c>
       <c r="L7" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15M#0005</v>
+        <v>HKD_YCSTDRH_QM3H15M#0002</v>
       </c>
       <c r="M7" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
       <c r="N7" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="136"/>
       <c r="B8" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="135" t="s">
         <v>39</v>
@@ -4979,10 +4964,10 @@
         <v>103</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5001,20 +4986,20 @@
       </c>
       <c r="L8" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18M#0005</v>
+        <v>HKD_YCSTDRH_QM3H18M#0002</v>
       </c>
       <c r="M8" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
       <c r="N8" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="136"/>
       <c r="B9" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" s="135" t="s">
         <v>40</v>
@@ -5026,10 +5011,10 @@
         <v>103</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G9" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H9" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5048,20 +5033,20 @@
       </c>
       <c r="L9" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H21M#0005</v>
+        <v>HKD_YCSTDRH_QM3H21M#0002</v>
       </c>
       <c r="M9" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
       <c r="N9" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="136"/>
       <c r="B10" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" s="135" t="s">
         <v>41</v>
@@ -5073,10 +5058,10 @@
         <v>103</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H10" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5095,20 +5080,20 @@
       </c>
       <c r="L10" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H2Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H2Y#0002</v>
       </c>
       <c r="M10" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
       <c r="N10" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="136"/>
       <c r="B11" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="135" t="s">
         <v>42</v>
@@ -5120,10 +5105,10 @@
         <v>103</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H11" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5142,20 +5127,20 @@
       </c>
       <c r="L11" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H3Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H3Y#0002</v>
       </c>
       <c r="M11" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
       <c r="N11" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="136"/>
       <c r="B12" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="135" t="s">
         <v>43</v>
@@ -5167,10 +5152,10 @@
         <v>103</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H12" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5189,20 +5174,20 @@
       </c>
       <c r="L12" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H4Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H4Y#0002</v>
       </c>
       <c r="M12" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
       <c r="N12" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="136"/>
       <c r="B13" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="135" t="s">
         <v>44</v>
@@ -5214,10 +5199,10 @@
         <v>103</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H13" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5236,20 +5221,20 @@
       </c>
       <c r="L13" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H5Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H5Y#0002</v>
       </c>
       <c r="M13" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
       <c r="N13" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="136"/>
       <c r="B14" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="135" t="s">
         <v>45</v>
@@ -5261,10 +5246,10 @@
         <v>103</v>
       </c>
       <c r="F14" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H14" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5283,20 +5268,20 @@
       </c>
       <c r="L14" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H6Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H6Y#0002</v>
       </c>
       <c r="M14" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
       <c r="N14" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="136"/>
       <c r="B15" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="135" t="s">
         <v>46</v>
@@ -5308,10 +5293,10 @@
         <v>103</v>
       </c>
       <c r="F15" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5330,20 +5315,20 @@
       </c>
       <c r="L15" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H7Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H7Y#0002</v>
       </c>
       <c r="M15" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
       <c r="N15" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="136"/>
       <c r="B16" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="135" t="s">
         <v>47</v>
@@ -5355,10 +5340,10 @@
         <v>103</v>
       </c>
       <c r="F16" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G16" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H16" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5377,20 +5362,20 @@
       </c>
       <c r="L16" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H8Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H8Y#0002</v>
       </c>
       <c r="M16" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
       <c r="N16" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="136"/>
       <c r="B17" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="135" t="s">
         <v>48</v>
@@ -5402,10 +5387,10 @@
         <v>103</v>
       </c>
       <c r="F17" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H17" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5424,20 +5409,20 @@
       </c>
       <c r="L17" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H9Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H9Y#0002</v>
       </c>
       <c r="M17" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
       <c r="N17" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="136"/>
       <c r="B18" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="135" t="s">
         <v>49</v>
@@ -5449,10 +5434,10 @@
         <v>103</v>
       </c>
       <c r="F18" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G18" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H18" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5471,20 +5456,20 @@
       </c>
       <c r="L18" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H10Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H10Y#0002</v>
       </c>
       <c r="M18" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
       <c r="N18" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="136"/>
       <c r="B19" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>55</v>
@@ -5496,10 +5481,10 @@
         <v>103</v>
       </c>
       <c r="F19" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G19" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5518,20 +5503,20 @@
       </c>
       <c r="L19" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H11Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H11Y#0002</v>
       </c>
       <c r="M19" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
       <c r="N19" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="136"/>
       <c r="B20" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="135" t="s">
         <v>56</v>
@@ -5543,10 +5528,10 @@
         <v>103</v>
       </c>
       <c r="F20" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5565,20 +5550,20 @@
       </c>
       <c r="L20" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H12Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H12Y#0002</v>
       </c>
       <c r="M20" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
       <c r="N20" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="136"/>
       <c r="B21" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C21" s="135" t="s">
         <v>57</v>
@@ -5590,10 +5575,10 @@
         <v>103</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G21" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5612,20 +5597,20 @@
       </c>
       <c r="L21" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H13Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H13Y#0002</v>
       </c>
       <c r="M21" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
       <c r="N21" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="136"/>
       <c r="B22" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="135" t="s">
         <v>58</v>
@@ -5637,10 +5622,10 @@
         <v>103</v>
       </c>
       <c r="F22" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H22" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5659,20 +5644,20 @@
       </c>
       <c r="L22" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H14Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H14Y#0002</v>
       </c>
       <c r="M22" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
       <c r="N22" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="136"/>
       <c r="B23" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="135" t="s">
         <v>50</v>
@@ -5684,10 +5669,10 @@
         <v>103</v>
       </c>
       <c r="F23" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G23" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5706,20 +5691,20 @@
       </c>
       <c r="L23" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H15Y#0002</v>
       </c>
       <c r="M23" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
       <c r="N23" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="136"/>
       <c r="B24" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C24" s="135" t="s">
         <v>59</v>
@@ -5731,10 +5716,10 @@
         <v>103</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G24" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H24" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5753,20 +5738,20 @@
       </c>
       <c r="L24" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H16Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H16Y#0002</v>
       </c>
       <c r="M24" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
       <c r="N24" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="136"/>
       <c r="B25" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="135" t="s">
         <v>60</v>
@@ -5778,10 +5763,10 @@
         <v>103</v>
       </c>
       <c r="F25" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H25" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5800,20 +5785,20 @@
       </c>
       <c r="L25" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H17Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H17Y#0002</v>
       </c>
       <c r="M25" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
       <c r="N25" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="136"/>
       <c r="B26" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C26" s="135" t="s">
         <v>61</v>
@@ -5825,10 +5810,10 @@
         <v>103</v>
       </c>
       <c r="F26" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G26" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5847,20 +5832,20 @@
       </c>
       <c r="L26" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H18Y#0002</v>
       </c>
       <c r="M26" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
       <c r="N26" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="136"/>
       <c r="B27" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27" s="135" t="s">
         <v>62</v>
@@ -5872,10 +5857,10 @@
         <v>103</v>
       </c>
       <c r="F27" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G27" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5894,20 +5879,20 @@
       </c>
       <c r="L27" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H19Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H19Y#0002</v>
       </c>
       <c r="M27" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
       <c r="N27" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="136"/>
       <c r="B28" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C28" s="135" t="s">
         <v>51</v>
@@ -5919,10 +5904,10 @@
         <v>103</v>
       </c>
       <c r="F28" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G28" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5941,20 +5926,20 @@
       </c>
       <c r="L28" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H20Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H20Y#0002</v>
       </c>
       <c r="M28" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
       <c r="N28" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="136"/>
       <c r="B29" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="135" t="s">
         <v>63</v>
@@ -5966,10 +5951,10 @@
         <v>103</v>
       </c>
       <c r="F29" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G29" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="133" t="str">
         <f t="shared" si="0"/>
@@ -5988,20 +5973,20 @@
       </c>
       <c r="L29" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H21Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H21Y#0002</v>
       </c>
       <c r="M29" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
         <v/>
       </c>
       <c r="N29" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="136"/>
       <c r="B30" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="135" t="s">
         <v>64</v>
@@ -6013,10 +5998,10 @@
         <v>103</v>
       </c>
       <c r="F30" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G30" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H30" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6035,20 +6020,20 @@
       </c>
       <c r="L30" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H22Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H22Y#0002</v>
       </c>
       <c r="M30" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
         <v/>
       </c>
       <c r="N30" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="136"/>
       <c r="B31" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C31" s="135" t="s">
         <v>65</v>
@@ -6060,10 +6045,10 @@
         <v>103</v>
       </c>
       <c r="F31" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G31" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H31" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6082,20 +6067,20 @@
       </c>
       <c r="L31" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H23Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H23Y#0002</v>
       </c>
       <c r="M31" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
         <v/>
       </c>
       <c r="N31" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="136"/>
       <c r="B32" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="135" t="s">
         <v>66</v>
@@ -6107,10 +6092,10 @@
         <v>103</v>
       </c>
       <c r="F32" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G32" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H32" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6129,20 +6114,20 @@
       </c>
       <c r="L32" s="129" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H24Y#0005</v>
+        <v>HKD_YCSTDRH_QM3H24Y#0002</v>
       </c>
       <c r="M32" s="128" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
         <v/>
       </c>
       <c r="N32" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="136"/>
       <c r="B33" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C33" s="135" t="s">
         <v>67</v>
@@ -6154,10 +6139,10 @@
         <v>103</v>
       </c>
       <c r="F33" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G33" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H33" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6183,13 +6168,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H25Y_Quote'</v>
       </c>
       <c r="N33" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="136"/>
       <c r="B34" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C34" s="135" t="s">
         <v>68</v>
@@ -6201,10 +6186,10 @@
         <v>103</v>
       </c>
       <c r="F34" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G34" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6230,13 +6215,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H26Y_Quote'</v>
       </c>
       <c r="N34" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="136"/>
       <c r="B35" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C35" s="135" t="s">
         <v>69</v>
@@ -6248,10 +6233,10 @@
         <v>103</v>
       </c>
       <c r="F35" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G35" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H35" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6277,13 +6262,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H27Y_Quote'</v>
       </c>
       <c r="N35" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="136"/>
       <c r="B36" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C36" s="135" t="s">
         <v>70</v>
@@ -6295,10 +6280,10 @@
         <v>103</v>
       </c>
       <c r="F36" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G36" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H36" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6324,13 +6309,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H28Y_Quote'</v>
       </c>
       <c r="N36" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="136"/>
       <c r="B37" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="135" t="s">
         <v>71</v>
@@ -6342,10 +6327,10 @@
         <v>103</v>
       </c>
       <c r="F37" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G37" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H37" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6371,13 +6356,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H29Y_Quote'</v>
       </c>
       <c r="N37" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="136"/>
       <c r="B38" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="135" t="s">
         <v>52</v>
@@ -6389,10 +6374,10 @@
         <v>103</v>
       </c>
       <c r="F38" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G38" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H38" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6418,13 +6403,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H30Y_Quote'</v>
       </c>
       <c r="N38" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="136"/>
       <c r="B39" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C39" s="135" t="s">
         <v>72</v>
@@ -6436,10 +6421,10 @@
         <v>103</v>
       </c>
       <c r="F39" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G39" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H39" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6465,13 +6450,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H35Y_Quote'</v>
       </c>
       <c r="N39" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="136"/>
       <c r="B40" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="135" t="s">
         <v>73</v>
@@ -6483,10 +6468,10 @@
         <v>103</v>
       </c>
       <c r="F40" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G40" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H40" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6512,13 +6497,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H40Y_Quote'</v>
       </c>
       <c r="N40" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="136"/>
       <c r="B41" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="135" t="s">
         <v>74</v>
@@ -6530,10 +6515,10 @@
         <v>103</v>
       </c>
       <c r="F41" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G41" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H41" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6559,13 +6544,13 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H50Y_Quote'</v>
       </c>
       <c r="N41" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="136"/>
       <c r="B42" s="135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" s="135" t="s">
         <v>75</v>
@@ -6577,10 +6562,10 @@
         <v>103</v>
       </c>
       <c r="F42" s="134" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G42" s="133" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H42" s="133" t="str">
         <f t="shared" si="0"/>
@@ -6606,7 +6591,7 @@
         <v>qlSwapRateHelper2 - Error converting parameter 'Rate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDQM3H60Y_Quote'</v>
       </c>
       <c r="N42" s="155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -6675,11 +6660,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="168"/>
       <c r="E1" s="32" t="s">
         <v>32</v>
       </c>
@@ -6717,7 +6702,7 @@
       </c>
       <c r="F2" s="38">
         <f>_xll.qlRateHelperQuoteValue($E2,Trigger)</f>
-        <v>7.0549999999999996E-4</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="39" t="b">
@@ -6731,11 +6716,11 @@
       </c>
       <c r="K2" s="59">
         <f>_xll.qlRateHelperEarliestDate($E2,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L2" s="60">
         <f>_xll.qlRateHelperLatestDate($E2,Trigger)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="M2" s="34">
         <v>10</v>
@@ -6832,9 +6817,9 @@
         <f t="shared" si="0"/>
         <v>HKD_YCSTDRH_SWD</v>
       </c>
-      <c r="F5" s="38" t="e">
+      <c r="F5" s="38">
         <f>_xll.qlRateHelperQuoteValue($E5,Trigger)</f>
-        <v>#NUM!</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="39" t="b">
@@ -6848,11 +6833,11 @@
       </c>
       <c r="K5" s="59">
         <f>_xll.qlRateHelperEarliestDate($E5,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L5" s="60">
         <f>_xll.qlRateHelperLatestDate($E5,Trigger)</f>
-        <v>41606</v>
+        <v>41603</v>
       </c>
       <c r="M5" s="34">
         <v>40</v>
@@ -6873,7 +6858,7 @@
       </c>
       <c r="F6" s="38">
         <f>_xll.qlRateHelperQuoteValue($E6,Trigger)</f>
-        <v>1.6182E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="39" t="b">
@@ -6887,11 +6872,11 @@
       </c>
       <c r="K6" s="59">
         <f>_xll.qlRateHelperEarliestDate($E6,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L6" s="60">
         <f>_xll.qlRateHelperLatestDate($E6,Trigger)</f>
-        <v>41613</v>
+        <v>41603</v>
       </c>
       <c r="M6" s="34">
         <v>50</v>
@@ -6910,9 +6895,9 @@
         <f t="shared" si="0"/>
         <v>HKD_YCSTDRH_3WD</v>
       </c>
-      <c r="F7" s="38" t="e">
+      <c r="F7" s="38">
         <f>_xll.qlRateHelperQuoteValue($E7,Trigger)</f>
-        <v>#NUM!</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="39" t="b">
@@ -6926,11 +6911,11 @@
       </c>
       <c r="K7" s="59">
         <f>_xll.qlRateHelperEarliestDate($E7,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L7" s="60">
         <f>_xll.qlRateHelperLatestDate($E7,Trigger)</f>
-        <v>41620</v>
+        <v>41603</v>
       </c>
       <c r="M7" s="34">
         <v>60</v>
@@ -6951,7 +6936,7 @@
       </c>
       <c r="F8" s="38">
         <f>_xll.qlRateHelperQuoteValue($E8,Trigger)</f>
-        <v>2.1786000000000002E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="39" t="b">
@@ -6965,11 +6950,11 @@
       </c>
       <c r="K8" s="59">
         <f>_xll.qlRateHelperEarliestDate($E8,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L8" s="60">
         <f>_xll.qlRateHelperLatestDate($E8,Trigger)</f>
-        <v>41631</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -6984,7 +6969,7 @@
       </c>
       <c r="F9" s="38">
         <f>_xll.qlRateHelperQuoteValue($E9,Trigger)</f>
-        <v>3.1829000000000002E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="39" t="b">
@@ -6998,11 +6983,11 @@
       </c>
       <c r="K9" s="59">
         <f>_xll.qlRateHelperEarliestDate($E9,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L9" s="60">
         <f>_xll.qlRateHelperLatestDate($E9,Trigger)</f>
-        <v>41660</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -7017,7 +7002,7 @@
       </c>
       <c r="F10" s="38">
         <f>_xll.qlRateHelperQuoteValue($E10,Trigger)</f>
-        <v>3.8143000000000001E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="39" t="b">
@@ -7031,11 +7016,11 @@
       </c>
       <c r="K10" s="59">
         <f>_xll.qlRateHelperEarliestDate($E10,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L10" s="60">
         <f>_xll.qlRateHelperLatestDate($E10,Trigger)</f>
-        <v>41691</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -7050,7 +7035,7 @@
       </c>
       <c r="F11" s="38">
         <f>_xll.qlRateHelperQuoteValue($E11,Trigger)</f>
-        <v>4.1428999999999997E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="39" t="b">
@@ -7064,11 +7049,11 @@
       </c>
       <c r="K11" s="59">
         <f>_xll.qlRateHelperEarliestDate($E11,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L11" s="60">
         <f>_xll.qlRateHelperLatestDate($E11,Trigger)</f>
-        <v>41719</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -7083,7 +7068,7 @@
       </c>
       <c r="F12" s="38">
         <f>_xll.qlRateHelperQuoteValue($E12,Trigger)</f>
-        <v>4.6341999999999998E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="39" t="b">
@@ -7097,11 +7082,11 @@
       </c>
       <c r="K12" s="59">
         <f>_xll.qlRateHelperEarliestDate($E12,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L12" s="60">
         <f>_xll.qlRateHelperLatestDate($E12,Trigger)</f>
-        <v>41751</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -7116,7 +7101,7 @@
       </c>
       <c r="F13" s="38">
         <f>_xll.qlRateHelperQuoteValue($E13,Trigger)</f>
-        <v>5.5071E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G13" s="38"/>
       <c r="H13" s="39" t="b">
@@ -7130,11 +7115,11 @@
       </c>
       <c r="K13" s="59">
         <f>_xll.qlRateHelperEarliestDate($E13,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L13" s="60">
         <f>_xll.qlRateHelperLatestDate($E13,Trigger)</f>
-        <v>41780</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -7149,7 +7134,7 @@
       </c>
       <c r="F14" s="38">
         <f>_xll.qlRateHelperQuoteValue($E14,Trigger)</f>
-        <v>5.7929000000000001E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="39" t="b">
@@ -7163,11 +7148,11 @@
       </c>
       <c r="K14" s="59">
         <f>_xll.qlRateHelperEarliestDate($E14,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L14" s="60">
         <f>_xll.qlRateHelperLatestDate($E14,Trigger)</f>
-        <v>41813</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -7182,7 +7167,7 @@
       </c>
       <c r="F15" s="38">
         <f>_xll.qlRateHelperQuoteValue($E15,Trigger)</f>
-        <v>6.1067999999999999E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="39" t="b">
@@ -7196,11 +7181,11 @@
       </c>
       <c r="K15" s="59">
         <f>_xll.qlRateHelperEarliestDate($E15,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L15" s="60">
         <f>_xll.qlRateHelperLatestDate($E15,Trigger)</f>
-        <v>41841</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -7215,7 +7200,7 @@
       </c>
       <c r="F16" s="38">
         <f>_xll.qlRateHelperQuoteValue($E16,Trigger)</f>
-        <v>6.4105999999999998E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="39" t="b">
@@ -7229,11 +7214,11 @@
       </c>
       <c r="K16" s="59">
         <f>_xll.qlRateHelperEarliestDate($E16,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L16" s="60">
         <f>_xll.qlRateHelperLatestDate($E16,Trigger)</f>
-        <v>41872</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -7248,7 +7233,7 @@
       </c>
       <c r="F17" s="38">
         <f>_xll.qlRateHelperQuoteValue($E17,Trigger)</f>
-        <v>7.1509999999999994E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="39" t="b">
@@ -7262,11 +7247,11 @@
       </c>
       <c r="K17" s="59">
         <f>_xll.qlRateHelperEarliestDate($E17,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L17" s="60">
         <f>_xll.qlRateHelperLatestDate($E17,Trigger)</f>
-        <v>41904</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -7281,7 +7266,7 @@
       </c>
       <c r="F18" s="38">
         <f>_xll.qlRateHelperQuoteValue($E18,Trigger)</f>
-        <v>7.9121E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="39" t="b">
@@ -7295,11 +7280,11 @@
       </c>
       <c r="K18" s="59">
         <f>_xll.qlRateHelperEarliestDate($E18,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L18" s="60">
         <f>_xll.qlRateHelperLatestDate($E18,Trigger)</f>
-        <v>41933</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -7314,7 +7299,7 @@
       </c>
       <c r="F19" s="43">
         <f>_xll.qlRateHelperQuoteValue($E19,Trigger)</f>
-        <v>8.6607000000000003E-3</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="44" t="b">
@@ -7328,11 +7313,11 @@
       </c>
       <c r="K19" s="61">
         <f>_xll.qlRateHelperEarliestDate($E19,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L19" s="62">
         <f>_xll.qlRateHelperLatestDate($E19,Trigger)</f>
-        <v>41964</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -10489,7 +10474,7 @@
       </c>
       <c r="F98" s="38">
         <f>_xll.qlRateHelperQuoteValue($E98,Trigger)</f>
-        <v>4.4000000000000003E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G98" s="38">
         <f>_xll.qlSwapRateHelperSpread($E98,Trigger)</f>
@@ -10506,11 +10491,11 @@
       </c>
       <c r="K98" s="59">
         <f>_xll.qlRateHelperEarliestDate($E98,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L98" s="60">
         <f>_xll.qlRateHelperLatestDate($E98,Trigger)</f>
-        <v>41964</v>
+        <v>41967</v>
       </c>
       <c r="N98" s="57" t="e">
         <f>IF(G98=G135,F98-F135,"--")</f>
@@ -10552,7 +10537,7 @@
       </c>
       <c r="K99" s="59">
         <f>_xll.qlRateHelperEarliestDate($E99,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L99" s="60">
         <f>_xll.qlRateHelperLatestDate($E99,Trigger)</f>
@@ -10581,7 +10566,7 @@
       </c>
       <c r="F100" s="38">
         <f>_xll.qlRateHelperQuoteValue($E100,Trigger)</f>
-        <v>4.7999999999999996E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G100" s="38">
         <f>_xll.qlSwapRateHelperSpread($E100,Trigger)</f>
@@ -10598,11 +10583,11 @@
       </c>
       <c r="K100" s="59">
         <f>_xll.qlRateHelperEarliestDate($E100,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L100" s="60">
         <f>_xll.qlRateHelperLatestDate($E100,Trigger)</f>
-        <v>42145</v>
+        <v>42146</v>
       </c>
       <c r="N100" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10644,11 +10629,11 @@
       </c>
       <c r="K101" s="59">
         <f>_xll.qlRateHelperEarliestDate($E101,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L101" s="60">
         <f>_xll.qlRateHelperLatestDate($E101,Trigger)</f>
-        <v>42237</v>
+        <v>42240</v>
       </c>
       <c r="N101" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10673,7 +10658,7 @@
       </c>
       <c r="F102" s="38">
         <f>_xll.qlRateHelperQuoteValue($E102,Trigger)</f>
-        <v>5.4000000000000003E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="G102" s="38">
         <f>_xll.qlSwapRateHelperSpread($E102,Trigger)</f>
@@ -10690,7 +10675,7 @@
       </c>
       <c r="K102" s="59">
         <f>_xll.qlRateHelperEarliestDate($E102,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L102" s="60">
         <f>_xll.qlRateHelperLatestDate($E102,Trigger)</f>
@@ -10719,7 +10704,7 @@
       </c>
       <c r="F103" s="38">
         <f>_xll.qlRateHelperQuoteValue($E103,Trigger)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G103" s="38">
         <f>_xll.qlSwapRateHelperSpread($E103,Trigger)</f>
@@ -10736,11 +10721,11 @@
       </c>
       <c r="K103" s="59">
         <f>_xll.qlRateHelperEarliestDate($E103,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L103" s="60">
         <f>_xll.qlRateHelperLatestDate($E103,Trigger)</f>
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="N103" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10765,7 +10750,7 @@
       </c>
       <c r="F104" s="38">
         <f>_xll.qlRateHelperQuoteValue($E104,Trigger)</f>
-        <v>1.0899999999999998E-2</v>
+        <v>1.1099999999999999E-2</v>
       </c>
       <c r="G104" s="38">
         <f>_xll.qlSwapRateHelperSpread($E104,Trigger)</f>
@@ -10782,11 +10767,11 @@
       </c>
       <c r="K104" s="59">
         <f>_xll.qlRateHelperEarliestDate($E104,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L104" s="60">
         <f>_xll.qlRateHelperLatestDate($E104,Trigger)</f>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="N104" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10811,7 +10796,7 @@
       </c>
       <c r="F105" s="38">
         <f>_xll.qlRateHelperQuoteValue($E105,Trigger)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G105" s="38">
         <f>_xll.qlSwapRateHelperSpread($E105,Trigger)</f>
@@ -10828,11 +10813,11 @@
       </c>
       <c r="K105" s="59">
         <f>_xll.qlRateHelperEarliestDate($E105,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L105" s="60">
         <f>_xll.qlRateHelperLatestDate($E105,Trigger)</f>
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="N105" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10874,11 +10859,11 @@
       </c>
       <c r="K106" s="59">
         <f>_xll.qlRateHelperEarliestDate($E106,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L106" s="60">
         <f>_xll.qlRateHelperLatestDate($E106,Trigger)</f>
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="N106" s="57" t="e">
         <f t="shared" si="8"/>
@@ -10903,7 +10888,7 @@
       </c>
       <c r="F107" s="38">
         <f>_xll.qlRateHelperQuoteValue($E107,Trigger)</f>
-        <v>1.95E-2</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G107" s="38">
         <f>_xll.qlSwapRateHelperSpread($E107,Trigger)</f>
@@ -10920,7 +10905,7 @@
       </c>
       <c r="K107" s="59">
         <f>_xll.qlRateHelperEarliestDate($E107,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L107" s="60">
         <f>_xll.qlRateHelperLatestDate($E107,Trigger)</f>
@@ -10966,7 +10951,7 @@
       </c>
       <c r="K108" s="59">
         <f>_xll.qlRateHelperEarliestDate($E108,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L108" s="60">
         <f>_xll.qlRateHelperLatestDate($E108,Trigger)</f>
@@ -11012,11 +10997,11 @@
       </c>
       <c r="K109" s="59">
         <f>_xll.qlRateHelperEarliestDate($E109,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L109" s="60">
         <f>_xll.qlRateHelperLatestDate($E109,Trigger)</f>
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="N109" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11041,7 +11026,7 @@
       </c>
       <c r="F110" s="38">
         <f>_xll.qlRateHelperQuoteValue($E110,Trigger)</f>
-        <v>2.4500000000000001E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="G110" s="38">
         <f>_xll.qlSwapRateHelperSpread($E110,Trigger)</f>
@@ -11058,11 +11043,11 @@
       </c>
       <c r="K110" s="59">
         <f>_xll.qlRateHelperEarliestDate($E110,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L110" s="60">
         <f>_xll.qlRateHelperLatestDate($E110,Trigger)</f>
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="N110" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11104,11 +11089,11 @@
       </c>
       <c r="K111" s="59">
         <f>_xll.qlRateHelperEarliestDate($E111,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L111" s="60">
         <f>_xll.qlRateHelperLatestDate($E111,Trigger)</f>
-        <v>45617</v>
+        <v>45618</v>
       </c>
       <c r="N111" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11133,7 +11118,7 @@
       </c>
       <c r="F112" s="38">
         <f>_xll.qlRateHelperQuoteValue($E112,Trigger)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>2.8099999999999997E-2</v>
       </c>
       <c r="G112" s="38">
         <f>_xll.qlSwapRateHelperSpread($E112,Trigger)</f>
@@ -11150,11 +11135,11 @@
       </c>
       <c r="K112" s="59">
         <f>_xll.qlRateHelperEarliestDate($E112,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L112" s="60">
         <f>_xll.qlRateHelperLatestDate($E112,Trigger)</f>
-        <v>45982</v>
+        <v>45985</v>
       </c>
       <c r="N112" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11196,7 +11181,7 @@
       </c>
       <c r="K113" s="59">
         <f>_xll.qlRateHelperEarliestDate($E113,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L113" s="60">
         <f>_xll.qlRateHelperLatestDate($E113,Trigger)</f>
@@ -11242,7 +11227,7 @@
       </c>
       <c r="K114" s="59">
         <f>_xll.qlRateHelperEarliestDate($E114,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L114" s="60">
         <f>_xll.qlRateHelperLatestDate($E114,Trigger)</f>
@@ -11271,7 +11256,7 @@
       </c>
       <c r="F115" s="38">
         <f>_xll.qlRateHelperQuoteValue($E115,Trigger)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>2.9400000000000003E-2</v>
       </c>
       <c r="G115" s="38">
         <f>_xll.qlSwapRateHelperSpread($E115,Trigger)</f>
@@ -11288,11 +11273,11 @@
       </c>
       <c r="K115" s="59">
         <f>_xll.qlRateHelperEarliestDate($E115,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L115" s="60">
         <f>_xll.qlRateHelperLatestDate($E115,Trigger)</f>
-        <v>47078</v>
+        <v>47079</v>
       </c>
       <c r="N115" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11334,11 +11319,11 @@
       </c>
       <c r="K116" s="59">
         <f>_xll.qlRateHelperEarliestDate($E116,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L116" s="60">
         <f>_xll.qlRateHelperLatestDate($E116,Trigger)</f>
-        <v>47443</v>
+        <v>47444</v>
       </c>
       <c r="N116" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11380,11 +11365,11 @@
       </c>
       <c r="K117" s="59">
         <f>_xll.qlRateHelperEarliestDate($E117,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L117" s="60">
         <f>_xll.qlRateHelperLatestDate($E117,Trigger)</f>
-        <v>47808</v>
+        <v>47809</v>
       </c>
       <c r="N117" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11426,11 +11411,11 @@
       </c>
       <c r="K118" s="59">
         <f>_xll.qlRateHelperEarliestDate($E118,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L118" s="60">
         <f>_xll.qlRateHelperLatestDate($E118,Trigger)</f>
-        <v>48173</v>
+        <v>48176</v>
       </c>
       <c r="N118" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11472,7 +11457,7 @@
       </c>
       <c r="K119" s="59">
         <f>_xll.qlRateHelperEarliestDate($E119,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L119" s="60">
         <f>_xll.qlRateHelperLatestDate($E119,Trigger)</f>
@@ -11518,11 +11503,11 @@
       </c>
       <c r="K120" s="59">
         <f>_xll.qlRateHelperEarliestDate($E120,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L120" s="60">
         <f>_xll.qlRateHelperLatestDate($E120,Trigger)</f>
-        <v>48904</v>
+        <v>48905</v>
       </c>
       <c r="N120" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11564,11 +11549,11 @@
       </c>
       <c r="K121" s="59">
         <f>_xll.qlRateHelperEarliestDate($E121,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L121" s="60">
         <f>_xll.qlRateHelperLatestDate($E121,Trigger)</f>
-        <v>49269</v>
+        <v>49270</v>
       </c>
       <c r="N121" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11610,11 +11595,11 @@
       </c>
       <c r="K122" s="59">
         <f>_xll.qlRateHelperEarliestDate($E122,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L122" s="60">
         <f>_xll.qlRateHelperLatestDate($E122,Trigger)</f>
-        <v>49634</v>
+        <v>49635</v>
       </c>
       <c r="N122" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11656,11 +11641,11 @@
       </c>
       <c r="K123" s="59">
         <f>_xll.qlRateHelperEarliestDate($E123,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L123" s="60">
         <f>_xll.qlRateHelperLatestDate($E123,Trigger)</f>
-        <v>50000</v>
+        <v>50003</v>
       </c>
       <c r="N123" s="57" t="e">
         <f t="shared" si="8"/>
@@ -11702,7 +11687,7 @@
       </c>
       <c r="K124" s="59">
         <f>_xll.qlRateHelperEarliestDate($E124,Trigger)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="L124" s="60">
         <f>_xll.qlRateHelperLatestDate($E124,Trigger)</f>
@@ -13745,7 +13730,7 @@
   <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13762,10 +13747,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="170"/>
       <c r="D1" s="65" t="s">
         <v>33</v>
       </c>
@@ -13793,11 +13778,11 @@
       </c>
       <c r="D2" s="71" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>HKD_YCSTDRH_OND</v>
+        <v>HKD_YCSTDRH_6MD</v>
       </c>
       <c r="E2" s="72">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>7.0549999999999996E-4</v>
+        <v>7.1330000000000005E-4</v>
       </c>
       <c r="F2" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -13805,14 +13790,14 @@
       </c>
       <c r="G2" s="59">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H2" s="82">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41600</v>
+        <v>41603</v>
       </c>
       <c r="I2" s="68">
-        <v>0.99999806712702366</v>
+        <v>0.99999413729464548</v>
       </c>
       <c r="J2" s="73"/>
     </row>
@@ -13824,11 +13809,11 @@
         <v>0</v>
       </c>
       <c r="D3" s="71" t="str">
-        <v>HKD_YCSTDRH_1MD</v>
+        <v>HKD_YCSTDRH_QM3H2Y</v>
       </c>
       <c r="E3" s="72">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.1786000000000002E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F3" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -13836,14 +13821,14 @@
       </c>
       <c r="G3" s="59">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H3" s="82">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>41631</v>
+        <v>42331</v>
       </c>
       <c r="I3" s="68">
-        <v>0.99980903592629866</v>
+        <v>0.98963222744106372</v>
       </c>
       <c r="J3" s="73"/>
     </row>
@@ -13855,11 +13840,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="71" t="str">
-        <v>HKD_YCSTDRH_2MD</v>
+        <v>HKD_YCSTDRH_QM3H3Y</v>
       </c>
       <c r="E4" s="72">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>3.1829000000000002E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="F4" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -13867,14 +13852,14 @@
       </c>
       <c r="G4" s="59">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H4" s="82">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>41660</v>
+        <v>42696</v>
       </c>
       <c r="I4" s="68">
-        <v>0.99946834609390411</v>
+        <v>0.97767606572545818</v>
       </c>
       <c r="J4" s="73"/>
     </row>
@@ -13886,11 +13871,11 @@
         <v>108</v>
       </c>
       <c r="D5" s="71" t="str">
-        <v>HKD_YCSTDRH_3MD</v>
+        <v>HKD_YCSTDRH_QM3H4Y</v>
       </c>
       <c r="E5" s="72">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>3.8143000000000001E-3</v>
+        <v>1.1099999999999999E-2</v>
       </c>
       <c r="F5" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -13898,14 +13883,14 @@
       </c>
       <c r="G5" s="59">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H5" s="82">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>41691</v>
+        <v>43061</v>
       </c>
       <c r="I5" s="68">
-        <v>0.99903951082366138</v>
+        <v>0.95624834029054129</v>
       </c>
       <c r="J5" s="73"/>
     </row>
@@ -13918,11 +13903,11 @@
         <v/>
       </c>
       <c r="D6" s="71" t="str">
-        <v>HKD_YCSTDRH_6MD</v>
+        <v>HKD_YCSTDRH_QM3H5Y</v>
       </c>
       <c r="E6" s="72">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>5.5071E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F6" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -13930,32 +13915,32 @@
       </c>
       <c r="G6" s="59">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H6" s="82">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>41780</v>
+        <v>43426</v>
       </c>
       <c r="I6" s="68">
-        <v>0.99727651951989793</v>
+        <v>0.92680248144745481</v>
       </c>
       <c r="J6" s="73"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_RateHelpersSelected#0006</v>
+        <v>HKD_YCSTDRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="79" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="71" t="str">
-        <v>HKD_YCSTDRH_1YD</v>
+        <v>HKD_YCSTDRH_QM3H7Y</v>
       </c>
       <c r="E7" s="72">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>8.6607000000000003E-3</v>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="F7" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -13963,24 +13948,24 @@
       </c>
       <c r="G7" s="59">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H7" s="82">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>41964</v>
+        <v>44158</v>
       </c>
       <c r="I7" s="68">
-        <v>0.99141366368294392</v>
+        <v>0.86135922590848457</v>
       </c>
       <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H2Y</v>
+        <v>HKD_YCSTDRH_QM3H10Y</v>
       </c>
       <c r="E8" s="72">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>5.4000000000000003E-3</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="F8" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -13988,24 +13973,24 @@
       </c>
       <c r="G8" s="59">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H8" s="82">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42331</v>
+        <v>45252</v>
       </c>
       <c r="I8" s="68">
-        <v>0.98924989642573313</v>
+        <v>0.76199858520649011</v>
       </c>
       <c r="J8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H3Y</v>
+        <v>HKD_YCSTDRH_QM3H12Y</v>
       </c>
       <c r="E9" s="72">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>7.7000000000000002E-3</v>
+        <v>2.8099999999999997E-2</v>
       </c>
       <c r="F9" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -14013,24 +13998,24 @@
       </c>
       <c r="G9" s="59">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H9" s="82">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42695</v>
+        <v>45985</v>
       </c>
       <c r="I9" s="68">
-        <v>0.97712518371930424</v>
+        <v>0.70363327699597278</v>
       </c>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H4Y</v>
+        <v>HKD_YCSTDRH_QM3H15Y</v>
       </c>
       <c r="E10" s="72">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>1.0899999999999998E-2</v>
+        <v>2.9400000000000003E-2</v>
       </c>
       <c r="F10" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -14038,138 +14023,138 @@
       </c>
       <c r="G10" s="59">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41599</v>
+        <v>41600</v>
       </c>
       <c r="H10" s="82">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>43060</v>
+        <v>47079</v>
       </c>
       <c r="I10" s="68">
-        <v>0.95709961776375052</v>
+        <v>0.63146264465127411</v>
       </c>
       <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H5Y</v>
-      </c>
-      <c r="E11" s="72">
+      <c r="D11" s="71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="72" t="e">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>1.4100000000000001E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F11" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="59">
+      <c r="G11" s="59" t="e">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41599</v>
-      </c>
-      <c r="H11" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H11" s="82" t="e">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>43425</v>
-      </c>
-      <c r="I11" s="68">
-        <v>0.93123228493986721</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I11" s="68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H7Y</v>
-      </c>
-      <c r="E12" s="72">
+      <c r="D12" s="71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="72" t="e">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>1.95E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="59">
+      <c r="G12" s="59" t="e">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41599</v>
-      </c>
-      <c r="H12" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="82" t="e">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>44158</v>
-      </c>
-      <c r="I12" s="68">
-        <v>0.86975751532887069</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H10Y</v>
-      </c>
-      <c r="E13" s="72">
+      <c r="D13" s="71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="72" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>2.4500000000000001E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="59">
+      <c r="G13" s="59" t="e">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>41599</v>
-      </c>
-      <c r="H13" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H13" s="82" t="e">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>45251</v>
-      </c>
-      <c r="I13" s="68">
-        <v>0.77632258496902806</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I13" s="68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H12Y</v>
-      </c>
-      <c r="E14" s="72">
+      <c r="D14" s="71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="72" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>2.6100000000000002E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="59" t="e">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>41599</v>
-      </c>
-      <c r="H14" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H14" s="82" t="e">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>45982</v>
-      </c>
-      <c r="I14" s="68">
-        <v>0.72274712849950817</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" s="68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="71" t="str">
-        <v>HKD_YCSTDRH_QM3H15Y</v>
-      </c>
-      <c r="E15" s="72">
+      <c r="D15" s="71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="72" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>2.7199999999999998E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="72">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="59">
+      <c r="G15" s="59" t="e">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>41599</v>
-      </c>
-      <c r="H15" s="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H15" s="82" t="e">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>47078</v>
-      </c>
-      <c r="I15" s="68">
-        <v>0.65510057280654344</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="68" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15030" windowHeight="7785" firstSheet="1" activeTab="4"/>
+    <workbookView visibility="hidden" xWindow="435" yWindow="555" windowWidth="37110" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="IborType">'General Settings'!$D$6</definedName>
     <definedName name="IndexTenor">'General Settings'!$D$5</definedName>
     <definedName name="InterpolatorID">'General Settings'!$D$16</definedName>
-    <definedName name="MinDistance">RateHelpers!$F$2:$F$54</definedName>
+    <definedName name="MinDistance">RateHelpers!$F$2:$F$47</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$J$18</definedName>
     <definedName name="Months">'General Settings'!$D$4</definedName>
     <definedName name="NDays">'General Settings'!$D$13</definedName>
@@ -38,9 +38,9 @@
     <definedName name="Permanent">'General Settings'!$J$5</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$J$16</definedName>
     <definedName name="RateHelperPrefix">'General Settings'!$D$8</definedName>
-    <definedName name="RateHelpers">RateHelpers!$A$2:$A$54</definedName>
-    <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$54</definedName>
-    <definedName name="RateHelpersPriority">RateHelpers!$E$2:$E$54</definedName>
+    <definedName name="RateHelpers">RateHelpers!$A$2:$A$47</definedName>
+    <definedName name="RateHelpersIncluded">RateHelpers!$D$2:$D$47</definedName>
+    <definedName name="RateHelpersPriority">RateHelpers!$E$2:$E$47</definedName>
     <definedName name="RateHelpersSelected">Selected!$A$7</definedName>
     <definedName name="SerializationPath">'General Settings'!$J$8</definedName>
     <definedName name="Serialize">'General Settings'!$J$7</definedName>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -468,12 +468,6 @@
     <t>Quarterly</t>
   </si>
   <si>
-    <t>0D</t>
-  </si>
-  <si>
-    <t>Following</t>
-  </si>
-  <si>
     <t>dc</t>
   </si>
   <si>
@@ -505,6 +499,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>-1D</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1150,7 @@
     <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1458,6 +1455,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,23 +1814,23 @@
     <row r="1" spans="1:30" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov 12 2013 12:02:30</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
-      <c r="H2" s="143" t="s">
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="H2" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="73">
-        <v>41600.746655092589</v>
+        <v>41606.781898148147</v>
       </c>
       <c r="K4" s="78"/>
       <c r="L4" s="1"/>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="J8" s="81" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K8" s="78"/>
       <c r="L8" s="1"/>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D10" s="13" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0001</v>
+        <v>HKDYCSTD#0000</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2150,7 +2150,7 @@
         <v/>
       </c>
       <c r="E11" s="138" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="143" t="s">
+      <c r="H12" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="146"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2417,7 +2417,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="22">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="D18" s="23">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2459,11 +2459,11 @@
       <c r="B19" s="2"/>
       <c r="C19" s="24">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>47079</v>
+        <v>47091</v>
       </c>
       <c r="D19" s="9">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.63120596457403599</v>
+        <v>0.63010146421317115</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -2536,14 +2536,8 @@
     <row r="21" spans="1:30" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="139" t="str">
-        <f>UPPER(Currency)&amp;"STD"</f>
-        <v>HKDSTD</v>
-      </c>
-      <c r="D21" s="139" t="b">
-        <f>_xll.qlRelinkableHandleLinkTo(C21,YieldCurve)</f>
-        <v>1</v>
-      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="1"/>
@@ -3886,7 +3880,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3905,7 +3899,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="str">
         <f>HKD_YCRH_Deposits_STD!F3</f>
-        <v>HKD_YCSTDRH_OND#0001</v>
+        <v>HKD_YCSTDRH_OND#0000</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="102"/>
@@ -3933,9 +3927,9 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="98" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
-        <v>9</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="97" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
@@ -3962,14 +3956,14 @@
       </c>
       <c r="F3" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0001</v>
+        <v>HKD_YCSTDRH_OND#0000</v>
       </c>
       <c r="G3" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
       <c r="H3" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3991,14 +3985,14 @@
       </c>
       <c r="F4" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0001</v>
+        <v>HKD_YCSTDRH_SWD#0000</v>
       </c>
       <c r="G4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
       <c r="H4" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4020,14 +4014,14 @@
       </c>
       <c r="F5" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0001</v>
+        <v>HKD_YCSTDRH_2WD#0000</v>
       </c>
       <c r="G5" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
       <c r="H5" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4049,14 +4043,14 @@
       </c>
       <c r="F6" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0001</v>
+        <v>HKD_YCSTDRH_1MD#0000</v>
       </c>
       <c r="G6" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
       <c r="H6" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4078,14 +4072,14 @@
       </c>
       <c r="F7" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0001</v>
+        <v>HKD_YCSTDRH_2MD#0000</v>
       </c>
       <c r="G7" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
       <c r="H7" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4107,14 +4101,14 @@
       </c>
       <c r="F8" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0001</v>
+        <v>HKD_YCSTDRH_3MD#0000</v>
       </c>
       <c r="G8" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
       <c r="H8" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4136,14 +4130,14 @@
       </c>
       <c r="F9" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0001</v>
+        <v>HKD_YCSTDRH_6MD#0000</v>
       </c>
       <c r="G9" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
       <c r="H9" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4165,14 +4159,14 @@
       </c>
       <c r="F10" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0001</v>
+        <v>HKD_YCSTDRH_9MD#0000</v>
       </c>
       <c r="G10" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
       <c r="H10" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4194,14 +4188,14 @@
       </c>
       <c r="F11" s="90" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0001</v>
+        <v>HKD_YCSTDRH_1YD#0000</v>
       </c>
       <c r="G11" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
         <v/>
       </c>
       <c r="H11" s="134" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4230,7 +4224,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4251,6 +4245,7 @@
     <col min="14" max="15" width="2.7109375" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4302,22 +4297,22 @@
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="117"/>
       <c r="B3" s="128" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="128"/>
       <c r="D3" s="128"/>
       <c r="E3" s="128"/>
       <c r="F3" s="128" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="128" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" s="128" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I3" s="128" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J3" s="128" t="s">
         <v>80</v>
@@ -4326,31 +4321,31 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="126">
+      <c r="L3" s="126" t="e">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L28,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
-        <v>24</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="109" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P3" s="125" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q3" s="125" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R3" s="125" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S3" s="125" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T3" s="125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -4367,23 +4362,23 @@
       <c r="K4" s="120"/>
       <c r="L4" s="124" t="str">
         <f>_xll.qlIborIndex(,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015a#0000</v>
+        <v>obj_0015f#0000</v>
       </c>
       <c r="M4" s="123" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
       <c r="N4" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P4" s="122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>62</v>
       </c>
       <c r="R4" s="122" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="S4" s="122" t="b">
         <v>1</v>
@@ -4407,13 +4402,13 @@
       <c r="L5" s="120"/>
       <c r="M5" s="120"/>
       <c r="N5" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
-      <c r="B6" s="116" t="s">
-        <v>88</v>
+      <c r="B6" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C6" s="116" t="s">
         <v>23</v>
@@ -4454,13 +4449,13 @@
         <v/>
       </c>
       <c r="N6" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
-      <c r="B7" s="116" t="s">
-        <v>88</v>
+      <c r="B7" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="116" t="s">
         <v>24</v>
@@ -4501,13 +4496,13 @@
         <v/>
       </c>
       <c r="N7" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
-      <c r="B8" s="116" t="s">
-        <v>88</v>
+      <c r="B8" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="116" t="s">
         <v>25</v>
@@ -4548,13 +4543,13 @@
         <v/>
       </c>
       <c r="N8" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
-      <c r="B9" s="116" t="s">
-        <v>88</v>
+      <c r="B9" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C9" s="116" t="s">
         <v>26</v>
@@ -4595,13 +4590,13 @@
         <v/>
       </c>
       <c r="N9" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
-      <c r="B10" s="116" t="s">
-        <v>88</v>
+      <c r="B10" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C10" s="116" t="s">
         <v>27</v>
@@ -4642,13 +4637,13 @@
         <v/>
       </c>
       <c r="N10" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="117"/>
-      <c r="B11" s="116" t="s">
-        <v>88</v>
+      <c r="B11" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="116" t="s">
         <v>28</v>
@@ -4689,13 +4684,13 @@
         <v/>
       </c>
       <c r="N11" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="117"/>
-      <c r="B12" s="116" t="s">
-        <v>88</v>
+      <c r="B12" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C12" s="116" t="s">
         <v>29</v>
@@ -4736,13 +4731,13 @@
         <v/>
       </c>
       <c r="N12" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="117"/>
-      <c r="B13" s="116" t="s">
-        <v>88</v>
+      <c r="B13" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C13" s="116" t="s">
         <v>30</v>
@@ -4783,13 +4778,13 @@
         <v/>
       </c>
       <c r="N13" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="117"/>
-      <c r="B14" s="116" t="s">
-        <v>88</v>
+      <c r="B14" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="116" t="s">
         <v>31</v>
@@ -4830,13 +4825,13 @@
         <v/>
       </c>
       <c r="N14" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="117"/>
-      <c r="B15" s="116" t="s">
-        <v>88</v>
+      <c r="B15" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="116" t="s">
         <v>32</v>
@@ -4877,13 +4872,13 @@
         <v/>
       </c>
       <c r="N15" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="117"/>
-      <c r="B16" s="116" t="s">
-        <v>88</v>
+      <c r="B16" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="116" t="s">
         <v>33</v>
@@ -4924,13 +4919,13 @@
         <v/>
       </c>
       <c r="N16" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
-      <c r="B17" s="116" t="s">
-        <v>88</v>
+      <c r="B17" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C17" s="116" t="s">
         <v>34</v>
@@ -4971,13 +4966,13 @@
         <v/>
       </c>
       <c r="N17" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="117"/>
-      <c r="B18" s="116" t="s">
-        <v>88</v>
+      <c r="B18" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C18" s="116" t="s">
         <v>35</v>
@@ -5018,13 +5013,13 @@
         <v/>
       </c>
       <c r="N18" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="117"/>
-      <c r="B19" s="116" t="s">
-        <v>88</v>
+      <c r="B19" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="116" t="s">
         <v>39</v>
@@ -5065,13 +5060,13 @@
         <v/>
       </c>
       <c r="N19" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="117"/>
-      <c r="B20" s="116" t="s">
-        <v>88</v>
+      <c r="B20" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="116" t="s">
         <v>40</v>
@@ -5112,13 +5107,13 @@
         <v/>
       </c>
       <c r="N20" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="117"/>
-      <c r="B21" s="116" t="s">
-        <v>88</v>
+      <c r="B21" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>41</v>
@@ -5159,13 +5154,13 @@
         <v/>
       </c>
       <c r="N21" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="117"/>
-      <c r="B22" s="116" t="s">
-        <v>88</v>
+      <c r="B22" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="116" t="s">
         <v>42</v>
@@ -5206,13 +5201,13 @@
         <v/>
       </c>
       <c r="N22" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="117"/>
-      <c r="B23" s="116" t="s">
-        <v>88</v>
+      <c r="B23" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C23" s="116" t="s">
         <v>36</v>
@@ -5253,13 +5248,13 @@
         <v/>
       </c>
       <c r="N23" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="117"/>
-      <c r="B24" s="116" t="s">
-        <v>88</v>
+      <c r="B24" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C24" s="116" t="s">
         <v>43</v>
@@ -5300,13 +5295,13 @@
         <v/>
       </c>
       <c r="N24" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="117"/>
-      <c r="B25" s="116" t="s">
-        <v>88</v>
+      <c r="B25" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C25" s="116" t="s">
         <v>44</v>
@@ -5347,13 +5342,13 @@
         <v/>
       </c>
       <c r="N25" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="117"/>
-      <c r="B26" s="116" t="s">
-        <v>88</v>
+      <c r="B26" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C26" s="116" t="s">
         <v>45</v>
@@ -5394,13 +5389,13 @@
         <v/>
       </c>
       <c r="N26" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="117"/>
-      <c r="B27" s="116" t="s">
-        <v>88</v>
+      <c r="B27" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C27" s="116" t="s">
         <v>46</v>
@@ -5441,13 +5436,13 @@
         <v/>
       </c>
       <c r="N27" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="117"/>
-      <c r="B28" s="116" t="s">
-        <v>88</v>
+      <c r="B28" s="140" t="s">
+        <v>99</v>
       </c>
       <c r="C28" s="116" t="s">
         <v>37</v>
@@ -5488,7 +5483,7 @@
         <v/>
       </c>
       <c r="N28" s="135" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5531,10 +5526,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5578,11 +5573,11 @@
     <row r="2" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="str">
         <f>HKD_YCRH_Deposits_STD!F3</f>
-        <v>HKD_YCSTDRH_OND#0001</v>
+        <v>HKD_YCSTDRH_OND#0000</v>
       </c>
       <c r="B2" s="36">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>7.1330000000000005E-4</v>
+        <v>7.428999999999999E-4</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="37" t="b">
@@ -5596,21 +5591,21 @@
       </c>
       <c r="G2" s="42">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41600</v>
+        <v>41607</v>
       </c>
       <c r="H2" s="43">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>41603</v>
+        <v>41610</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="str">
         <f>HKD_YCRH_Deposits_STD!F4</f>
-        <v>HKD_YCSTDRH_SWD#0001</v>
+        <v>HKD_YCSTDRH_SWD#0000</v>
       </c>
       <c r="B3" s="36">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>1.3066E-3</v>
+        <v>1.3494999999999998E-3</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37" t="b">
@@ -5624,21 +5619,21 @@
       </c>
       <c r="G3" s="42">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H3" s="43">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41607</v>
+        <v>41618</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="str">
         <f>HKD_YCRH_Deposits_STD!F5</f>
-        <v>HKD_YCSTDRH_2WD#0001</v>
+        <v>HKD_YCSTDRH_2WD#0000</v>
       </c>
       <c r="B4" s="36">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
-        <v>1.6357000000000001E-3</v>
+        <v>1.5929E-3</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37" t="b">
@@ -5652,21 +5647,21 @@
       </c>
       <c r="G4" s="42">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H4" s="43">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41614</v>
+        <v>41625</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B5" s="36" t="e">
+      <c r="A5" s="35" t="str">
+        <f>HKD_YCRH_Deposits_STD!F6</f>
+        <v>HKD_YCSTDRH_1MD#0000</v>
+      </c>
+      <c r="B5" s="36">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>2.1356999999999999E-3</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="37" t="b">
@@ -5678,23 +5673,23 @@
       <c r="F5" s="37">
         <v>1</v>
       </c>
-      <c r="G5" s="42" t="e">
+      <c r="G5" s="42">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="43" t="e">
+        <v>41611</v>
+      </c>
+      <c r="H5" s="43">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>41642</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F6</f>
-        <v>HKD_YCSTDRH_1MD#0001</v>
+        <f>HKD_YCRH_Deposits_STD!F7</f>
+        <v>HKD_YCSTDRH_2MD#0000</v>
       </c>
       <c r="B6" s="36">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
-        <v>2.1643000000000001E-3</v>
+        <v>3.1429000000000001E-3</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="b">
@@ -5708,21 +5703,21 @@
       </c>
       <c r="G6" s="42">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>41631</v>
+        <v>41673</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F7</f>
-        <v>HKD_YCSTDRH_2MD#0001</v>
+        <f>HKD_YCRH_Deposits_STD!F8</f>
+        <v>HKD_YCSTDRH_3MD#0000</v>
       </c>
       <c r="B7" s="36">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
-        <v>3.1829000000000002E-3</v>
+        <v>3.7857000000000003E-3</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="b">
@@ -5736,25 +5731,25 @@
       </c>
       <c r="G7" s="42">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H7" s="43">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41661</v>
+        <v>41701</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F8</f>
-        <v>HKD_YCSTDRH_3MD#0001</v>
+        <f>HKD_YCRH_Deposits_STD!F9</f>
+        <v>HKD_YCSTDRH_6MD#0000</v>
       </c>
       <c r="B8" s="36">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>3.8214000000000004E-3</v>
+        <v>5.4856999999999996E-3</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="37">
         <v>10</v>
@@ -5764,21 +5759,21 @@
       </c>
       <c r="G8" s="42">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>41694</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="36" t="e">
+      <c r="A9" s="35" t="str">
+        <f>HKD_YCRH_Deposits_STD!F10</f>
+        <v>HKD_YCSTDRH_9MD#0000</v>
+      </c>
+      <c r="B9" s="36">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>6.3847000000000001E-3</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="b">
@@ -5790,254 +5785,283 @@
       <c r="F9" s="37">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="e">
+      <c r="G9" s="42">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H9" s="43" t="e">
+        <v>41611</v>
+      </c>
+      <c r="H9" s="43">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>41885</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B10" s="36" t="e">
+      <c r="A10" s="38" t="str">
+        <f>HKD_YCRH_Deposits_STD!F11</f>
+        <v>HKD_YCSTDRH_1YD#0000</v>
+      </c>
+      <c r="B10" s="39">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="37">
+        <v>8.6570999999999992E-3</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="40">
         <v>10</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="40">
         <v>1</v>
       </c>
-      <c r="G10" s="42" t="e">
+      <c r="G10" s="44">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H10" s="43" t="e">
+        <v>41611</v>
+      </c>
+      <c r="H10" s="45">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>41976</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F9</f>
-        <v>HKD_YCSTDRH_6MD#0001</v>
+        <f>HKD_YCRH_Swaps_STD!L6</f>
+        <v>HKD_YCSTDRH_QM3H1Y#0000</v>
       </c>
       <c r="B11" s="36">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
-        <v>5.4856999999999996E-3</v>
-      </c>
-      <c r="C11" s="36"/>
+        <v>4.3E-3</v>
+      </c>
+      <c r="C11" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A11,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="37" t="b">
+        <f t="shared" ref="D11:D14" si="0">IF(ISERROR(B11),FALSE,TRUE)</f>
         <v>1</v>
       </c>
       <c r="E11" s="37">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F11" s="37">
         <v>1</v>
       </c>
       <c r="G11" s="42">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H11" s="43">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>41781</v>
+        <v>41975</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="35" t="str">
+        <f>HKD_YCRH_Swaps_STD!L7</f>
+        <v>HKD_YCSTDRH_QM3H15M#0000</v>
       </c>
       <c r="B12" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A12,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="36"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A12,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D12" s="37" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="37">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F12" s="37">
         <v>1</v>
       </c>
-      <c r="G12" s="42" t="e">
+      <c r="G12" s="42">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="43" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H12" s="43">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42065</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="36" t="e">
+      <c r="A13" s="35" t="str">
+        <f>HKD_YCRH_Swaps_STD!L8</f>
+        <v>HKD_YCSTDRH_QM3H18M#0000</v>
+      </c>
+      <c r="B13" s="36">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="36"/>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C13" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A13,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D13" s="37" t="b">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13" s="37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F13" s="37">
         <v>1</v>
       </c>
-      <c r="G13" s="42" t="e">
+      <c r="G13" s="42">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H13" s="43" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H13" s="43">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42157</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F10</f>
-        <v>HKD_YCSTDRH_9MD#0001</v>
-      </c>
-      <c r="B14" s="36">
+        <f>HKD_YCRH_Swaps_STD!L9</f>
+        <v>HKD_YCSTDRH_QM3H21M#0000</v>
+      </c>
+      <c r="B14" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A14,Trigger)</f>
-        <v>6.4059000000000008E-3</v>
-      </c>
-      <c r="C14" s="36"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="C14" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A14,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D14" s="37" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14" s="37">
         <v>1</v>
       </c>
       <c r="G14" s="42">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H14" s="43">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>41873</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B15" s="36" t="e">
+      <c r="A15" s="35" t="str">
+        <f>HKD_YCRH_Swaps_STD!L10</f>
+        <v>HKD_YCSTDRH_QM3H2Y#0000</v>
+      </c>
+      <c r="B15" s="36">
         <f>_xll.qlRateHelperQuoteValue($A15,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="36"/>
+        <v>5.3E-3</v>
+      </c>
+      <c r="C15" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A15,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D15" s="37" t="b">
-        <v>0</v>
+        <f>IF(ISERROR(B15),FALSE,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="E15" s="37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F15" s="37">
         <v>1</v>
       </c>
-      <c r="G15" s="42" t="e">
+      <c r="G15" s="42">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H15" s="43" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H15" s="43">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="e">
-        <f>HKD_YCRH_Deposits_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="36" t="e">
+      <c r="A16" s="35" t="str">
+        <f>HKD_YCRH_Swaps_STD!L11</f>
+        <v>HKD_YCSTDRH_QM3H3Y#0000</v>
+      </c>
+      <c r="B16" s="36">
         <f>_xll.qlRateHelperQuoteValue($A16,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="36"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="C16" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A16,Trigger)</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="37" t="b">
-        <v>0</v>
+        <f t="shared" ref="D16:D47" si="1">IF(ISERROR(B16),FALSE,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="E16" s="37">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F16" s="37">
         <v>1</v>
       </c>
-      <c r="G16" s="42" t="e">
+      <c r="G16" s="42">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H16" s="43" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H16" s="43">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>#VALUE!</v>
+        <v>42706</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="str">
-        <f>HKD_YCRH_Deposits_STD!F11</f>
-        <v>HKD_YCSTDRH_1YD#0001</v>
-      </c>
-      <c r="B17" s="39">
+      <c r="A17" s="35" t="str">
+        <f>HKD_YCRH_Swaps_STD!L12</f>
+        <v>HKD_YCSTDRH_QM3H4Y#0000</v>
+      </c>
+      <c r="B17" s="36">
         <f>_xll.qlRateHelperQuoteValue($A17,Trigger)</f>
-        <v>8.667900000000001E-3</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="40">
-        <v>60</v>
-      </c>
-      <c r="F17" s="40">
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="C17" s="36">
+        <f>_xll.qlSwapRateHelperSpread($A17,Trigger)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="37" t="b">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="44">
+      <c r="E17" s="37">
+        <v>50</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H17" s="45">
+        <v>41610</v>
+      </c>
+      <c r="H17" s="43">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>41967</v>
+        <v>43073</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L6</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L13</f>
+        <v>HKD_YCSTDRH_QM3H5Y#0000</v>
       </c>
       <c r="B18" s="36">
         <f>_xll.qlRateHelperQuoteValue($A18,Trigger)</f>
-        <v>4.3E-3</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="C18" s="36">
         <f>_xll.qlSwapRateHelperSpread($A18,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D18" s="37" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E18" s="37">
         <v>50</v>
@@ -6047,17 +6071,17 @@
       </c>
       <c r="G18" s="42">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H18" s="43">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>41967</v>
+        <v>43437</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L7</f>
-        <v>HKD_YCSTDRH_QM3H15M#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L14</f>
+        <v>HKD_YCSTDRH_QM3H6Y#0000</v>
       </c>
       <c r="B19" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A19,Trigger)</f>
@@ -6068,6 +6092,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="37" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E19" s="37">
@@ -6078,28 +6103,29 @@
       </c>
       <c r="G19" s="42">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H19" s="43">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>42058</v>
+        <v>43801</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L8</f>
-        <v>HKD_YCSTDRH_QM3H18M#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L15</f>
+        <v>HKD_YCSTDRH_QM3H7Y#0000</v>
       </c>
       <c r="B20" s="36">
         <f>_xll.qlRateHelperQuoteValue($A20,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="C20" s="36">
         <f>_xll.qlSwapRateHelperSpread($A20,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D20" s="37" t="b">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E20" s="37">
         <v>50</v>
@@ -6109,17 +6135,17 @@
       </c>
       <c r="G20" s="42">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H20" s="43">
         <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
-        <v>42146</v>
+        <v>44167</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L9</f>
-        <v>HKD_YCSTDRH_QM3H21M#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L16</f>
+        <v>HKD_YCSTDRH_QM3H8Y#0000</v>
       </c>
       <c r="B21" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A21,Trigger)</f>
@@ -6130,6 +6156,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="37" t="b">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="37">
@@ -6140,29 +6167,29 @@
       </c>
       <c r="G21" s="42">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H21" s="43">
         <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
-        <v>42240</v>
+        <v>44532</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L10</f>
-        <v>HKD_YCSTDRH_QM3H2Y#0000</v>
-      </c>
-      <c r="B22" s="36">
+        <f>HKD_YCRH_Swaps_STD!L17</f>
+        <v>HKD_YCSTDRH_QM3H9Y#0000</v>
+      </c>
+      <c r="B22" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A22,Trigger)</f>
-        <v>5.1999999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C22" s="36">
         <f>_xll.qlSwapRateHelperSpread($A22,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D22" s="37" t="b">
-        <f>IF(ISERROR(B22),FALSE,TRUE)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E22" s="37">
         <v>50</v>
@@ -6172,28 +6199,28 @@
       </c>
       <c r="G22" s="42">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H22" s="43">
         <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
-        <v>42331</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L11</f>
-        <v>HKD_YCSTDRH_QM3H3Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L18</f>
+        <v>HKD_YCSTDRH_QM3H10Y#0000</v>
       </c>
       <c r="B23" s="36">
         <f>_xll.qlRateHelperQuoteValue($A23,Trigger)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.63E-2</v>
       </c>
       <c r="C23" s="36">
         <f>_xll.qlSwapRateHelperSpread($A23,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D23" s="37" t="b">
-        <f t="shared" ref="D23:D54" si="0">IF(ISERROR(B23),FALSE,TRUE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E23" s="37">
@@ -6204,29 +6231,29 @@
       </c>
       <c r="G23" s="42">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H23" s="43">
         <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
-        <v>42696</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L12</f>
-        <v>HKD_YCSTDRH_QM3H4Y#0000</v>
-      </c>
-      <c r="B24" s="36">
+        <f>HKD_YCRH_Swaps_STD!L19</f>
+        <v>HKD_YCSTDRH_QM3H11Y#0000</v>
+      </c>
+      <c r="B24" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A24,Trigger)</f>
-        <v>1.1099999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="C24" s="36">
         <f>_xll.qlSwapRateHelperSpread($A24,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D24" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E24" s="37">
         <v>50</v>
@@ -6236,28 +6263,28 @@
       </c>
       <c r="G24" s="42">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H24" s="43">
         <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
-        <v>43061</v>
+        <v>45628</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L13</f>
-        <v>HKD_YCSTDRH_QM3H5Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L20</f>
+        <v>HKD_YCSTDRH_QM3H12Y#0000</v>
       </c>
       <c r="B25" s="36">
         <f>_xll.qlRateHelperQuoteValue($A25,Trigger)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.8200000000000003E-2</v>
       </c>
       <c r="C25" s="36">
         <f>_xll.qlSwapRateHelperSpread($A25,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D25" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E25" s="37">
@@ -6268,17 +6295,17 @@
       </c>
       <c r="G25" s="42">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H25" s="43">
         <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
-        <v>43426</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L14</f>
-        <v>HKD_YCSTDRH_QM3H6Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L21</f>
+        <v>HKD_YCSTDRH_QM3H13Y#0000</v>
       </c>
       <c r="B26" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A26,Trigger)</f>
@@ -6289,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26" s="37">
@@ -6300,29 +6327,29 @@
       </c>
       <c r="G26" s="42">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H26" s="43">
         <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
-        <v>43791</v>
+        <v>46358</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L15</f>
-        <v>HKD_YCSTDRH_QM3H7Y#0000</v>
-      </c>
-      <c r="B27" s="36">
+        <f>HKD_YCRH_Swaps_STD!L22</f>
+        <v>HKD_YCSTDRH_QM3H14Y#0000</v>
+      </c>
+      <c r="B27" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A27,Trigger)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="C27" s="36">
         <f>_xll.qlSwapRateHelperSpread($A27,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D27" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E27" s="37">
         <v>50</v>
@@ -6332,29 +6359,29 @@
       </c>
       <c r="G27" s="42">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H27" s="43">
         <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
-        <v>44158</v>
+        <v>46723</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L16</f>
-        <v>HKD_YCSTDRH_QM3H8Y#0000</v>
-      </c>
-      <c r="B28" s="36" t="e">
+        <f>HKD_YCRH_Swaps_STD!L23</f>
+        <v>HKD_YCSTDRH_QM3H15Y#0000</v>
+      </c>
+      <c r="B28" s="36">
         <f>_xll.qlRateHelperQuoteValue($A28,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.9500000000000002E-2</v>
       </c>
       <c r="C28" s="36">
         <f>_xll.qlSwapRateHelperSpread($A28,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D28" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E28" s="37">
         <v>50</v>
@@ -6364,17 +6391,17 @@
       </c>
       <c r="G28" s="42">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H28" s="43">
         <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
-        <v>44522</v>
+        <v>47091</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L17</f>
-        <v>HKD_YCSTDRH_QM3H9Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L24</f>
+        <v>HKD_YCSTDRH_QM3H16Y#0000</v>
       </c>
       <c r="B29" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A29,Trigger)</f>
@@ -6385,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="37">
@@ -6396,29 +6423,29 @@
       </c>
       <c r="G29" s="42">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H29" s="43">
         <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
-        <v>44887</v>
+        <v>47455</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L18</f>
-        <v>HKD_YCSTDRH_QM3H10Y#0000</v>
-      </c>
-      <c r="B30" s="36">
+        <f>HKD_YCRH_Swaps_STD!L25</f>
+        <v>HKD_YCSTDRH_QM3H17Y#0000</v>
+      </c>
+      <c r="B30" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A30,Trigger)</f>
-        <v>2.6200000000000001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="C30" s="36">
         <f>_xll.qlSwapRateHelperSpread($A30,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D30" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E30" s="37">
         <v>50</v>
@@ -6428,17 +6455,17 @@
       </c>
       <c r="G30" s="42">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H30" s="43">
         <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
-        <v>45252</v>
+        <v>47819</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L19</f>
-        <v>HKD_YCSTDRH_QM3H11Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L26</f>
+        <v>HKD_YCSTDRH_QM3H18Y#0000</v>
       </c>
       <c r="B31" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A31,Trigger)</f>
@@ -6449,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E31" s="37">
@@ -6460,29 +6487,29 @@
       </c>
       <c r="G31" s="42">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H31" s="43">
         <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
-        <v>45618</v>
+        <v>48184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L20</f>
-        <v>HKD_YCSTDRH_QM3H12Y#0000</v>
-      </c>
-      <c r="B32" s="36">
+        <f>HKD_YCRH_Swaps_STD!L27</f>
+        <v>HKD_YCSTDRH_QM3H19Y#0000</v>
+      </c>
+      <c r="B32" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A32,Trigger)</f>
-        <v>2.81E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="C32" s="36">
         <f>_xll.qlSwapRateHelperSpread($A32,Trigger)</f>
         <v>0</v>
       </c>
       <c r="D32" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E32" s="37">
         <v>50</v>
@@ -6492,17 +6519,17 @@
       </c>
       <c r="G32" s="42">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H32" s="43">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>45985</v>
+        <v>48550</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L21</f>
-        <v>HKD_YCSTDRH_QM3H13Y#0000</v>
+        <f>HKD_YCRH_Swaps_STD!L28</f>
+        <v>HKD_YCSTDRH_QM3H20Y#0000</v>
       </c>
       <c r="B33" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A33,Trigger)</f>
@@ -6513,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E33" s="37">
@@ -6524,28 +6551,28 @@
       </c>
       <c r="G33" s="42">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H33" s="43">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>46349</v>
+        <v>48915</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L22</f>
-        <v>HKD_YCSTDRH_QM3H14Y#0000</v>
+      <c r="A34" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B34" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A34,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C34" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A34,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D34" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E34" s="37">
@@ -6554,31 +6581,31 @@
       <c r="F34" s="37">
         <v>1</v>
       </c>
-      <c r="G34" s="42">
+      <c r="G34" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A34,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H34" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A34,Trigger)</f>
-        <v>46713</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L23</f>
-        <v>HKD_YCSTDRH_QM3H15Y#0000</v>
-      </c>
-      <c r="B35" s="36">
+      <c r="A35" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B35" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A35,Trigger)</f>
-        <v>2.9400000000000003E-2</v>
-      </c>
-      <c r="C35" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A35,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D35" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="E35" s="37">
         <v>50</v>
@@ -6586,30 +6613,30 @@
       <c r="F35" s="37">
         <v>1</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A35,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H35" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A35,Trigger)</f>
-        <v>47079</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L24</f>
-        <v>HKD_YCSTDRH_QM3H16Y#0000</v>
+      <c r="A36" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B36" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A36,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C36" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A36,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D36" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E36" s="37">
@@ -6618,30 +6645,30 @@
       <c r="F36" s="37">
         <v>1</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A36,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H36" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A36,Trigger)</f>
-        <v>47444</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L25</f>
-        <v>HKD_YCSTDRH_QM3H17Y#0000</v>
+      <c r="A37" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B37" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A37,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C37" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A37,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D37" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E37" s="37">
@@ -6650,30 +6677,30 @@
       <c r="F37" s="37">
         <v>1</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A37,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H37" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A37,Trigger)</f>
-        <v>47809</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L26</f>
-        <v>HKD_YCSTDRH_QM3H18Y#0000</v>
+      <c r="A38" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B38" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A38,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C38" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A38,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D38" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E38" s="37">
@@ -6682,30 +6709,30 @@
       <c r="F38" s="37">
         <v>1</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A38,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H38" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A38,Trigger)</f>
-        <v>48176</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L27</f>
-        <v>HKD_YCSTDRH_QM3H19Y#0000</v>
+      <c r="A39" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B39" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A39,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C39" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A39,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D39" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E39" s="37">
@@ -6714,30 +6741,30 @@
       <c r="F39" s="37">
         <v>1</v>
       </c>
-      <c r="G39" s="42">
+      <c r="G39" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A39,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H39" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A39,Trigger)</f>
-        <v>48540</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L28</f>
-        <v>HKD_YCSTDRH_QM3H20Y#0000</v>
+      <c r="A40" s="35" t="e">
+        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B40" s="36" t="e">
         <f>_xll.qlRateHelperQuoteValue($A40,Trigger)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C40" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="36" t="e">
         <f>_xll.qlSwapRateHelperSpread($A40,Trigger)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D40" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E40" s="37">
@@ -6746,13 +6773,13 @@
       <c r="F40" s="37">
         <v>1</v>
       </c>
-      <c r="G40" s="42">
+      <c r="G40" s="42" t="e">
         <f>_xll.qlRateHelperEarliestDate($A40,Trigger)</f>
-        <v>41600</v>
-      </c>
-      <c r="H40" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="43" t="e">
         <f>_xll.qlRateHelperLatestDate($A40,Trigger)</f>
-        <v>48905</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -6769,7 +6796,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D41" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E41" s="37">
@@ -6801,7 +6828,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D42" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E42" s="37">
@@ -6833,7 +6860,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D43" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E43" s="37">
@@ -6865,7 +6892,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D44" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E44" s="37">
@@ -6897,7 +6924,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D45" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E45" s="37">
@@ -6929,7 +6956,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="D46" s="37" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="37">
@@ -6948,258 +6975,34 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="e">
+      <c r="A47" s="38" t="e">
         <f>HKD_YCRH_Swaps_STD!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B47" s="36" t="e">
+      <c r="B47" s="39" t="e">
         <f>_xll.qlRateHelperQuoteValue($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C47" s="36" t="e">
+      <c r="C47" s="39" t="e">
         <f>_xll.qlSwapRateHelperSpread($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D47" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="37">
+      <c r="D47" s="40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="40">
         <v>50</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="40">
         <v>1</v>
       </c>
-      <c r="G47" s="42" t="e">
+      <c r="G47" s="44" t="e">
         <f>_xll.qlRateHelperEarliestDate($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="43" t="e">
+      <c r="H47" s="45" t="e">
         <f>_xll.qlRateHelperLatestDate($A47,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B48" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A48,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A48,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D48" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="37">
-        <v>50</v>
-      </c>
-      <c r="F48" s="37">
-        <v>1</v>
-      </c>
-      <c r="G48" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A48,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H48" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A48,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B49" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A49,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C49" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A49,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="37">
-        <v>50</v>
-      </c>
-      <c r="F49" s="37">
-        <v>1</v>
-      </c>
-      <c r="G49" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A49,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A49,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B50" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="37">
-        <v>50</v>
-      </c>
-      <c r="F50" s="37">
-        <v>1</v>
-      </c>
-      <c r="G50" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A50,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B51" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="37">
-        <v>50</v>
-      </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-      <c r="G51" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A51,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B52" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="37">
-        <v>50</v>
-      </c>
-      <c r="F52" s="37">
-        <v>1</v>
-      </c>
-      <c r="G52" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A52,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B53" s="36" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="36" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="37" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="37">
-        <v>50</v>
-      </c>
-      <c r="F53" s="37">
-        <v>1</v>
-      </c>
-      <c r="G53" s="42" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" s="43" t="e">
-        <f>_xll.qlRateHelperLatestDate($A53,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="38" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B54" s="39" t="e">
-        <f>_xll.qlRateHelperQuoteValue($A54,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="39" t="e">
-        <f>_xll.qlSwapRateHelperSpread($A54,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" s="40" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="40">
-        <v>50</v>
-      </c>
-      <c r="F54" s="40">
-        <v>1</v>
-      </c>
-      <c r="G54" s="44" t="e">
-        <f>_xll.qlRateHelperEarliestDate($A54,Trigger)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" s="45" t="e">
-        <f>_xll.qlRateHelperLatestDate($A54,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -7235,10 +7038,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="148"/>
       <c r="D1" s="46" t="s">
         <v>19</v>
       </c>
@@ -7278,14 +7081,14 @@
       </c>
       <c r="G2" s="42">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41600</v>
+        <v>41611</v>
       </c>
       <c r="H2" s="63">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41781</v>
+        <v>41793</v>
       </c>
       <c r="I2" s="49">
-        <v>0.99728707396165672</v>
+        <v>0.99720758682468025</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -7297,11 +7100,11 @@
         <v>0</v>
       </c>
       <c r="D3" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H2Y</v>
+        <v>HKD_YCSTDRH_QM3H1Y</v>
       </c>
       <c r="E3" s="53">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>5.1999999999999998E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="F3" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -7309,14 +7112,14 @@
       </c>
       <c r="G3" s="42">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H3" s="63">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42331</v>
+        <v>41975</v>
       </c>
       <c r="I3" s="49">
-        <v>0.98917884026345193</v>
+        <v>0.99516405241408801</v>
       </c>
       <c r="J3" s="54"/>
     </row>
@@ -7328,11 +7131,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H3Y</v>
+        <v>HKD_YCSTDRH_QM3H18M</v>
       </c>
       <c r="E4" s="53">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>7.4999999999999997E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="F4" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -7340,14 +7143,14 @@
       </c>
       <c r="G4" s="42">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H4" s="63">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42696</v>
+        <v>42157</v>
       </c>
       <c r="I4" s="49">
-        <v>0.97723163166895533</v>
+        <v>0.99258671529505726</v>
       </c>
       <c r="J4" s="54"/>
     </row>
@@ -7359,11 +7162,11 @@
         <v>63</v>
       </c>
       <c r="D5" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H4Y</v>
+        <v>HKD_YCSTDRH_QM3H2Y</v>
       </c>
       <c r="E5" s="53">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.1099999999999999E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F5" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -7371,14 +7174,14 @@
       </c>
       <c r="G5" s="42">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H5" s="63">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>43061</v>
+        <v>42340</v>
       </c>
       <c r="I5" s="49">
-        <v>0.95582016020742411</v>
+        <v>0.98891184674595289</v>
       </c>
       <c r="J5" s="54"/>
     </row>
@@ -7391,11 +7194,11 @@
         <v/>
       </c>
       <c r="D6" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H5Y</v>
+        <v>HKD_YCSTDRH_QM3H3Y</v>
       </c>
       <c r="E6" s="53">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.4999999999999999E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="F6" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -7403,32 +7206,32 @@
       </c>
       <c r="G6" s="42">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H6" s="63">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>43426</v>
+        <v>42706</v>
       </c>
       <c r="I6" s="49">
-        <v>0.92639429918931981</v>
+        <v>0.97685504276503465</v>
       </c>
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_RateHelpersSelected#0001</v>
+        <v>HKD_YCSTDRH_RateHelpersSelected#0000</v>
       </c>
       <c r="B7" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
       <c r="D7" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H7Y</v>
+        <v>HKD_YCSTDRH_QM3H4Y</v>
       </c>
       <c r="E7" s="53">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.0799999999999999E-2</v>
+        <v>1.1200000000000002E-2</v>
       </c>
       <c r="F7" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -7436,24 +7239,24 @@
       </c>
       <c r="G7" s="42">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H7" s="63">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>44158</v>
+        <v>43073</v>
       </c>
       <c r="I7" s="49">
-        <v>0.86099034038097244</v>
+        <v>0.95529444758957471</v>
       </c>
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D8" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H10Y</v>
+        <v>HKD_YCSTDRH_QM3H5Y</v>
       </c>
       <c r="E8" s="53">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.6200000000000001E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="F8" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -7461,24 +7264,24 @@
       </c>
       <c r="G8" s="42">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H8" s="63">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>45252</v>
+        <v>43437</v>
       </c>
       <c r="I8" s="49">
-        <v>0.7616818669975256</v>
+        <v>0.92580459090412093</v>
       </c>
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D9" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H12Y</v>
+        <v>HKD_YCSTDRH_QM3H7Y</v>
       </c>
       <c r="E9" s="53">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.81E-2</v>
+        <v>2.0999999999999998E-2</v>
       </c>
       <c r="F9" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -7486,24 +7289,24 @@
       </c>
       <c r="G9" s="42">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H9" s="63">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>45985</v>
+        <v>44167</v>
       </c>
       <c r="I9" s="49">
-        <v>0.70334447836416525</v>
+        <v>0.85969321858846626</v>
       </c>
       <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="52" t="str">
-        <v>HKD_YCSTDRH_QM3H15Y</v>
+        <v>HKD_YCSTDRH_QM3H10Y</v>
       </c>
       <c r="E10" s="53">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.9400000000000003E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="F10" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -7511,64 +7314,64 @@
       </c>
       <c r="G10" s="42">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41600</v>
+        <v>41610</v>
       </c>
       <c r="H10" s="63">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>47079</v>
+        <v>45264</v>
       </c>
       <c r="I10" s="49">
-        <v>0.63120596457403599</v>
+        <v>0.76075614357369992</v>
       </c>
       <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" s="53" t="e">
+      <c r="D11" s="52" t="str">
+        <v>HKD_YCSTDRH_QM3H12Y</v>
+      </c>
+      <c r="E11" s="53">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>#VALUE!</v>
+        <v>2.8200000000000003E-2</v>
       </c>
       <c r="F11" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="42" t="e">
+      <c r="G11" s="42">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" s="63" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H11" s="63">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="49" t="e">
-        <v>#N/A</v>
+        <v>45993</v>
+      </c>
+      <c r="I11" s="49">
+        <v>0.70254772253257103</v>
       </c>
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="53" t="e">
+      <c r="D12" s="52" t="str">
+        <v>HKD_YCSTDRH_QM3H15Y</v>
+      </c>
+      <c r="E12" s="53">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>#VALUE!</v>
+        <v>2.9500000000000002E-2</v>
       </c>
       <c r="F12" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="42" t="e">
+      <c r="G12" s="42">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H12" s="63" t="e">
+        <v>41610</v>
+      </c>
+      <c r="H12" s="63">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="49" t="e">
-        <v>#N/A</v>
+        <v>47091</v>
+      </c>
+      <c r="I12" s="49">
+        <v>0.63010146421317115</v>
       </c>
       <c r="J12" s="54"/>
     </row>

--- a/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="435" yWindow="555" windowWidth="37110" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="435" yWindow="555" windowWidth="37110" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
-    <sheet name="HKD_YCRH_Deposits_STD" sheetId="6" r:id="rId2"/>
-    <sheet name="HKD_YCRH_Swaps_STD" sheetId="8" r:id="rId3"/>
+    <sheet name="Deposits" sheetId="6" r:id="rId2"/>
+    <sheet name="Swaps" sheetId="8" r:id="rId3"/>
     <sheet name="RateHelpers" sheetId="2" r:id="rId4"/>
     <sheet name="Selected" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -21,7 +21,7 @@
     <definedName name="DepoInclusionCriteria">Selected!$B$5</definedName>
     <definedName name="Discounting">'General Settings'!#REF!</definedName>
     <definedName name="Discounting2">'General Settings'!#REF!</definedName>
-    <definedName name="DiscountingCurve" localSheetId="2">HKD_YCRH_Swaps_STD!$L$2</definedName>
+    <definedName name="DiscountingCurve" localSheetId="2">Swaps!$L$2</definedName>
     <definedName name="FamilyName">'General Settings'!$J$15</definedName>
     <definedName name="FileOverwrite">'General Settings'!$J$9</definedName>
     <definedName name="FrontFuturesRollingDays">Selected!$B$4</definedName>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="99">
   <si>
     <t>Earliest Date</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>-1D</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="73">
-        <v>41606.781898148147</v>
+        <v>41607.530127314814</v>
       </c>
       <c r="K4" s="78"/>
       <c r="L4" s="1"/>
@@ -2043,7 +2040,7 @@
       </c>
       <c r="J8" s="81" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>D:\QuantLibXL-1.3.0\Data2\XML\</v>
+        <v>N:\QuantLibXL-1.3.0\Data2\XML\</v>
       </c>
       <c r="K8" s="78"/>
       <c r="L8" s="1"/>
@@ -2110,7 +2107,7 @@
       </c>
       <c r="D10" s="13" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0000</v>
+        <v>HKDYCSTD#0002</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="D19" s="9">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.63010146421317115</v>
+        <v>0.6294449810121413</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -3898,7 +3895,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="103" t="str">
-        <f>HKD_YCRH_Deposits_STD!F3</f>
+        <f>Deposits!F3</f>
         <v>HKD_YCSTDRH_OND#0000</v>
       </c>
       <c r="B1" s="102"/>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="G2" s="97" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YCSTDRH_Deposits.xml</v>
       </c>
       <c r="H2" s="88"/>
     </row>
@@ -4224,7 +4221,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="L6" sqref="L6:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4327,7 +4324,7 @@
       </c>
       <c r="M3" s="109" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>ohObjectSave - Invalid parent path : N:\QuantLibXL-1.3.0\Data2\XML\HKD_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="N3" s="135" t="s">
         <v>98</v>
@@ -4362,7 +4359,7 @@
       <c r="K4" s="120"/>
       <c r="L4" s="124" t="str">
         <f>_xll.qlIborIndex(,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0000</v>
+        <v>obj_00154#0000</v>
       </c>
       <c r="M4" s="123" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -4372,7 +4369,7 @@
         <v>98</v>
       </c>
       <c r="P4" s="122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="122" t="s">
         <v>62</v>
@@ -4407,8 +4404,8 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="117"/>
-      <c r="B6" s="140" t="s">
-        <v>99</v>
+      <c r="B6" s="140">
+        <v>1</v>
       </c>
       <c r="C6" s="116" t="s">
         <v>23</v>
@@ -4441,8 +4438,8 @@
         <v>HKD_YCSTDRH_QM3H1Y</v>
       </c>
       <c r="L6" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0000</v>
+        <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <v>HKD_YCSTDRH_QM3H1Y#0002</v>
       </c>
       <c r="M6" s="109" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -4454,8 +4451,8 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="117"/>
-      <c r="B7" s="140" t="s">
-        <v>99</v>
+      <c r="B7" s="140">
+        <v>1</v>
       </c>
       <c r="C7" s="116" t="s">
         <v>24</v>
@@ -4488,7 +4485,7 @@
         <v>HKD_YCSTDRH_QM3H15M</v>
       </c>
       <c r="L7" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H15M#0000</v>
       </c>
       <c r="M7" s="109" t="str">
@@ -4501,8 +4498,8 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="117"/>
-      <c r="B8" s="140" t="s">
-        <v>99</v>
+      <c r="B8" s="140">
+        <v>1</v>
       </c>
       <c r="C8" s="116" t="s">
         <v>25</v>
@@ -4535,7 +4532,7 @@
         <v>HKD_YCSTDRH_QM3H18M</v>
       </c>
       <c r="L8" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H18M#0000</v>
       </c>
       <c r="M8" s="109" t="str">
@@ -4548,8 +4545,8 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="117"/>
-      <c r="B9" s="140" t="s">
-        <v>99</v>
+      <c r="B9" s="140">
+        <v>1</v>
       </c>
       <c r="C9" s="116" t="s">
         <v>26</v>
@@ -4582,7 +4579,7 @@
         <v>HKD_YCSTDRH_QM3H21M</v>
       </c>
       <c r="L9" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H21M#0000</v>
       </c>
       <c r="M9" s="109" t="str">
@@ -4595,8 +4592,8 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="117"/>
-      <c r="B10" s="140" t="s">
-        <v>99</v>
+      <c r="B10" s="140">
+        <v>1</v>
       </c>
       <c r="C10" s="116" t="s">
         <v>27</v>
@@ -4629,7 +4626,7 @@
         <v>HKD_YCSTDRH_QM3H2Y</v>
       </c>
       <c r="L10" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H2Y#0000</v>
       </c>
       <c r="M10" s="109" t="str">
@@ -4642,8 +4639,8 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="117"/>
-      <c r="B11" s="140" t="s">
-        <v>99</v>
+      <c r="B11" s="140">
+        <v>1</v>
       </c>
       <c r="C11" s="116" t="s">
         <v>28</v>
@@ -4676,7 +4673,7 @@
         <v>HKD_YCSTDRH_QM3H3Y</v>
       </c>
       <c r="L11" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H3Y#0000</v>
       </c>
       <c r="M11" s="109" t="str">
@@ -4689,8 +4686,8 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="117"/>
-      <c r="B12" s="140" t="s">
-        <v>99</v>
+      <c r="B12" s="140">
+        <v>1</v>
       </c>
       <c r="C12" s="116" t="s">
         <v>29</v>
@@ -4723,7 +4720,7 @@
         <v>HKD_YCSTDRH_QM3H4Y</v>
       </c>
       <c r="L12" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H4Y#0000</v>
       </c>
       <c r="M12" s="109" t="str">
@@ -4736,8 +4733,8 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="117"/>
-      <c r="B13" s="140" t="s">
-        <v>99</v>
+      <c r="B13" s="140">
+        <v>1</v>
       </c>
       <c r="C13" s="116" t="s">
         <v>30</v>
@@ -4770,7 +4767,7 @@
         <v>HKD_YCSTDRH_QM3H5Y</v>
       </c>
       <c r="L13" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H5Y#0000</v>
       </c>
       <c r="M13" s="109" t="str">
@@ -4783,8 +4780,8 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="117"/>
-      <c r="B14" s="140" t="s">
-        <v>99</v>
+      <c r="B14" s="140">
+        <v>1</v>
       </c>
       <c r="C14" s="116" t="s">
         <v>31</v>
@@ -4817,7 +4814,7 @@
         <v>HKD_YCSTDRH_QM3H6Y</v>
       </c>
       <c r="L14" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H6Y#0000</v>
       </c>
       <c r="M14" s="109" t="str">
@@ -4830,8 +4827,8 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="117"/>
-      <c r="B15" s="140" t="s">
-        <v>99</v>
+      <c r="B15" s="140">
+        <v>1</v>
       </c>
       <c r="C15" s="116" t="s">
         <v>32</v>
@@ -4864,7 +4861,7 @@
         <v>HKD_YCSTDRH_QM3H7Y</v>
       </c>
       <c r="L15" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H7Y#0000</v>
       </c>
       <c r="M15" s="109" t="str">
@@ -4877,8 +4874,8 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="117"/>
-      <c r="B16" s="140" t="s">
-        <v>99</v>
+      <c r="B16" s="140">
+        <v>1</v>
       </c>
       <c r="C16" s="116" t="s">
         <v>33</v>
@@ -4911,7 +4908,7 @@
         <v>HKD_YCSTDRH_QM3H8Y</v>
       </c>
       <c r="L16" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H8Y#0000</v>
       </c>
       <c r="M16" s="109" t="str">
@@ -4924,8 +4921,8 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="117"/>
-      <c r="B17" s="140" t="s">
-        <v>99</v>
+      <c r="B17" s="140">
+        <v>1</v>
       </c>
       <c r="C17" s="116" t="s">
         <v>34</v>
@@ -4958,7 +4955,7 @@
         <v>HKD_YCSTDRH_QM3H9Y</v>
       </c>
       <c r="L17" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H9Y#0000</v>
       </c>
       <c r="M17" s="109" t="str">
@@ -4971,8 +4968,8 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="117"/>
-      <c r="B18" s="140" t="s">
-        <v>99</v>
+      <c r="B18" s="140">
+        <v>1</v>
       </c>
       <c r="C18" s="116" t="s">
         <v>35</v>
@@ -5005,7 +5002,7 @@
         <v>HKD_YCSTDRH_QM3H10Y</v>
       </c>
       <c r="L18" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H10Y#0000</v>
       </c>
       <c r="M18" s="109" t="str">
@@ -5018,8 +5015,8 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="117"/>
-      <c r="B19" s="140" t="s">
-        <v>99</v>
+      <c r="B19" s="140">
+        <v>1</v>
       </c>
       <c r="C19" s="116" t="s">
         <v>39</v>
@@ -5052,7 +5049,7 @@
         <v>HKD_YCSTDRH_QM3H11Y</v>
       </c>
       <c r="L19" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H11Y#0000</v>
       </c>
       <c r="M19" s="109" t="str">
@@ -5065,8 +5062,8 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="117"/>
-      <c r="B20" s="140" t="s">
-        <v>99</v>
+      <c r="B20" s="140">
+        <v>1</v>
       </c>
       <c r="C20" s="116" t="s">
         <v>40</v>
@@ -5099,7 +5096,7 @@
         <v>HKD_YCSTDRH_QM3H12Y</v>
       </c>
       <c r="L20" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H12Y#0000</v>
       </c>
       <c r="M20" s="109" t="str">
@@ -5112,8 +5109,8 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="117"/>
-      <c r="B21" s="140" t="s">
-        <v>99</v>
+      <c r="B21" s="140">
+        <v>1</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>41</v>
@@ -5146,7 +5143,7 @@
         <v>HKD_YCSTDRH_QM3H13Y</v>
       </c>
       <c r="L21" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H13Y#0000</v>
       </c>
       <c r="M21" s="109" t="str">
@@ -5159,8 +5156,8 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="117"/>
-      <c r="B22" s="140" t="s">
-        <v>99</v>
+      <c r="B22" s="140">
+        <v>1</v>
       </c>
       <c r="C22" s="116" t="s">
         <v>42</v>
@@ -5193,7 +5190,7 @@
         <v>HKD_YCSTDRH_QM3H14Y</v>
       </c>
       <c r="L22" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H14Y#0000</v>
       </c>
       <c r="M22" s="109" t="str">
@@ -5206,8 +5203,8 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="117"/>
-      <c r="B23" s="140" t="s">
-        <v>99</v>
+      <c r="B23" s="140">
+        <v>1</v>
       </c>
       <c r="C23" s="116" t="s">
         <v>36</v>
@@ -5240,7 +5237,7 @@
         <v>HKD_YCSTDRH_QM3H15Y</v>
       </c>
       <c r="L23" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H15Y#0000</v>
       </c>
       <c r="M23" s="109" t="str">
@@ -5253,8 +5250,8 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="117"/>
-      <c r="B24" s="140" t="s">
-        <v>99</v>
+      <c r="B24" s="140">
+        <v>1</v>
       </c>
       <c r="C24" s="116" t="s">
         <v>43</v>
@@ -5287,7 +5284,7 @@
         <v>HKD_YCSTDRH_QM3H16Y</v>
       </c>
       <c r="L24" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H16Y#0000</v>
       </c>
       <c r="M24" s="109" t="str">
@@ -5300,8 +5297,8 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="117"/>
-      <c r="B25" s="140" t="s">
-        <v>99</v>
+      <c r="B25" s="140">
+        <v>1</v>
       </c>
       <c r="C25" s="116" t="s">
         <v>44</v>
@@ -5334,7 +5331,7 @@
         <v>HKD_YCSTDRH_QM3H17Y</v>
       </c>
       <c r="L25" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H17Y#0000</v>
       </c>
       <c r="M25" s="109" t="str">
@@ -5347,8 +5344,8 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="117"/>
-      <c r="B26" s="140" t="s">
-        <v>99</v>
+      <c r="B26" s="140">
+        <v>1</v>
       </c>
       <c r="C26" s="116" t="s">
         <v>45</v>
@@ -5381,7 +5378,7 @@
         <v>HKD_YCSTDRH_QM3H18Y</v>
       </c>
       <c r="L26" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H18Y#0000</v>
       </c>
       <c r="M26" s="109" t="str">
@@ -5394,8 +5391,8 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="117"/>
-      <c r="B27" s="140" t="s">
-        <v>99</v>
+      <c r="B27" s="140">
+        <v>1</v>
       </c>
       <c r="C27" s="116" t="s">
         <v>46</v>
@@ -5428,7 +5425,7 @@
         <v>HKD_YCSTDRH_QM3H19Y</v>
       </c>
       <c r="L27" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H19Y#0000</v>
       </c>
       <c r="M27" s="109" t="str">
@@ -5441,8 +5438,8 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="117"/>
-      <c r="B28" s="140" t="s">
-        <v>99</v>
+      <c r="B28" s="140">
+        <v>1</v>
       </c>
       <c r="C28" s="116" t="s">
         <v>37</v>
@@ -5475,7 +5472,7 @@
         <v>HKD_YCSTDRH_QM3H20Y</v>
       </c>
       <c r="L28" s="110" t="str">
-        <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
+        <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
         <v>HKD_YCSTDRH_QM3H20Y#0000</v>
       </c>
       <c r="M28" s="109" t="str">
@@ -5572,12 +5569,12 @@
     </row>
     <row r="2" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F3</f>
+        <f>Deposits!F3</f>
         <v>HKD_YCSTDRH_OND#0000</v>
       </c>
       <c r="B2" s="36">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>7.428999999999999E-4</v>
+        <v>6.8570000000000002E-4</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="37" t="b">
@@ -5600,12 +5597,12 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F4</f>
+        <f>Deposits!F4</f>
         <v>HKD_YCSTDRH_SWD#0000</v>
       </c>
       <c r="B3" s="36">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>1.3494999999999998E-3</v>
+        <v>1.3331E-3</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37" t="b">
@@ -5619,21 +5616,21 @@
       </c>
       <c r="G3" s="42">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H3" s="43">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41618</v>
+        <v>41614</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F5</f>
+        <f>Deposits!F5</f>
         <v>HKD_YCSTDRH_2WD#0000</v>
       </c>
       <c r="B4" s="36">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
-        <v>1.5929E-3</v>
+        <v>1.5435E-3</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="37" t="b">
@@ -5647,21 +5644,21 @@
       </c>
       <c r="G4" s="42">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H4" s="43">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41625</v>
+        <v>41621</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F6</f>
+        <f>Deposits!F6</f>
         <v>HKD_YCSTDRH_1MD#0000</v>
       </c>
       <c r="B5" s="36">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>2.1356999999999999E-3</v>
+        <v>2.1142999999999999E-3</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="37" t="b">
@@ -5675,21 +5672,21 @@
       </c>
       <c r="G5" s="42">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H5" s="43">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>41642</v>
+        <v>41639</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F7</f>
+        <f>Deposits!F7</f>
         <v>HKD_YCSTDRH_2MD#0000</v>
       </c>
       <c r="B6" s="36">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
-        <v>3.1429000000000001E-3</v>
+        <v>3.1286000000000005E-3</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="37" t="b">
@@ -5703,21 +5700,21 @@
       </c>
       <c r="G6" s="42">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>41673</v>
+        <v>41670</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F8</f>
+        <f>Deposits!F8</f>
         <v>HKD_YCSTDRH_3MD#0000</v>
       </c>
       <c r="B7" s="36">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
-        <v>3.7857000000000003E-3</v>
+        <v>3.7929000000000001E-3</v>
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="37" t="b">
@@ -5731,16 +5728,16 @@
       </c>
       <c r="G7" s="42">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H7" s="43">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41701</v>
+        <v>41698</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F9</f>
+        <f>Deposits!F9</f>
         <v>HKD_YCSTDRH_6MD#0000</v>
       </c>
       <c r="B8" s="36">
@@ -5759,21 +5756,21 @@
       </c>
       <c r="G8" s="42">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="str">
-        <f>HKD_YCRH_Deposits_STD!F10</f>
+        <f>Deposits!F10</f>
         <v>HKD_YCSTDRH_9MD#0000</v>
       </c>
       <c r="B9" s="36">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
-        <v>6.3847000000000001E-3</v>
+        <v>6.3914000000000002E-3</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37" t="b">
@@ -5787,21 +5784,21 @@
       </c>
       <c r="G9" s="42">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H9" s="43">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>41885</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="str">
-        <f>HKD_YCRH_Deposits_STD!F11</f>
+        <f>Deposits!F11</f>
         <v>HKD_YCSTDRH_1YD#0000</v>
       </c>
       <c r="B10" s="39">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>8.6570999999999992E-3</v>
+        <v>8.6356999999999996E-3</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="40" t="b">
@@ -5815,17 +5812,17 @@
       </c>
       <c r="G10" s="44">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H10" s="45">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>41976</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L6</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0000</v>
+        <f>Swaps!L6</f>
+        <v>HKD_YCSTDRH_QM3H1Y#0002</v>
       </c>
       <c r="B11" s="36">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
@@ -5856,7 +5853,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L7</f>
+        <f>Swaps!L7</f>
         <v>HKD_YCSTDRH_QM3H15M#0000</v>
       </c>
       <c r="B12" s="36" t="e">
@@ -5888,7 +5885,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L8</f>
+        <f>Swaps!L8</f>
         <v>HKD_YCSTDRH_QM3H18M#0000</v>
       </c>
       <c r="B13" s="36">
@@ -5920,7 +5917,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L9</f>
+        <f>Swaps!L9</f>
         <v>HKD_YCSTDRH_QM3H21M#0000</v>
       </c>
       <c r="B14" s="36" t="e">
@@ -5952,7 +5949,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L10</f>
+        <f>Swaps!L10</f>
         <v>HKD_YCSTDRH_QM3H2Y#0000</v>
       </c>
       <c r="B15" s="36">
@@ -5984,12 +5981,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L11</f>
+        <f>Swaps!L11</f>
         <v>HKD_YCSTDRH_QM3H3Y#0000</v>
       </c>
       <c r="B16" s="36">
         <f>_xll.qlRateHelperQuoteValue($A16,Trigger)</f>
-        <v>7.6E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="C16" s="36">
         <f>_xll.qlSwapRateHelperSpread($A16,Trigger)</f>
@@ -6016,12 +6013,12 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L12</f>
+        <f>Swaps!L12</f>
         <v>HKD_YCSTDRH_QM3H4Y#0000</v>
       </c>
       <c r="B17" s="36">
         <f>_xll.qlRateHelperQuoteValue($A17,Trigger)</f>
-        <v>1.1200000000000002E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="C17" s="36">
         <f>_xll.qlSwapRateHelperSpread($A17,Trigger)</f>
@@ -6048,12 +6045,12 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L13</f>
+        <f>Swaps!L13</f>
         <v>HKD_YCSTDRH_QM3H5Y#0000</v>
       </c>
       <c r="B18" s="36">
         <f>_xll.qlRateHelperQuoteValue($A18,Trigger)</f>
-        <v>1.5100000000000001E-2</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="C18" s="36">
         <f>_xll.qlSwapRateHelperSpread($A18,Trigger)</f>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L14</f>
+        <f>Swaps!L14</f>
         <v>HKD_YCSTDRH_QM3H6Y#0000</v>
       </c>
       <c r="B19" s="36" t="e">
@@ -6112,12 +6109,12 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L15</f>
+        <f>Swaps!L15</f>
         <v>HKD_YCSTDRH_QM3H7Y#0000</v>
       </c>
       <c r="B20" s="36">
         <f>_xll.qlRateHelperQuoteValue($A20,Trigger)</f>
-        <v>2.0999999999999998E-2</v>
+        <v>2.1100000000000004E-2</v>
       </c>
       <c r="C20" s="36">
         <f>_xll.qlSwapRateHelperSpread($A20,Trigger)</f>
@@ -6144,7 +6141,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L16</f>
+        <f>Swaps!L16</f>
         <v>HKD_YCSTDRH_QM3H8Y#0000</v>
       </c>
       <c r="B21" s="36" t="e">
@@ -6176,7 +6173,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L17</f>
+        <f>Swaps!L17</f>
         <v>HKD_YCSTDRH_QM3H9Y#0000</v>
       </c>
       <c r="B22" s="36" t="e">
@@ -6208,12 +6205,12 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L18</f>
+        <f>Swaps!L18</f>
         <v>HKD_YCSTDRH_QM3H10Y#0000</v>
       </c>
       <c r="B23" s="36">
         <f>_xll.qlRateHelperQuoteValue($A23,Trigger)</f>
-        <v>2.63E-2</v>
+        <v>2.6399999999999996E-2</v>
       </c>
       <c r="C23" s="36">
         <f>_xll.qlSwapRateHelperSpread($A23,Trigger)</f>
@@ -6240,7 +6237,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L19</f>
+        <f>Swaps!L19</f>
         <v>HKD_YCSTDRH_QM3H11Y#0000</v>
       </c>
       <c r="B24" s="36" t="e">
@@ -6272,12 +6269,12 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L20</f>
+        <f>Swaps!L20</f>
         <v>HKD_YCSTDRH_QM3H12Y#0000</v>
       </c>
       <c r="B25" s="36">
         <f>_xll.qlRateHelperQuoteValue($A25,Trigger)</f>
-        <v>2.8200000000000003E-2</v>
+        <v>2.8300000000000002E-2</v>
       </c>
       <c r="C25" s="36">
         <f>_xll.qlSwapRateHelperSpread($A25,Trigger)</f>
@@ -6304,7 +6301,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L21</f>
+        <f>Swaps!L21</f>
         <v>HKD_YCSTDRH_QM3H13Y#0000</v>
       </c>
       <c r="B26" s="36" t="e">
@@ -6336,7 +6333,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L22</f>
+        <f>Swaps!L22</f>
         <v>HKD_YCSTDRH_QM3H14Y#0000</v>
       </c>
       <c r="B27" s="36" t="e">
@@ -6368,12 +6365,12 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L23</f>
+        <f>Swaps!L23</f>
         <v>HKD_YCSTDRH_QM3H15Y#0000</v>
       </c>
       <c r="B28" s="36">
         <f>_xll.qlRateHelperQuoteValue($A28,Trigger)</f>
-        <v>2.9500000000000002E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="C28" s="36">
         <f>_xll.qlSwapRateHelperSpread($A28,Trigger)</f>
@@ -6400,7 +6397,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L24</f>
+        <f>Swaps!L24</f>
         <v>HKD_YCSTDRH_QM3H16Y#0000</v>
       </c>
       <c r="B29" s="36" t="e">
@@ -6432,7 +6429,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L25</f>
+        <f>Swaps!L25</f>
         <v>HKD_YCSTDRH_QM3H17Y#0000</v>
       </c>
       <c r="B30" s="36" t="e">
@@ -6464,7 +6461,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L26</f>
+        <f>Swaps!L26</f>
         <v>HKD_YCSTDRH_QM3H18Y#0000</v>
       </c>
       <c r="B31" s="36" t="e">
@@ -6496,7 +6493,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L27</f>
+        <f>Swaps!L27</f>
         <v>HKD_YCSTDRH_QM3H19Y#0000</v>
       </c>
       <c r="B32" s="36" t="e">
@@ -6528,7 +6525,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="str">
-        <f>HKD_YCRH_Swaps_STD!L28</f>
+        <f>Swaps!L28</f>
         <v>HKD_YCSTDRH_QM3H20Y#0000</v>
       </c>
       <c r="B33" s="36" t="e">
@@ -6560,7 +6557,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B34" s="36" t="e">
@@ -6592,7 +6589,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B35" s="36" t="e">
@@ -6624,7 +6621,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B36" s="36" t="e">
@@ -6656,7 +6653,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B37" s="36" t="e">
@@ -6688,7 +6685,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B38" s="36" t="e">
@@ -6720,7 +6717,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B39" s="36" t="e">
@@ -6752,7 +6749,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B40" s="36" t="e">
@@ -6784,7 +6781,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B41" s="36" t="e">
@@ -6816,7 +6813,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B42" s="36" t="e">
@@ -6848,7 +6845,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B43" s="36" t="e">
@@ -6880,7 +6877,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B44" s="36" t="e">
@@ -6912,7 +6909,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B45" s="36" t="e">
@@ -6944,7 +6941,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B46" s="36" t="e">
@@ -6976,7 +6973,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="e">
-        <f>HKD_YCRH_Swaps_STD!#REF!</f>
+        <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="B47" s="39" t="e">
@@ -7081,14 +7078,14 @@
       </c>
       <c r="G2" s="42">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41611</v>
+        <v>41607</v>
       </c>
       <c r="H2" s="63">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41793</v>
+        <v>41789</v>
       </c>
       <c r="I2" s="49">
-        <v>0.99720758682468025</v>
+        <v>0.9972721263068568</v>
       </c>
       <c r="J2" s="54"/>
     </row>
@@ -7119,7 +7116,7 @@
         <v>41975</v>
       </c>
       <c r="I3" s="49">
-        <v>0.99516405241408801</v>
+        <v>0.99566213242564983</v>
       </c>
       <c r="J3" s="54"/>
     </row>
@@ -7150,7 +7147,7 @@
         <v>42157</v>
       </c>
       <c r="I4" s="49">
-        <v>0.99258671529505726</v>
+        <v>0.99308355081632216</v>
       </c>
       <c r="J4" s="54"/>
     </row>
@@ -7181,7 +7178,7 @@
         <v>42340</v>
       </c>
       <c r="I5" s="49">
-        <v>0.98891184674595289</v>
+        <v>0.98940705962912923</v>
       </c>
       <c r="J5" s="54"/>
     </row>
@@ -7198,7 +7195,7 @@
       </c>
       <c r="E6" s="53">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>7.6E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F6" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -7213,14 +7210,14 @@
         <v>42706</v>
       </c>
       <c r="I6" s="49">
-        <v>0.97685504276503465</v>
+        <v>0.97704886612200847</v>
       </c>
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_RateHelpersSelected#0000</v>
+        <v>HKD_YCSTDRH_RateHelpersSelected#0002</v>
       </c>
       <c r="B7" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
@@ -7231,7 +7228,7 @@
       </c>
       <c r="E7" s="53">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.1200000000000002E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F7" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -7246,7 +7243,7 @@
         <v>43073</v>
       </c>
       <c r="I7" s="49">
-        <v>0.95529444758957471</v>
+        <v>0.9553860622707655</v>
       </c>
       <c r="J7" s="54"/>
     </row>
@@ -7256,7 +7253,7 @@
       </c>
       <c r="E8" s="53">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5100000000000001E-2</v>
+        <v>1.5300000000000001E-2</v>
       </c>
       <c r="F8" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -7271,7 +7268,7 @@
         <v>43437</v>
       </c>
       <c r="I8" s="49">
-        <v>0.92580459090412093</v>
+        <v>0.92531452704651906</v>
       </c>
       <c r="J8" s="54"/>
     </row>
@@ -7281,7 +7278,7 @@
       </c>
       <c r="E9" s="53">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.0999999999999998E-2</v>
+        <v>2.1100000000000004E-2</v>
       </c>
       <c r="F9" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -7296,7 +7293,7 @@
         <v>44167</v>
       </c>
       <c r="I9" s="49">
-        <v>0.85969321858846626</v>
+        <v>0.85952532551018745</v>
       </c>
       <c r="J9" s="54"/>
     </row>
@@ -7306,7 +7303,7 @@
       </c>
       <c r="E10" s="53">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.63E-2</v>
+        <v>2.6399999999999996E-2</v>
       </c>
       <c r="F10" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -7321,7 +7318,7 @@
         <v>45264</v>
       </c>
       <c r="I10" s="49">
-        <v>0.76075614357369992</v>
+        <v>0.76036207608402229</v>
       </c>
       <c r="J10" s="54"/>
     </row>
@@ -7331,7 +7328,7 @@
       </c>
       <c r="E11" s="53">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.8200000000000003E-2</v>
+        <v>2.8300000000000002E-2</v>
       </c>
       <c r="F11" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -7346,7 +7343,7 @@
         <v>45993</v>
       </c>
       <c r="I11" s="49">
-        <v>0.70254772253257103</v>
+        <v>0.70203629137278356</v>
       </c>
       <c r="J11" s="54"/>
     </row>
@@ -7356,7 +7353,7 @@
       </c>
       <c r="E12" s="53">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.9500000000000002E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="F12" s="53">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -7371,7 +7368,7 @@
         <v>47091</v>
       </c>
       <c r="I12" s="49">
-        <v>0.63010146421317115</v>
+        <v>0.6294449810121413</v>
       </c>
       <c r="J12" s="54"/>
     </row>

--- a/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
@@ -1104,7 +1104,7 @@
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1160,12 +1160,6 @@
     <xf numFmtId="171" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1412,12 +1406,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1427,6 +1415,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1741,41 +1747,43 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="141" customWidth="1"/>
-    <col min="3" max="3" width="18" style="141" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="141" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="141" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="2.7109375" style="141" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="141" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.42578125" style="141" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="141" customWidth="1"/>
-    <col min="12" max="16384" width="8" style="141"/>
+    <col min="1" max="2" width="2.7109375" style="137" customWidth="1"/>
+    <col min="3" max="3" width="18" style="137" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="137" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="137" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="2.7109375" style="137" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="137" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.42578125" style="137" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" style="137" customWidth="1"/>
+    <col min="12" max="16384" width="8" style="137"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="141" t="str">
+      <c r="B1" s="137" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Feb  7 2014 15:33:58</v>
+        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="H2" s="142" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="140"/>
+      <c r="H2" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="145"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="141"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -1783,29 +1791,29 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="80"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="134">
+      <c r="D4" s="132">
         <v>3</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="71">
-        <v>41684.564942129633</v>
-      </c>
-      <c r="K4" s="76"/>
+      <c r="J4" s="69">
+        <v>41733.715914351851</v>
+      </c>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
@@ -1817,56 +1825,56 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="77" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="76"/>
+      <c r="J5" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="77" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="76"/>
+      <c r="J6" s="69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="71" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="76"/>
+      <c r="J7" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="74"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="135" t="s">
+      <c r="C8" s="133" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="8" t="str">
@@ -1875,15 +1883,15 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="77" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="79" t="str">
+      <c r="J8" s="77" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib\QuantLibXL\Data2\XML\</v>
-      </c>
-      <c r="K8" s="76"/>
+        <v>C:\Projects\quantlib\QuantLibXL\Data2\XML\</v>
+      </c>
+      <c r="K8" s="74"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
@@ -1891,14 +1899,14 @@
       <c r="D9" s="9"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="77" t="s">
+      <c r="H9" s="76"/>
+      <c r="I9" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="68" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="76"/>
+      <c r="J9" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -1907,14 +1915,14 @@
       </c>
       <c r="D10" s="11" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D12,NDays,Calendar,RateHelpersSelected,,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0003</v>
+        <v>HKDYCSTD#0001</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="71"/>
     </row>
     <row r="11" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
@@ -1925,7 +1933,7 @@
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="134" t="s">
         <v>98</v>
       </c>
       <c r="F11" s="4"/>
@@ -1939,16 +1947,16 @@
         <f>Currency&amp;$E$12</f>
         <v>HKDYCSTD</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="145"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="141"/>
     </row>
     <row r="13" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -1960,10 +1968,10 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="67"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -1976,14 +1984,14 @@
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="69" t="s">
+      <c r="H14" s="68"/>
+      <c r="I14" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="67"/>
+      <c r="K14" s="65"/>
     </row>
     <row r="15" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -1995,14 +2003,14 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="69" t="s">
+      <c r="H15" s="68"/>
+      <c r="I15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="67"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -2014,14 +2022,14 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="69" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="67"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -2029,20 +2037,20 @@
       <c r="D17" s="9"/>
       <c r="E17" s="3"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="69" t="s">
+      <c r="H17" s="68"/>
+      <c r="I17" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="67"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="20">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41684</v>
+        <v>41733</v>
       </c>
       <c r="D18" s="21">
         <f>MAX(_xll.ohPack(Selected!I1:I126))</f>
@@ -2050,58 +2058,71 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="69" t="s">
+      <c r="H18" s="68"/>
+      <c r="I18" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="67"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="22">
         <f>MAX(_xll.ohPack(Selected!H2:H126))</f>
-        <v>47168</v>
+        <v>47217</v>
       </c>
       <c r="D19" s="7">
         <f>MIN(_xll.ohPack(Selected!I1:I126))</f>
-        <v>0.63042303260485588</v>
+        <v>0.61954591689836669</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="69" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="68" t="s">
+      <c r="J19" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="67"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="24" t="str">
+      <c r="D20" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!I1)</f>
         <v/>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="64"/>
-    </row>
-    <row r="21" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="25"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="146" t="str">
+        <f>UPPER(Currency)&amp;"STD"</f>
+        <v>HKDSTD</v>
+      </c>
+      <c r="D21" s="147" t="b">
+        <f>_xll.qlRelinkableHandleLinkTo(C21,YieldCurve)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2149,331 +2170,331 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="4" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="31" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="2.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="4" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="str">
+      <c r="A1" s="99" t="str">
         <f>Deposits!F3</f>
-        <v>HKD_YCSTDRH_OND#0002</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="35" t="s">
+        <v>HKD_YCSTDRH_OND#0001</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="99" t="str">
+      <c r="E1" s="97" t="str">
         <f>Currency&amp;"_YC"&amp;$D$1&amp;"RH"</f>
         <v>HKD_YCSTDRH</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="86"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="97" t="str">
+      <c r="E2" s="95" t="str">
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>HKD_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="94">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F11,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
         <v>9</v>
       </c>
-      <c r="G2" s="95" t="str">
+      <c r="G2" s="93" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
-      <c r="H2" s="86"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="91"/>
+      <c r="B3" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="91" t="str">
+      <c r="C3" s="89" t="str">
         <f t="shared" ref="C3:C11" si="0">PROPER(Currency)&amp;FamilyName&amp;$B3</f>
         <v>HkdHiborON</v>
       </c>
-      <c r="D3" s="90" t="str">
+      <c r="D3" s="88" t="str">
         <f t="shared" ref="D3:D11" si="1">PROPER(Currency)&amp;FamilyName&amp;$B3&amp;"LastFixing"&amp;QuoteSuffix</f>
         <v>HkdHiborONLastFixing_Quote</v>
       </c>
-      <c r="E3" s="89" t="str">
+      <c r="E3" s="87" t="str">
         <f t="shared" ref="E3:E11" si="2">$E$1&amp;"_"&amp;$B3&amp;"D"</f>
         <v>HKD_YCSTDRH_OND</v>
       </c>
-      <c r="F3" s="88" t="str">
+      <c r="F3" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E3,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_OND#0002</v>
-      </c>
-      <c r="G3" s="87" t="str">
+        <v>HKD_YCSTDRH_OND#0001</v>
+      </c>
+      <c r="G3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
         <v/>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="91"/>
+      <c r="B4" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="91" t="str">
+      <c r="C4" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHiborSW</v>
       </c>
-      <c r="D4" s="90" t="str">
+      <c r="D4" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHiborSWLastFixing_Quote</v>
       </c>
-      <c r="E4" s="89" t="str">
+      <c r="E4" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_SWD</v>
       </c>
-      <c r="F4" s="88" t="str">
+      <c r="F4" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E4,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_SWD#0002</v>
-      </c>
-      <c r="G4" s="87" t="str">
+        <v>HKD_YCSTDRH_SWD#0001</v>
+      </c>
+      <c r="G4" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="92" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="91" t="str">
+      <c r="C5" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor2W</v>
       </c>
-      <c r="D5" s="90" t="str">
+      <c r="D5" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor2WLastFixing_Quote</v>
       </c>
-      <c r="E5" s="89" t="str">
+      <c r="E5" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2WD</v>
       </c>
-      <c r="F5" s="88" t="str">
+      <c r="F5" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E5,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2WD#0002</v>
-      </c>
-      <c r="G5" s="87" t="str">
+        <v>HKD_YCSTDRH_2WD#0001</v>
+      </c>
+      <c r="G5" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="92" t="s">
+      <c r="A6" s="91"/>
+      <c r="B6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="91" t="str">
+      <c r="C6" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor1M</v>
       </c>
-      <c r="D6" s="90" t="str">
+      <c r="D6" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor1MLastFixing_Quote</v>
       </c>
-      <c r="E6" s="89" t="str">
+      <c r="E6" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1MD</v>
       </c>
-      <c r="F6" s="88" t="str">
+      <c r="F6" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E6,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1MD#0002</v>
-      </c>
-      <c r="G6" s="87" t="str">
+        <v>HKD_YCSTDRH_1MD#0001</v>
+      </c>
+      <c r="G6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="93"/>
-      <c r="B7" s="92" t="s">
+      <c r="A7" s="91"/>
+      <c r="B7" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="91" t="str">
+      <c r="C7" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor2M</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor2MLastFixing_Quote</v>
       </c>
-      <c r="E7" s="89" t="str">
+      <c r="E7" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_2MD</v>
       </c>
-      <c r="F7" s="88" t="str">
+      <c r="F7" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E7,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_2MD#0002</v>
-      </c>
-      <c r="G7" s="87" t="str">
+        <v>HKD_YCSTDRH_2MD#0001</v>
+      </c>
+      <c r="G7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
-      <c r="B8" s="92" t="s">
+      <c r="A8" s="91"/>
+      <c r="B8" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="91" t="str">
+      <c r="C8" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor3M</v>
       </c>
-      <c r="D8" s="90" t="str">
+      <c r="D8" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor3MLastFixing_Quote</v>
       </c>
-      <c r="E8" s="89" t="str">
+      <c r="E8" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_3MD</v>
       </c>
-      <c r="F8" s="88" t="str">
+      <c r="F8" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E8,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_3MD#0002</v>
-      </c>
-      <c r="G8" s="87" t="str">
+        <v>HKD_YCSTDRH_3MD#0001</v>
+      </c>
+      <c r="G8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
-      <c r="B9" s="92" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="91" t="str">
+      <c r="C9" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor6M</v>
       </c>
-      <c r="D9" s="90" t="str">
+      <c r="D9" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor6MLastFixing_Quote</v>
       </c>
-      <c r="E9" s="89" t="str">
+      <c r="E9" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_6MD</v>
       </c>
-      <c r="F9" s="88" t="str">
+      <c r="F9" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E9,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_6MD#0002</v>
-      </c>
-      <c r="G9" s="87" t="str">
+        <v>HKD_YCSTDRH_6MD#0001</v>
+      </c>
+      <c r="G9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
-      <c r="B10" s="92" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="91" t="str">
+      <c r="C10" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor9M</v>
       </c>
-      <c r="D10" s="90" t="str">
+      <c r="D10" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor9MLastFixing_Quote</v>
       </c>
-      <c r="E10" s="89" t="str">
+      <c r="E10" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_9MD</v>
       </c>
-      <c r="F10" s="88" t="str">
+      <c r="F10" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E10,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_9MD#0002</v>
-      </c>
-      <c r="G10" s="87" t="str">
+        <v>HKD_YCSTDRH_9MD#0001</v>
+      </c>
+      <c r="G10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="91" t="str">
+      <c r="C11" s="89" t="str">
         <f t="shared" si="0"/>
         <v>HkdHibor1Y</v>
       </c>
-      <c r="D11" s="90" t="str">
+      <c r="D11" s="88" t="str">
         <f t="shared" si="1"/>
         <v>HkdHibor1YLastFixing_Quote</v>
       </c>
-      <c r="E11" s="89" t="str">
+      <c r="E11" s="87" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_1YD</v>
       </c>
-      <c r="F11" s="88" t="str">
+      <c r="F11" s="86" t="str">
         <f>_xll.qlDepositRateHelper(E11,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_1YD#0002</v>
-      </c>
-      <c r="G11" s="87" t="str">
+        <v>HKD_YCSTDRH_1YD#0001</v>
+      </c>
+      <c r="G11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
         <v/>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="130" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="83"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="82"/>
+      <c r="D19" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2504,7 +2525,7 @@
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="100" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="51.7109375" customWidth="1"/>
     <col min="14" max="15" width="2.7109375" customWidth="1"/>
     <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -2514,1257 +2535,1257 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="128"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="126"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="127" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="127" t="str">
+      <c r="K2" s="125" t="str">
         <f>Currency&amp;"_YC"&amp;"STDRH"</f>
         <v>HKD_YCSTDRH</v>
       </c>
-      <c r="L2" s="118" t="e">
+      <c r="L2" s="116" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="117"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="115"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
     </row>
     <row r="3" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="115"/>
-      <c r="B3" s="126" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126" t="s">
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="125" t="str">
+      <c r="K3" s="123" t="str">
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="124">
+      <c r="L3" s="122">
         <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L28,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
         <v>24</v>
       </c>
-      <c r="M3" s="107" t="str">
+      <c r="M3" s="105" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
-      <c r="N3" s="133" t="s">
+      <c r="N3" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="123" t="s">
+      <c r="P3" s="121" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="123" t="s">
+      <c r="Q3" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="123" t="s">
+      <c r="R3" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="123" t="s">
+      <c r="S3" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="123" t="s">
+      <c r="T3" s="121" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="122" t="str">
+      <c r="A4" s="117"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="120" t="str">
         <f>_xll.qlIborIndex(,FamilyName,J2,P4,Currency,Q4,R4,S4,T4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0015f#0002</v>
-      </c>
-      <c r="M4" s="121" t="str">
+        <v>obj_0015f#0001</v>
+      </c>
+      <c r="M4" s="119" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
         <v/>
       </c>
-      <c r="N4" s="133" t="s">
+      <c r="N4" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="120" t="s">
+      <c r="P4" s="118">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="R4" s="120" t="s">
+      <c r="R4" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="120" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="120" t="s">
+      <c r="S4" s="118" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="118" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="116" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="133" t="s">
+    <row r="5" spans="1:20" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="117"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="138">
-        <v>1</v>
-      </c>
-      <c r="C6" s="114" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="136">
+        <v>1</v>
+      </c>
+      <c r="C6" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="113" t="s">
+      <c r="G6" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="113" t="str">
+      <c r="H6" s="111" t="str">
         <f t="shared" ref="H6:H28" si="0">IF(UPPER(RIGHT($D6))="B",BondBasisDayCounter,IF(UPPER(RIGHT($D6))="M",MoneyMarketDayCounter,"--"))</f>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I6" s="111">
-        <v>0</v>
-      </c>
-      <c r="J6" s="109" t="str">
+      <c r="I6" s="109">
+        <v>0</v>
+      </c>
+      <c r="J6" s="107" t="str">
         <f t="shared" ref="J6:J28" si="1">Currency&amp;$D6&amp;$E6&amp;$C6&amp;QuoteSuffix</f>
         <v>HKDQM3H1Y_Quote</v>
       </c>
-      <c r="K6" s="109" t="str">
+      <c r="K6" s="107" t="str">
         <f t="shared" ref="K6:K28" si="2">$K$2&amp;"_"&amp;$D6&amp;$E6&amp;$C6</f>
         <v>HKD_YCSTDRH_QM3H1Y</v>
       </c>
-      <c r="L6" s="108" t="str">
+      <c r="L6" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0002</v>
-      </c>
-      <c r="M6" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H1Y#0001</v>
+      </c>
+      <c r="M6" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
         <v/>
       </c>
-      <c r="N6" s="133" t="s">
+      <c r="N6" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="138">
-        <v>1</v>
-      </c>
-      <c r="C7" s="114" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="136">
+        <v>1</v>
+      </c>
+      <c r="C7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="112" t="s">
+      <c r="G7" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="112" t="str">
+      <c r="H7" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I7" s="111">
-        <v>0</v>
-      </c>
-      <c r="J7" s="110" t="str">
+      <c r="I7" s="109">
+        <v>0</v>
+      </c>
+      <c r="J7" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H15M_Quote</v>
       </c>
-      <c r="K7" s="109" t="str">
+      <c r="K7" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H15M</v>
       </c>
-      <c r="L7" s="108" t="str">
+      <c r="L7" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15M#0002</v>
-      </c>
-      <c r="M7" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H15M#0001</v>
+      </c>
+      <c r="M7" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
         <v/>
       </c>
-      <c r="N7" s="133" t="s">
+      <c r="N7" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
-      <c r="B8" s="138">
-        <v>1</v>
-      </c>
-      <c r="C8" s="114" t="s">
+      <c r="A8" s="113"/>
+      <c r="B8" s="136">
+        <v>1</v>
+      </c>
+      <c r="C8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="114" t="s">
+      <c r="D8" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="112" t="str">
+      <c r="H8" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I8" s="111">
-        <v>0</v>
-      </c>
-      <c r="J8" s="110" t="str">
+      <c r="I8" s="109">
+        <v>0</v>
+      </c>
+      <c r="J8" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H18M_Quote</v>
       </c>
-      <c r="K8" s="109" t="str">
+      <c r="K8" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H18M</v>
       </c>
-      <c r="L8" s="108" t="str">
+      <c r="L8" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18M#0002</v>
-      </c>
-      <c r="M8" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H18M#0001</v>
+      </c>
+      <c r="M8" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
         <v/>
       </c>
-      <c r="N8" s="133" t="s">
+      <c r="N8" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="115"/>
-      <c r="B9" s="138">
-        <v>1</v>
-      </c>
-      <c r="C9" s="114" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="136">
+        <v>1</v>
+      </c>
+      <c r="C9" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="114" t="s">
+      <c r="D9" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="114" t="s">
+      <c r="E9" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="112" t="str">
+      <c r="H9" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I9" s="111">
-        <v>0</v>
-      </c>
-      <c r="J9" s="110" t="str">
+      <c r="I9" s="109">
+        <v>0</v>
+      </c>
+      <c r="J9" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H21M_Quote</v>
       </c>
-      <c r="K9" s="109" t="str">
+      <c r="K9" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H21M</v>
       </c>
-      <c r="L9" s="108" t="str">
+      <c r="L9" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H21M#0002</v>
-      </c>
-      <c r="M9" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H21M#0001</v>
+      </c>
+      <c r="M9" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
         <v/>
       </c>
-      <c r="N9" s="133" t="s">
+      <c r="N9" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="115"/>
-      <c r="B10" s="138">
-        <v>1</v>
-      </c>
-      <c r="C10" s="114" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="136">
+        <v>1</v>
+      </c>
+      <c r="C10" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="114" t="s">
+      <c r="E10" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="113" t="s">
+      <c r="F10" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="112" t="str">
+      <c r="H10" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I10" s="111">
-        <v>0</v>
-      </c>
-      <c r="J10" s="110" t="str">
+      <c r="I10" s="109">
+        <v>0</v>
+      </c>
+      <c r="J10" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H2Y_Quote</v>
       </c>
-      <c r="K10" s="109" t="str">
+      <c r="K10" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H2Y</v>
       </c>
-      <c r="L10" s="108" t="str">
+      <c r="L10" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H2Y#0002</v>
-      </c>
-      <c r="M10" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H2Y#0001</v>
+      </c>
+      <c r="M10" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
         <v/>
       </c>
-      <c r="N10" s="133" t="s">
+      <c r="N10" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="115"/>
-      <c r="B11" s="138">
-        <v>1</v>
-      </c>
-      <c r="C11" s="114" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="136">
+        <v>1</v>
+      </c>
+      <c r="C11" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="114" t="s">
+      <c r="D11" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I11" s="111">
-        <v>0</v>
-      </c>
-      <c r="J11" s="110" t="str">
+      <c r="I11" s="109">
+        <v>0</v>
+      </c>
+      <c r="J11" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H3Y_Quote</v>
       </c>
-      <c r="K11" s="109" t="str">
+      <c r="K11" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H3Y</v>
       </c>
-      <c r="L11" s="108" t="str">
+      <c r="L11" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H3Y#0002</v>
-      </c>
-      <c r="M11" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H3Y#0001</v>
+      </c>
+      <c r="M11" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
         <v/>
       </c>
-      <c r="N11" s="133" t="s">
+      <c r="N11" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="115"/>
-      <c r="B12" s="138">
-        <v>1</v>
-      </c>
-      <c r="C12" s="114" t="s">
+      <c r="A12" s="113"/>
+      <c r="B12" s="136">
+        <v>1</v>
+      </c>
+      <c r="C12" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="114" t="s">
+      <c r="D12" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="114" t="s">
+      <c r="E12" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="112" t="str">
+      <c r="H12" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I12" s="111">
-        <v>0</v>
-      </c>
-      <c r="J12" s="110" t="str">
+      <c r="I12" s="109">
+        <v>0</v>
+      </c>
+      <c r="J12" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H4Y_Quote</v>
       </c>
-      <c r="K12" s="109" t="str">
+      <c r="K12" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H4Y</v>
       </c>
-      <c r="L12" s="108" t="str">
+      <c r="L12" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H4Y#0002</v>
-      </c>
-      <c r="M12" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H4Y#0001</v>
+      </c>
+      <c r="M12" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
         <v/>
       </c>
-      <c r="N12" s="133" t="s">
+      <c r="N12" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
-      <c r="B13" s="138">
-        <v>1</v>
-      </c>
-      <c r="C13" s="114" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="136">
+        <v>1</v>
+      </c>
+      <c r="C13" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="113" t="s">
+      <c r="F13" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="112" t="str">
+      <c r="H13" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I13" s="111">
-        <v>0</v>
-      </c>
-      <c r="J13" s="110" t="str">
+      <c r="I13" s="109">
+        <v>0</v>
+      </c>
+      <c r="J13" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H5Y_Quote</v>
       </c>
-      <c r="K13" s="109" t="str">
+      <c r="K13" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H5Y</v>
       </c>
-      <c r="L13" s="108" t="str">
+      <c r="L13" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H5Y#0002</v>
-      </c>
-      <c r="M13" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H5Y#0001</v>
+      </c>
+      <c r="M13" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
         <v/>
       </c>
-      <c r="N13" s="133" t="s">
+      <c r="N13" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
-      <c r="B14" s="138">
-        <v>1</v>
-      </c>
-      <c r="C14" s="114" t="s">
+      <c r="A14" s="113"/>
+      <c r="B14" s="136">
+        <v>1</v>
+      </c>
+      <c r="C14" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="114" t="s">
+      <c r="D14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="113" t="s">
+      <c r="F14" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="112" t="str">
+      <c r="H14" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I14" s="111">
-        <v>0</v>
-      </c>
-      <c r="J14" s="110" t="str">
+      <c r="I14" s="109">
+        <v>0</v>
+      </c>
+      <c r="J14" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H6Y_Quote</v>
       </c>
-      <c r="K14" s="109" t="str">
+      <c r="K14" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H6Y</v>
       </c>
-      <c r="L14" s="108" t="str">
+      <c r="L14" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H6Y#0002</v>
-      </c>
-      <c r="M14" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H6Y#0001</v>
+      </c>
+      <c r="M14" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
         <v/>
       </c>
-      <c r="N14" s="133" t="s">
+      <c r="N14" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
-      <c r="B15" s="138">
-        <v>1</v>
-      </c>
-      <c r="C15" s="114" t="s">
+      <c r="A15" s="113"/>
+      <c r="B15" s="136">
+        <v>1</v>
+      </c>
+      <c r="C15" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="114" t="s">
+      <c r="D15" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="114" t="s">
+      <c r="E15" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="113" t="s">
+      <c r="F15" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="112" t="str">
+      <c r="H15" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I15" s="111">
-        <v>0</v>
-      </c>
-      <c r="J15" s="110" t="str">
+      <c r="I15" s="109">
+        <v>0</v>
+      </c>
+      <c r="J15" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H7Y_Quote</v>
       </c>
-      <c r="K15" s="109" t="str">
+      <c r="K15" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H7Y</v>
       </c>
-      <c r="L15" s="108" t="str">
+      <c r="L15" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H7Y#0002</v>
-      </c>
-      <c r="M15" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H7Y#0001</v>
+      </c>
+      <c r="M15" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
         <v/>
       </c>
-      <c r="N15" s="133" t="s">
+      <c r="N15" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
-      <c r="B16" s="138">
-        <v>1</v>
-      </c>
-      <c r="C16" s="114" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="136">
+        <v>1</v>
+      </c>
+      <c r="C16" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="114" t="s">
+      <c r="E16" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="112" t="str">
+      <c r="H16" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I16" s="111">
-        <v>0</v>
-      </c>
-      <c r="J16" s="110" t="str">
+      <c r="I16" s="109">
+        <v>0</v>
+      </c>
+      <c r="J16" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H8Y_Quote</v>
       </c>
-      <c r="K16" s="109" t="str">
+      <c r="K16" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H8Y</v>
       </c>
-      <c r="L16" s="108" t="str">
+      <c r="L16" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H8Y#0002</v>
-      </c>
-      <c r="M16" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H8Y#0001</v>
+      </c>
+      <c r="M16" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
         <v/>
       </c>
-      <c r="N16" s="133" t="s">
+      <c r="N16" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
-      <c r="B17" s="138">
-        <v>1</v>
-      </c>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="113"/>
+      <c r="B17" s="136">
+        <v>1</v>
+      </c>
+      <c r="C17" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="113" t="s">
+      <c r="F17" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="112" t="str">
+      <c r="H17" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I17" s="111">
-        <v>0</v>
-      </c>
-      <c r="J17" s="110" t="str">
+      <c r="I17" s="109">
+        <v>0</v>
+      </c>
+      <c r="J17" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H9Y_Quote</v>
       </c>
-      <c r="K17" s="109" t="str">
+      <c r="K17" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H9Y</v>
       </c>
-      <c r="L17" s="108" t="str">
+      <c r="L17" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H9Y#0002</v>
-      </c>
-      <c r="M17" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H9Y#0001</v>
+      </c>
+      <c r="M17" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
         <v/>
       </c>
-      <c r="N17" s="133" t="s">
+      <c r="N17" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
-      <c r="B18" s="138">
-        <v>1</v>
-      </c>
-      <c r="C18" s="114" t="s">
+      <c r="A18" s="113"/>
+      <c r="B18" s="136">
+        <v>1</v>
+      </c>
+      <c r="C18" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="114" t="s">
+      <c r="E18" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="112" t="str">
+      <c r="H18" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I18" s="111">
-        <v>0</v>
-      </c>
-      <c r="J18" s="110" t="str">
+      <c r="I18" s="109">
+        <v>0</v>
+      </c>
+      <c r="J18" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H10Y_Quote</v>
       </c>
-      <c r="K18" s="109" t="str">
+      <c r="K18" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H10Y</v>
       </c>
-      <c r="L18" s="108" t="str">
+      <c r="L18" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H10Y#0002</v>
-      </c>
-      <c r="M18" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H10Y#0001</v>
+      </c>
+      <c r="M18" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
         <v/>
       </c>
-      <c r="N18" s="133" t="s">
+      <c r="N18" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
-      <c r="B19" s="138">
-        <v>1</v>
-      </c>
-      <c r="C19" s="114" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="136">
+        <v>1</v>
+      </c>
+      <c r="C19" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="114" t="s">
+      <c r="E19" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="113" t="s">
+      <c r="F19" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="112" t="str">
+      <c r="H19" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I19" s="111">
-        <v>0</v>
-      </c>
-      <c r="J19" s="110" t="str">
+      <c r="I19" s="109">
+        <v>0</v>
+      </c>
+      <c r="J19" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H11Y_Quote</v>
       </c>
-      <c r="K19" s="109" t="str">
+      <c r="K19" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H11Y</v>
       </c>
-      <c r="L19" s="108" t="str">
+      <c r="L19" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H11Y#0002</v>
-      </c>
-      <c r="M19" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H11Y#0001</v>
+      </c>
+      <c r="M19" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
         <v/>
       </c>
-      <c r="N19" s="133" t="s">
+      <c r="N19" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
-      <c r="B20" s="138">
-        <v>1</v>
-      </c>
-      <c r="C20" s="114" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="136">
+        <v>1</v>
+      </c>
+      <c r="C20" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="112" t="str">
+      <c r="H20" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I20" s="111">
-        <v>0</v>
-      </c>
-      <c r="J20" s="110" t="str">
+      <c r="I20" s="109">
+        <v>0</v>
+      </c>
+      <c r="J20" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H12Y_Quote</v>
       </c>
-      <c r="K20" s="109" t="str">
+      <c r="K20" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H12Y</v>
       </c>
-      <c r="L20" s="108" t="str">
+      <c r="L20" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H12Y#0002</v>
-      </c>
-      <c r="M20" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H12Y#0001</v>
+      </c>
+      <c r="M20" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
         <v/>
       </c>
-      <c r="N20" s="133" t="s">
+      <c r="N20" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
-      <c r="B21" s="138">
-        <v>1</v>
-      </c>
-      <c r="C21" s="114" t="s">
+      <c r="A21" s="113"/>
+      <c r="B21" s="136">
+        <v>1</v>
+      </c>
+      <c r="C21" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="112" t="str">
+      <c r="H21" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I21" s="111">
-        <v>0</v>
-      </c>
-      <c r="J21" s="110" t="str">
+      <c r="I21" s="109">
+        <v>0</v>
+      </c>
+      <c r="J21" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H13Y_Quote</v>
       </c>
-      <c r="K21" s="109" t="str">
+      <c r="K21" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H13Y</v>
       </c>
-      <c r="L21" s="108" t="str">
+      <c r="L21" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H13Y#0002</v>
-      </c>
-      <c r="M21" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H13Y#0001</v>
+      </c>
+      <c r="M21" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
         <v/>
       </c>
-      <c r="N21" s="133" t="s">
+      <c r="N21" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="138">
-        <v>1</v>
-      </c>
-      <c r="C22" s="114" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="136">
+        <v>1</v>
+      </c>
+      <c r="C22" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="114" t="s">
+      <c r="E22" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="113" t="s">
+      <c r="F22" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="112" t="str">
+      <c r="H22" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I22" s="111">
-        <v>0</v>
-      </c>
-      <c r="J22" s="110" t="str">
+      <c r="I22" s="109">
+        <v>0</v>
+      </c>
+      <c r="J22" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H14Y_Quote</v>
       </c>
-      <c r="K22" s="109" t="str">
+      <c r="K22" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H14Y</v>
       </c>
-      <c r="L22" s="108" t="str">
+      <c r="L22" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H14Y#0002</v>
-      </c>
-      <c r="M22" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H14Y#0001</v>
+      </c>
+      <c r="M22" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
         <v/>
       </c>
-      <c r="N22" s="133" t="s">
+      <c r="N22" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="115"/>
-      <c r="B23" s="138">
-        <v>1</v>
-      </c>
-      <c r="C23" s="114" t="s">
+      <c r="A23" s="113"/>
+      <c r="B23" s="136">
+        <v>1</v>
+      </c>
+      <c r="C23" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="114" t="s">
+      <c r="D23" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="114" t="s">
+      <c r="E23" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="113" t="s">
+      <c r="F23" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="112" t="str">
+      <c r="H23" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I23" s="111">
-        <v>0</v>
-      </c>
-      <c r="J23" s="110" t="str">
+      <c r="I23" s="109">
+        <v>0</v>
+      </c>
+      <c r="J23" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H15Y_Quote</v>
       </c>
-      <c r="K23" s="109" t="str">
+      <c r="K23" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H15Y</v>
       </c>
-      <c r="L23" s="108" t="str">
+      <c r="L23" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15Y#0002</v>
-      </c>
-      <c r="M23" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H15Y#0001</v>
+      </c>
+      <c r="M23" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
         <v/>
       </c>
-      <c r="N23" s="133" t="s">
+      <c r="N23" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="115"/>
-      <c r="B24" s="138">
-        <v>1</v>
-      </c>
-      <c r="C24" s="114" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="136">
+        <v>1</v>
+      </c>
+      <c r="C24" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="114" t="s">
+      <c r="D24" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="114" t="s">
+      <c r="E24" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="113" t="s">
+      <c r="F24" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="112" t="str">
+      <c r="H24" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I24" s="111">
-        <v>0</v>
-      </c>
-      <c r="J24" s="110" t="str">
+      <c r="I24" s="109">
+        <v>0</v>
+      </c>
+      <c r="J24" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H16Y_Quote</v>
       </c>
-      <c r="K24" s="109" t="str">
+      <c r="K24" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H16Y</v>
       </c>
-      <c r="L24" s="108" t="str">
+      <c r="L24" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H16Y#0002</v>
-      </c>
-      <c r="M24" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H16Y#0001</v>
+      </c>
+      <c r="M24" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
         <v/>
       </c>
-      <c r="N24" s="133" t="s">
+      <c r="N24" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
-      <c r="B25" s="138">
-        <v>1</v>
-      </c>
-      <c r="C25" s="114" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="136">
+        <v>1</v>
+      </c>
+      <c r="C25" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="112" t="str">
+      <c r="H25" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I25" s="111">
-        <v>0</v>
-      </c>
-      <c r="J25" s="110" t="str">
+      <c r="I25" s="109">
+        <v>0</v>
+      </c>
+      <c r="J25" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H17Y_Quote</v>
       </c>
-      <c r="K25" s="109" t="str">
+      <c r="K25" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H17Y</v>
       </c>
-      <c r="L25" s="108" t="str">
+      <c r="L25" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H17Y#0002</v>
-      </c>
-      <c r="M25" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H17Y#0001</v>
+      </c>
+      <c r="M25" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
         <v/>
       </c>
-      <c r="N25" s="133" t="s">
+      <c r="N25" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="115"/>
-      <c r="B26" s="138">
-        <v>1</v>
-      </c>
-      <c r="C26" s="114" t="s">
+      <c r="A26" s="113"/>
+      <c r="B26" s="136">
+        <v>1</v>
+      </c>
+      <c r="C26" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="114" t="s">
+      <c r="E26" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="112" t="str">
+      <c r="H26" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I26" s="111">
-        <v>0</v>
-      </c>
-      <c r="J26" s="110" t="str">
+      <c r="I26" s="109">
+        <v>0</v>
+      </c>
+      <c r="J26" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H18Y_Quote</v>
       </c>
-      <c r="K26" s="109" t="str">
+      <c r="K26" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H18Y</v>
       </c>
-      <c r="L26" s="108" t="str">
+      <c r="L26" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18Y#0002</v>
-      </c>
-      <c r="M26" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H18Y#0001</v>
+      </c>
+      <c r="M26" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
         <v/>
       </c>
-      <c r="N26" s="133" t="s">
+      <c r="N26" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="115"/>
-      <c r="B27" s="138">
-        <v>1</v>
-      </c>
-      <c r="C27" s="114" t="s">
+      <c r="A27" s="113"/>
+      <c r="B27" s="136">
+        <v>1</v>
+      </c>
+      <c r="C27" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="114" t="s">
+      <c r="E27" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="112" t="str">
+      <c r="H27" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I27" s="111">
-        <v>0</v>
-      </c>
-      <c r="J27" s="110" t="str">
+      <c r="I27" s="109">
+        <v>0</v>
+      </c>
+      <c r="J27" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H19Y_Quote</v>
       </c>
-      <c r="K27" s="109" t="str">
+      <c r="K27" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H19Y</v>
       </c>
-      <c r="L27" s="108" t="str">
+      <c r="L27" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H19Y#0002</v>
-      </c>
-      <c r="M27" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H19Y#0001</v>
+      </c>
+      <c r="M27" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
         <v/>
       </c>
-      <c r="N27" s="133" t="s">
+      <c r="N27" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="115"/>
-      <c r="B28" s="138">
-        <v>1</v>
-      </c>
-      <c r="C28" s="114" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="136">
+        <v>1</v>
+      </c>
+      <c r="C28" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="114" t="s">
+      <c r="D28" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="114" t="s">
+      <c r="E28" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="H28" s="112" t="str">
+      <c r="H28" s="110" t="str">
         <f t="shared" si="0"/>
         <v>Actual/365 (Fixed)</v>
       </c>
-      <c r="I28" s="111">
-        <v>0</v>
-      </c>
-      <c r="J28" s="110" t="str">
+      <c r="I28" s="109">
+        <v>0</v>
+      </c>
+      <c r="J28" s="108" t="str">
         <f t="shared" si="1"/>
         <v>HKDQM3H20Y_Quote</v>
       </c>
-      <c r="K28" s="109" t="str">
+      <c r="K28" s="107" t="str">
         <f t="shared" si="2"/>
         <v>HKD_YCSTDRH_QM3H20Y</v>
       </c>
-      <c r="L28" s="108" t="str">
+      <c r="L28" s="106" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28&amp;"D",DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H20Y#0002</v>
-      </c>
-      <c r="M28" s="107" t="str">
+        <v>HKD_YCSTDRH_QM3H20Y#0001</v>
+      </c>
+      <c r="M28" s="105" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
         <v/>
       </c>
-      <c r="N28" s="133" t="s">
+      <c r="N28" s="131" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="103"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="101"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -3798,1474 +3819,1474 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="39" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" style="32" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="23.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="37" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="37" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" style="30" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="str">
+      <c r="A2" s="31" t="str">
         <f>Deposits!F3</f>
-        <v>HKD_YCSTDRH_OND#0002</v>
-      </c>
-      <c r="B2" s="34">
+        <v>HKD_YCSTDRH_OND#0001</v>
+      </c>
+      <c r="B2" s="32">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>6.8570000000000002E-4</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="35">
+        <v>5.4309999999999992E-4</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33">
         <v>10</v>
       </c>
-      <c r="F2" s="35">
-        <v>1</v>
-      </c>
-      <c r="G2" s="40">
+      <c r="F2" s="33">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H2" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H2" s="39">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>41687</v>
+        <v>41736</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="str">
+      <c r="A3" s="31" t="str">
         <f>Deposits!F4</f>
-        <v>HKD_YCSTDRH_SWD#0002</v>
-      </c>
-      <c r="B3" s="34">
+        <v>HKD_YCSTDRH_SWD#0001</v>
+      </c>
+      <c r="B3" s="32">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>1.3331E-3</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="35">
+        <v>1.3070999999999998E-3</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="33">
         <v>10</v>
       </c>
-      <c r="F3" s="35">
-        <v>1</v>
-      </c>
-      <c r="G3" s="40">
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H3" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H3" s="39">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41691</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="str">
+      <c r="A4" s="31" t="str">
         <f>Deposits!F5</f>
-        <v>HKD_YCSTDRH_2WD#0002</v>
-      </c>
-      <c r="B4" s="34">
+        <v>HKD_YCSTDRH_2WD#0001</v>
+      </c>
+      <c r="B4" s="32">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
-        <v>1.5435E-3</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35">
+        <v>1.5286E-3</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
         <v>10</v>
       </c>
-      <c r="F4" s="35">
-        <v>1</v>
-      </c>
-      <c r="G4" s="40">
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+      <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H4" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H4" s="39">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41698</v>
+        <v>41751</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="str">
+      <c r="A5" s="31" t="str">
         <f>Deposits!F6</f>
-        <v>HKD_YCSTDRH_1MD#0002</v>
-      </c>
-      <c r="B5" s="34">
+        <v>HKD_YCSTDRH_1MD#0001</v>
+      </c>
+      <c r="B5" s="32">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>2.1142999999999999E-3</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="35">
+        <v>2.0571000000000001E-3</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
         <v>10</v>
       </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40">
+      <c r="F5" s="33">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H5" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H5" s="39">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>41712</v>
+        <v>41764</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="str">
+      <c r="A6" s="31" t="str">
         <f>Deposits!F7</f>
-        <v>HKD_YCSTDRH_2MD#0002</v>
-      </c>
-      <c r="B6" s="34">
+        <v>HKD_YCSTDRH_2MD#0001</v>
+      </c>
+      <c r="B6" s="32">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
-        <v>3.1286000000000005E-3</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="35">
+        <v>3.0214E-3</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
         <v>10</v>
       </c>
-      <c r="F6" s="35">
-        <v>1</v>
-      </c>
-      <c r="G6" s="40">
+      <c r="F6" s="33">
+        <v>1</v>
+      </c>
+      <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H6" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H6" s="39">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>41743</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="str">
+      <c r="A7" s="31" t="str">
         <f>Deposits!F8</f>
-        <v>HKD_YCSTDRH_3MD#0002</v>
-      </c>
-      <c r="B7" s="34">
+        <v>HKD_YCSTDRH_3MD#0001</v>
+      </c>
+      <c r="B7" s="32">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
-        <v>3.7929000000000001E-3</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="35">
+        <v>3.7286000000000003E-3</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
         <v>10</v>
       </c>
-      <c r="F7" s="35">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40">
+      <c r="F7" s="33">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H7" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H7" s="39">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41773</v>
+        <v>41824</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="str">
+      <c r="A8" s="31" t="str">
         <f>Deposits!F9</f>
-        <v>HKD_YCSTDRH_6MD#0002</v>
-      </c>
-      <c r="B8" s="34">
+        <v>HKD_YCSTDRH_6MD#0001</v>
+      </c>
+      <c r="B8" s="32">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>5.4856999999999996E-3</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="35" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="35">
+        <v>5.4786000000000001E-3</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="33">
         <v>10</v>
       </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="F8" s="33">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H8" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H8" s="39">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>41865</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="33" t="str">
+      <c r="A9" s="31" t="str">
         <f>Deposits!F10</f>
-        <v>HKD_YCSTDRH_9MD#0002</v>
-      </c>
-      <c r="B9" s="34">
+        <v>HKD_YCSTDRH_9MD#0001</v>
+      </c>
+      <c r="B9" s="32">
         <f>_xll.qlRateHelperQuoteValue($A9,Trigger)</f>
-        <v>6.3914000000000002E-3</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35">
+        <v>6.4856999999999996E-3</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
         <v>10</v>
       </c>
-      <c r="F9" s="35">
-        <v>1</v>
-      </c>
-      <c r="G9" s="40">
+      <c r="F9" s="33">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H9" s="41">
+        <v>41733</v>
+      </c>
+      <c r="H9" s="39">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>41957</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="str">
+      <c r="A10" s="34" t="str">
         <f>Deposits!F11</f>
-        <v>HKD_YCSTDRH_1YD#0002</v>
-      </c>
-      <c r="B10" s="37">
+        <v>HKD_YCSTDRH_1YD#0001</v>
+      </c>
+      <c r="B10" s="35">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>8.6356999999999996E-3</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
+        <v>8.6286000000000002E-3</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="36">
         <v>10</v>
       </c>
-      <c r="F10" s="38">
-        <v>1</v>
-      </c>
-      <c r="G10" s="42">
+      <c r="F10" s="36">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41684</v>
-      </c>
-      <c r="H10" s="43">
+        <v>41733</v>
+      </c>
+      <c r="H10" s="41">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42051</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="str">
+      <c r="A11" s="31" t="str">
         <f>Swaps!L6</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0002</v>
-      </c>
-      <c r="B11" s="34">
+        <v>HKD_YCSTDRH_QM3H1Y#0001</v>
+      </c>
+      <c r="B11" s="32">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="C11" s="34">
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="C11" s="32">
         <f>_xll.qlSwapRateHelperSpread($A11,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="35" t="b">
+      <c r="D11" s="33" t="b">
         <f t="shared" ref="D11:D14" si="0">IF(ISERROR(B11),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>50</v>
       </c>
-      <c r="F11" s="35">
-        <v>1</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H11" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H11" s="39">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42052</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="str">
+      <c r="A12" s="31" t="str">
         <f>Swaps!L7</f>
-        <v>HKD_YCSTDRH_QM3H15M#0002</v>
-      </c>
-      <c r="B12" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H15M#0001</v>
+      </c>
+      <c r="B12" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A12,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <f>_xll.qlSwapRateHelperSpread($A12,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="35" t="b">
+      <c r="D12" s="33" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>50</v>
       </c>
-      <c r="F12" s="35">
-        <v>1</v>
-      </c>
-      <c r="G12" s="40">
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+      <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H12" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H12" s="39">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42142</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="str">
+      <c r="A13" s="31" t="str">
         <f>Swaps!L8</f>
-        <v>HKD_YCSTDRH_QM3H18M#0002</v>
-      </c>
-      <c r="B13" s="34">
+        <v>HKD_YCSTDRH_QM3H18M#0001</v>
+      </c>
+      <c r="B13" s="32">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="C13" s="34">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="C13" s="32">
         <f>_xll.qlSwapRateHelperSpread($A13,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="35" t="b">
+      <c r="D13" s="33" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>50</v>
       </c>
-      <c r="F13" s="35">
-        <v>1</v>
-      </c>
-      <c r="G13" s="40">
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+      <c r="G13" s="38">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H13" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H13" s="39">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42233</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="str">
+      <c r="A14" s="31" t="str">
         <f>Swaps!L9</f>
-        <v>HKD_YCSTDRH_QM3H21M#0002</v>
-      </c>
-      <c r="B14" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H21M#0001</v>
+      </c>
+      <c r="B14" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A14,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="32">
         <f>_xll.qlSwapRateHelperSpread($A14,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="35" t="b">
+      <c r="D14" s="33" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>50</v>
       </c>
-      <c r="F14" s="35">
-        <v>1</v>
-      </c>
-      <c r="G14" s="40">
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
+      <c r="G14" s="38">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H14" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H14" s="39">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42325</v>
+        <v>42376</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="str">
+      <c r="A15" s="31" t="str">
         <f>Swaps!L10</f>
-        <v>HKD_YCSTDRH_QM3H2Y#0002</v>
-      </c>
-      <c r="B15" s="34">
+        <v>HKD_YCSTDRH_QM3H2Y#0001</v>
+      </c>
+      <c r="B15" s="32">
         <f>_xll.qlRateHelperQuoteValue($A15,Trigger)</f>
-        <v>5.3E-3</v>
-      </c>
-      <c r="C15" s="34">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C15" s="32">
         <f>_xll.qlSwapRateHelperSpread($A15,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="35" t="b">
+      <c r="D15" s="33" t="b">
         <f>IF(ISERROR(B15),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="33">
         <v>50</v>
       </c>
-      <c r="F15" s="35">
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+      <c r="G15" s="38">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H15" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H15" s="39">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42417</v>
+        <v>42467</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="str">
+      <c r="A16" s="31" t="str">
         <f>Swaps!L11</f>
-        <v>HKD_YCSTDRH_QM3H3Y#0002</v>
-      </c>
-      <c r="B16" s="34">
+        <v>HKD_YCSTDRH_QM3H3Y#0001</v>
+      </c>
+      <c r="B16" s="32">
         <f>_xll.qlRateHelperQuoteValue($A16,Trigger)</f>
-        <v>7.6E-3</v>
-      </c>
-      <c r="C16" s="34">
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="C16" s="32">
         <f>_xll.qlSwapRateHelperSpread($A16,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="35" t="b">
+      <c r="D16" s="33" t="b">
         <f t="shared" ref="D16:D47" si="1">IF(ISERROR(B16),FALSE,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>50</v>
       </c>
-      <c r="F16" s="35">
-        <v>1</v>
-      </c>
-      <c r="G16" s="40">
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+      <c r="G16" s="38">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H16" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H16" s="39">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42783</v>
+        <v>42832</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="str">
+      <c r="A17" s="31" t="str">
         <f>Swaps!L12</f>
-        <v>HKD_YCSTDRH_QM3H4Y#0002</v>
-      </c>
-      <c r="B17" s="34">
+        <v>HKD_YCSTDRH_QM3H4Y#0001</v>
+      </c>
+      <c r="B17" s="32">
         <f>_xll.qlRateHelperQuoteValue($A17,Trigger)</f>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="C17" s="34">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="C17" s="32">
         <f>_xll.qlSwapRateHelperSpread($A17,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="35" t="b">
+      <c r="D17" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>50</v>
       </c>
-      <c r="F17" s="35">
-        <v>1</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="F17" s="33">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H17" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H17" s="39">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>43150</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="str">
+      <c r="A18" s="31" t="str">
         <f>Swaps!L13</f>
-        <v>HKD_YCSTDRH_QM3H5Y#0002</v>
-      </c>
-      <c r="B18" s="34">
+        <v>HKD_YCSTDRH_QM3H5Y#0001</v>
+      </c>
+      <c r="B18" s="32">
         <f>_xll.qlRateHelperQuoteValue($A18,Trigger)</f>
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="C18" s="34">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="C18" s="32">
         <f>_xll.qlSwapRateHelperSpread($A18,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="35" t="b">
+      <c r="D18" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>50</v>
       </c>
-      <c r="F18" s="35">
-        <v>1</v>
-      </c>
-      <c r="G18" s="40">
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
+      <c r="G18" s="38">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H18" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H18" s="39">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>43514</v>
+        <v>43563</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="str">
+      <c r="A19" s="31" t="str">
         <f>Swaps!L14</f>
-        <v>HKD_YCSTDRH_QM3H6Y#0002</v>
-      </c>
-      <c r="B19" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H6Y#0001</v>
+      </c>
+      <c r="B19" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A19,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="32">
         <f>_xll.qlSwapRateHelperSpread($A19,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="35" t="b">
+      <c r="D19" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>50</v>
       </c>
-      <c r="F19" s="35">
-        <v>1</v>
-      </c>
-      <c r="G19" s="40">
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="38">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H19" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H19" s="39">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>43878</v>
+        <v>43928</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="str">
+      <c r="A20" s="31" t="str">
         <f>Swaps!L15</f>
-        <v>HKD_YCSTDRH_QM3H7Y#0002</v>
-      </c>
-      <c r="B20" s="34">
+        <v>HKD_YCSTDRH_QM3H7Y#0001</v>
+      </c>
+      <c r="B20" s="32">
         <f>_xll.qlRateHelperQuoteValue($A20,Trigger)</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="C20" s="34">
+        <v>2.4400000000000005E-2</v>
+      </c>
+      <c r="C20" s="32">
         <f>_xll.qlSwapRateHelperSpread($A20,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="35" t="b">
+      <c r="D20" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>50</v>
       </c>
-      <c r="F20" s="35">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+      <c r="G20" s="38">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H20" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H20" s="39">
         <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
-        <v>44244</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="33" t="str">
+      <c r="A21" s="31" t="str">
         <f>Swaps!L16</f>
-        <v>HKD_YCSTDRH_QM3H8Y#0002</v>
-      </c>
-      <c r="B21" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H8Y#0001</v>
+      </c>
+      <c r="B21" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A21,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="32">
         <f>_xll.qlSwapRateHelperSpread($A21,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="35" t="b">
+      <c r="D21" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>50</v>
       </c>
-      <c r="F21" s="35">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="F21" s="33">
+        <v>1</v>
+      </c>
+      <c r="G21" s="38">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H21" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H21" s="39">
         <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
-        <v>44609</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="33" t="str">
+      <c r="A22" s="31" t="str">
         <f>Swaps!L17</f>
-        <v>HKD_YCSTDRH_QM3H9Y#0002</v>
-      </c>
-      <c r="B22" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H9Y#0001</v>
+      </c>
+      <c r="B22" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A22,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="32">
         <f>_xll.qlSwapRateHelperSpread($A22,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="35" t="b">
+      <c r="D22" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="33">
         <v>50</v>
       </c>
-      <c r="F22" s="35">
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
+      <c r="F22" s="33">
+        <v>1</v>
+      </c>
+      <c r="G22" s="38">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H22" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H22" s="39">
         <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
-        <v>44974</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="33" t="str">
+      <c r="A23" s="31" t="str">
         <f>Swaps!L18</f>
-        <v>HKD_YCSTDRH_QM3H10Y#0002</v>
-      </c>
-      <c r="B23" s="34">
+        <v>HKD_YCSTDRH_QM3H10Y#0001</v>
+      </c>
+      <c r="B23" s="32">
         <f>_xll.qlRateHelperQuoteValue($A23,Trigger)</f>
-        <v>2.63E-2</v>
-      </c>
-      <c r="C23" s="34">
+        <v>2.8499999999999998E-2</v>
+      </c>
+      <c r="C23" s="32">
         <f>_xll.qlSwapRateHelperSpread($A23,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="35" t="b">
+      <c r="D23" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="33">
         <v>50</v>
       </c>
-      <c r="F23" s="35">
-        <v>1</v>
-      </c>
-      <c r="G23" s="40">
+      <c r="F23" s="33">
+        <v>1</v>
+      </c>
+      <c r="G23" s="38">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H23" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H23" s="39">
         <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
-        <v>45341</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="str">
+      <c r="A24" s="31" t="str">
         <f>Swaps!L19</f>
-        <v>HKD_YCSTDRH_QM3H11Y#0002</v>
-      </c>
-      <c r="B24" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H11Y#0001</v>
+      </c>
+      <c r="B24" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A24,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="32">
         <f>_xll.qlSwapRateHelperSpread($A24,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="35" t="b">
+      <c r="D24" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="33">
         <v>50</v>
       </c>
-      <c r="F24" s="35">
-        <v>1</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="F24" s="33">
+        <v>1</v>
+      </c>
+      <c r="G24" s="38">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H24" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H24" s="39">
         <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
-        <v>45705</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="str">
+      <c r="A25" s="31" t="str">
         <f>Swaps!L20</f>
-        <v>HKD_YCSTDRH_QM3H12Y#0002</v>
-      </c>
-      <c r="B25" s="34">
+        <v>HKD_YCSTDRH_QM3H12Y#0001</v>
+      </c>
+      <c r="B25" s="32">
         <f>_xll.qlRateHelperQuoteValue($A25,Trigger)</f>
-        <v>2.8200000000000003E-2</v>
-      </c>
-      <c r="C25" s="34">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="C25" s="32">
         <f>_xll.qlSwapRateHelperSpread($A25,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="35" t="b">
+      <c r="D25" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="33">
         <v>50</v>
       </c>
-      <c r="F25" s="35">
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H25" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H25" s="39">
         <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
-        <v>46070</v>
+        <v>46119</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="str">
+      <c r="A26" s="31" t="str">
         <f>Swaps!L21</f>
-        <v>HKD_YCSTDRH_QM3H13Y#0002</v>
-      </c>
-      <c r="B26" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H13Y#0001</v>
+      </c>
+      <c r="B26" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A26,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="32">
         <f>_xll.qlSwapRateHelperSpread($A26,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="35" t="b">
+      <c r="D26" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="33">
         <v>50</v>
       </c>
-      <c r="F26" s="35">
-        <v>1</v>
-      </c>
-      <c r="G26" s="40">
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H26" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H26" s="39">
         <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
-        <v>46435</v>
+        <v>46484</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="str">
+      <c r="A27" s="31" t="str">
         <f>Swaps!L22</f>
-        <v>HKD_YCSTDRH_QM3H14Y#0002</v>
-      </c>
-      <c r="B27" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H14Y#0001</v>
+      </c>
+      <c r="B27" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A27,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="32">
         <f>_xll.qlSwapRateHelperSpread($A27,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="35" t="b">
+      <c r="D27" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="33">
         <v>50</v>
       </c>
-      <c r="F27" s="35">
-        <v>1</v>
-      </c>
-      <c r="G27" s="40">
+      <c r="F27" s="33">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H27" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H27" s="39">
         <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
-        <v>46800</v>
+        <v>46850</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="str">
+      <c r="A28" s="31" t="str">
         <f>Swaps!L23</f>
-        <v>HKD_YCSTDRH_QM3H15Y#0002</v>
-      </c>
-      <c r="B28" s="34">
+        <v>HKD_YCSTDRH_QM3H15Y#0001</v>
+      </c>
+      <c r="B28" s="32">
         <f>_xll.qlRateHelperQuoteValue($A28,Trigger)</f>
-        <v>2.9500000000000002E-2</v>
-      </c>
-      <c r="C28" s="34">
+        <v>3.0899999999999997E-2</v>
+      </c>
+      <c r="C28" s="32">
         <f>_xll.qlSwapRateHelperSpread($A28,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="35" t="b">
+      <c r="D28" s="33" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="33">
         <v>50</v>
       </c>
-      <c r="F28" s="35">
-        <v>1</v>
-      </c>
-      <c r="G28" s="40">
+      <c r="F28" s="33">
+        <v>1</v>
+      </c>
+      <c r="G28" s="38">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H28" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H28" s="39">
         <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
-        <v>47168</v>
+        <v>47217</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="str">
+      <c r="A29" s="31" t="str">
         <f>Swaps!L24</f>
-        <v>HKD_YCSTDRH_QM3H16Y#0002</v>
-      </c>
-      <c r="B29" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H16Y#0001</v>
+      </c>
+      <c r="B29" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A29,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="32">
         <f>_xll.qlSwapRateHelperSpread($A29,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="35" t="b">
+      <c r="D29" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="33">
         <v>50</v>
       </c>
-      <c r="F29" s="35">
-        <v>1</v>
-      </c>
-      <c r="G29" s="40">
+      <c r="F29" s="33">
+        <v>1</v>
+      </c>
+      <c r="G29" s="38">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H29" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H29" s="39">
         <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
-        <v>47532</v>
+        <v>47581</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="str">
+      <c r="A30" s="31" t="str">
         <f>Swaps!L25</f>
-        <v>HKD_YCSTDRH_QM3H17Y#0002</v>
-      </c>
-      <c r="B30" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H17Y#0001</v>
+      </c>
+      <c r="B30" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A30,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="32">
         <f>_xll.qlSwapRateHelperSpread($A30,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="35" t="b">
+      <c r="D30" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="33">
         <v>50</v>
       </c>
-      <c r="F30" s="35">
-        <v>1</v>
-      </c>
-      <c r="G30" s="40">
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
+      <c r="G30" s="38">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H30" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H30" s="39">
         <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
-        <v>47896</v>
+        <v>47945</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="str">
+      <c r="A31" s="31" t="str">
         <f>Swaps!L26</f>
-        <v>HKD_YCSTDRH_QM3H18Y#0002</v>
-      </c>
-      <c r="B31" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H18Y#0001</v>
+      </c>
+      <c r="B31" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A31,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="32">
         <f>_xll.qlSwapRateHelperSpread($A31,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="35" t="b">
+      <c r="D31" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="33">
         <v>50</v>
       </c>
-      <c r="F31" s="35">
-        <v>1</v>
-      </c>
-      <c r="G31" s="40">
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+      <c r="G31" s="38">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H31" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H31" s="39">
         <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
-        <v>48261</v>
+        <v>48311</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="str">
+      <c r="A32" s="31" t="str">
         <f>Swaps!L27</f>
-        <v>HKD_YCSTDRH_QM3H19Y#0002</v>
-      </c>
-      <c r="B32" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H19Y#0001</v>
+      </c>
+      <c r="B32" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A32,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="32">
         <f>_xll.qlSwapRateHelperSpread($A32,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="35" t="b">
+      <c r="D32" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="33">
         <v>50</v>
       </c>
-      <c r="F32" s="35">
-        <v>1</v>
-      </c>
-      <c r="G32" s="40">
+      <c r="F32" s="33">
+        <v>1</v>
+      </c>
+      <c r="G32" s="38">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H32" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H32" s="39">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>48627</v>
+        <v>48676</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="str">
+      <c r="A33" s="31" t="str">
         <f>Swaps!L28</f>
-        <v>HKD_YCSTDRH_QM3H20Y#0002</v>
-      </c>
-      <c r="B33" s="34" t="e">
+        <v>HKD_YCSTDRH_QM3H20Y#0001</v>
+      </c>
+      <c r="B33" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A33,Trigger)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="32">
         <f>_xll.qlSwapRateHelperSpread($A33,Trigger)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="35" t="b">
+      <c r="D33" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="33">
         <v>50</v>
       </c>
-      <c r="F33" s="35">
-        <v>1</v>
-      </c>
-      <c r="G33" s="40">
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="38">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>41687</v>
-      </c>
-      <c r="H33" s="41">
+        <v>41736</v>
+      </c>
+      <c r="H33" s="39">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>48992</v>
+        <v>49045</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="e">
+      <c r="A34" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B34" s="34" t="e">
+      <c r="B34" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A34,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="34" t="e">
+      <c r="C34" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A34,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" s="35" t="b">
+      <c r="D34" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="33">
         <v>50</v>
       </c>
-      <c r="F34" s="35">
-        <v>1</v>
-      </c>
-      <c r="G34" s="40" t="e">
+      <c r="F34" s="33">
+        <v>1</v>
+      </c>
+      <c r="G34" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A34,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H34" s="41" t="e">
+      <c r="H34" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A34,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="e">
+      <c r="A35" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B35" s="34" t="e">
+      <c r="B35" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A35,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="34" t="e">
+      <c r="C35" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A35,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="35" t="b">
+      <c r="D35" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="33">
         <v>50</v>
       </c>
-      <c r="F35" s="35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="40" t="e">
+      <c r="F35" s="33">
+        <v>1</v>
+      </c>
+      <c r="G35" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A35,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H35" s="41" t="e">
+      <c r="H35" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A35,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="e">
+      <c r="A36" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B36" s="34" t="e">
+      <c r="B36" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A36,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="34" t="e">
+      <c r="C36" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A36,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" s="35" t="b">
+      <c r="D36" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="33">
         <v>50</v>
       </c>
-      <c r="F36" s="35">
-        <v>1</v>
-      </c>
-      <c r="G36" s="40" t="e">
+      <c r="F36" s="33">
+        <v>1</v>
+      </c>
+      <c r="G36" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A36,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H36" s="41" t="e">
+      <c r="H36" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A36,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="33" t="e">
+      <c r="A37" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B37" s="34" t="e">
+      <c r="B37" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A37,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="34" t="e">
+      <c r="C37" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A37,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D37" s="35" t="b">
+      <c r="D37" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="33">
         <v>50</v>
       </c>
-      <c r="F37" s="35">
-        <v>1</v>
-      </c>
-      <c r="G37" s="40" t="e">
+      <c r="F37" s="33">
+        <v>1</v>
+      </c>
+      <c r="G37" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A37,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="41" t="e">
+      <c r="H37" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A37,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="33" t="e">
+      <c r="A38" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B38" s="34" t="e">
+      <c r="B38" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A38,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="34" t="e">
+      <c r="C38" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A38,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D38" s="35" t="b">
+      <c r="D38" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="33">
         <v>50</v>
       </c>
-      <c r="F38" s="35">
-        <v>1</v>
-      </c>
-      <c r="G38" s="40" t="e">
+      <c r="F38" s="33">
+        <v>1</v>
+      </c>
+      <c r="G38" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A38,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H38" s="41" t="e">
+      <c r="H38" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A38,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="e">
+      <c r="A39" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B39" s="34" t="e">
+      <c r="B39" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A39,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C39" s="34" t="e">
+      <c r="C39" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A39,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D39" s="35" t="b">
+      <c r="D39" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="33">
         <v>50</v>
       </c>
-      <c r="F39" s="35">
-        <v>1</v>
-      </c>
-      <c r="G39" s="40" t="e">
+      <c r="F39" s="33">
+        <v>1</v>
+      </c>
+      <c r="G39" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A39,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H39" s="41" t="e">
+      <c r="H39" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A39,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="33" t="e">
+      <c r="A40" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B40" s="34" t="e">
+      <c r="B40" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A40,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C40" s="34" t="e">
+      <c r="C40" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A40,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="35" t="b">
+      <c r="D40" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="33">
         <v>50</v>
       </c>
-      <c r="F40" s="35">
-        <v>1</v>
-      </c>
-      <c r="G40" s="40" t="e">
+      <c r="F40" s="33">
+        <v>1</v>
+      </c>
+      <c r="G40" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A40,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H40" s="41" t="e">
+      <c r="H40" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A40,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="e">
+      <c r="A41" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B41" s="34" t="e">
+      <c r="B41" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A41,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C41" s="34" t="e">
+      <c r="C41" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A41,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D41" s="35" t="b">
+      <c r="D41" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="33">
         <v>50</v>
       </c>
-      <c r="F41" s="35">
-        <v>1</v>
-      </c>
-      <c r="G41" s="40" t="e">
+      <c r="F41" s="33">
+        <v>1</v>
+      </c>
+      <c r="G41" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A41,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="41" t="e">
+      <c r="H41" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A41,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="e">
+      <c r="A42" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B42" s="34" t="e">
+      <c r="B42" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A42,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C42" s="34" t="e">
+      <c r="C42" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A42,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D42" s="35" t="b">
+      <c r="D42" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="33">
         <v>50</v>
       </c>
-      <c r="F42" s="35">
-        <v>1</v>
-      </c>
-      <c r="G42" s="40" t="e">
+      <c r="F42" s="33">
+        <v>1</v>
+      </c>
+      <c r="G42" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A42,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H42" s="41" t="e">
+      <c r="H42" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A42,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="e">
+      <c r="A43" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B43" s="34" t="e">
+      <c r="B43" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A43,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C43" s="34" t="e">
+      <c r="C43" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A43,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D43" s="35" t="b">
+      <c r="D43" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="33">
         <v>50</v>
       </c>
-      <c r="F43" s="35">
-        <v>1</v>
-      </c>
-      <c r="G43" s="40" t="e">
+      <c r="F43" s="33">
+        <v>1</v>
+      </c>
+      <c r="G43" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A43,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="41" t="e">
+      <c r="H43" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A43,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="e">
+      <c r="A44" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B44" s="34" t="e">
+      <c r="B44" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A44,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C44" s="34" t="e">
+      <c r="C44" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A44,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D44" s="35" t="b">
+      <c r="D44" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="33">
         <v>50</v>
       </c>
-      <c r="F44" s="35">
-        <v>1</v>
-      </c>
-      <c r="G44" s="40" t="e">
+      <c r="F44" s="33">
+        <v>1</v>
+      </c>
+      <c r="G44" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A44,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H44" s="41" t="e">
+      <c r="H44" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A44,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="e">
+      <c r="A45" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B45" s="34" t="e">
+      <c r="B45" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A45,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C45" s="34" t="e">
+      <c r="C45" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A45,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D45" s="35" t="b">
+      <c r="D45" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="33">
         <v>50</v>
       </c>
-      <c r="F45" s="35">
-        <v>1</v>
-      </c>
-      <c r="G45" s="40" t="e">
+      <c r="F45" s="33">
+        <v>1</v>
+      </c>
+      <c r="G45" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A45,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="41" t="e">
+      <c r="H45" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A45,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="e">
+      <c r="A46" s="31" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B46" s="34" t="e">
+      <c r="B46" s="32" t="e">
         <f>_xll.qlRateHelperQuoteValue($A46,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C46" s="34" t="e">
+      <c r="C46" s="32" t="e">
         <f>_xll.qlSwapRateHelperSpread($A46,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="35" t="b">
+      <c r="D46" s="33" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="33">
         <v>50</v>
       </c>
-      <c r="F46" s="35">
-        <v>1</v>
-      </c>
-      <c r="G46" s="40" t="e">
+      <c r="F46" s="33">
+        <v>1</v>
+      </c>
+      <c r="G46" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($A46,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="41" t="e">
+      <c r="H46" s="39" t="e">
         <f>_xll.qlRateHelperLatestDate($A46,Trigger)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="e">
+      <c r="A47" s="34" t="e">
         <f>Swaps!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B47" s="37" t="e">
+      <c r="B47" s="35" t="e">
         <f>_xll.qlRateHelperQuoteValue($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C47" s="37" t="e">
+      <c r="C47" s="35" t="e">
         <f>_xll.qlSwapRateHelperSpread($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D47" s="38" t="b">
+      <c r="D47" s="36" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="36">
         <v>50</v>
       </c>
-      <c r="F47" s="38">
-        <v>1</v>
-      </c>
-      <c r="G47" s="42" t="e">
+      <c r="F47" s="36">
+        <v>1</v>
+      </c>
+      <c r="G47" s="40" t="e">
         <f>_xll.qlRateHelperEarliestDate($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="43" t="e">
+      <c r="H47" s="41" t="e">
         <f>_xll.qlRateHelperLatestDate($A47,Trigger)</f>
         <v>#VALUE!</v>
       </c>
@@ -5290,3089 +5311,3089 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="38" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="143"/>
+      <c r="D1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="47">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="45">
         <f t="array" ref="I1:I126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="47">
         <v>6</v>
       </c>
-      <c r="D2" s="50" t="str">
+      <c r="D2" s="48" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
         <v>HKD_YCSTDRH_6MD</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="49">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>5.4856999999999996E-3</v>
-      </c>
-      <c r="F2" s="51">
+        <v>5.4786000000000001E-3</v>
+      </c>
+      <c r="F2" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="38">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41684</v>
-      </c>
-      <c r="H2" s="61">
+        <v>41733</v>
+      </c>
+      <c r="H2" s="59">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>41865</v>
-      </c>
-      <c r="I2" s="47">
-        <v>0.99728707396165672</v>
-      </c>
-      <c r="J2" s="52"/>
+        <v>41918</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0.99723086474552047</v>
+      </c>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="54">
-        <v>0</v>
-      </c>
-      <c r="D3" s="50" t="str">
+      <c r="B3" s="52">
+        <v>0</v>
+      </c>
+      <c r="D3" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H1Y</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="49">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.3E-3</v>
-      </c>
-      <c r="F3" s="51">
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="F3" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="38">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41687</v>
-      </c>
-      <c r="H3" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H3" s="59">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42052</v>
-      </c>
-      <c r="I3" s="47">
-        <v>0.99566218541807772</v>
-      </c>
-      <c r="J3" s="52"/>
+        <v>42101</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0.99546290347562139</v>
+      </c>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="52">
         <v>2</v>
       </c>
-      <c r="D4" s="50" t="str">
+      <c r="D4" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H18M</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="49">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="F4" s="51">
+        <v>5.6000000000000008E-3</v>
+      </c>
+      <c r="F4" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="38">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41687</v>
-      </c>
-      <c r="H4" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H4" s="59">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42233</v>
-      </c>
-      <c r="I4" s="47">
-        <v>0.9930961053076619</v>
-      </c>
-      <c r="J4" s="52"/>
+        <v>42284</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0.99157909427839885</v>
+      </c>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="50" t="str">
+      <c r="D5" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H2Y</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="49">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>5.3E-3</v>
-      </c>
-      <c r="F5" s="51">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F5" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="38">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41687</v>
-      </c>
-      <c r="H5" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H5" s="59">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42417</v>
-      </c>
-      <c r="I5" s="47">
-        <v>0.98940713935624025</v>
-      </c>
-      <c r="J5" s="52"/>
+        <v>42467</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0.98502853847511007</v>
+      </c>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="56" t="str">
+      <c r="B6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!D2)</f>
         <v/>
       </c>
-      <c r="D6" s="50" t="str">
+      <c r="D6" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H3Y</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="49">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>7.6E-3</v>
-      </c>
-      <c r="F6" s="51">
+        <v>1.2199999999999999E-2</v>
+      </c>
+      <c r="F6" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="38">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41687</v>
-      </c>
-      <c r="H6" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H6" s="59">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42783</v>
-      </c>
-      <c r="I6" s="47">
-        <v>0.97734497496157335</v>
-      </c>
-      <c r="J6" s="52"/>
+        <v>42832</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0.9638142728991469</v>
+      </c>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="55" t="str">
         <f>_xll.ohGroup(RateHelperPrefix&amp;"_RateHelpersSelected",_xll.ohPack(Selected!D2:D126),TRUE,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_RateHelpersSelected#0003</v>
-      </c>
-      <c r="B7" s="58" t="str">
+        <v>HKD_YCSTDRH_RateHelpersSelected#0001</v>
+      </c>
+      <c r="B7" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(RateHelpersSelected)</f>
         <v/>
       </c>
-      <c r="D7" s="50" t="str">
+      <c r="D7" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H4Y</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="49">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="F7" s="51">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F7" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="38">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41687</v>
-      </c>
-      <c r="H7" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H7" s="59">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>43150</v>
-      </c>
-      <c r="I7" s="47">
-        <v>0.95577473306908634</v>
-      </c>
-      <c r="J7" s="52"/>
+        <v>43199</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0.93615161262563329</v>
+      </c>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8" s="50" t="str">
+      <c r="D8" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H5Y</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="49">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="F8" s="51">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F8" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
         <v>0</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="38">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41687</v>
-      </c>
-      <c r="H8" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H8" s="59">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>43514</v>
-      </c>
-      <c r="I8" s="47">
-        <v>0.92627131018215381</v>
-      </c>
-      <c r="J8" s="52"/>
+        <v>43563</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.9048333270086647</v>
+      </c>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9" s="50" t="str">
+      <c r="D9" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H7Y</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="49">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.0999999999999998E-2</v>
-      </c>
-      <c r="F9" s="51">
+        <v>2.4400000000000005E-2</v>
+      </c>
+      <c r="F9" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
         <v>0</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="38">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41687</v>
-      </c>
-      <c r="H9" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H9" s="59">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>44244</v>
-      </c>
-      <c r="I9" s="47">
-        <v>0.86012855118677822</v>
-      </c>
-      <c r="J9" s="52"/>
+        <v>44293</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0.83977056778195291</v>
+      </c>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="50" t="str">
+      <c r="D10" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H10Y</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="49">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.63E-2</v>
-      </c>
-      <c r="F10" s="51">
+        <v>2.8499999999999998E-2</v>
+      </c>
+      <c r="F10" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="38">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41687</v>
-      </c>
-      <c r="H10" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H10" s="59">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>45341</v>
-      </c>
-      <c r="I10" s="47">
-        <v>0.7611431066121358</v>
-      </c>
-      <c r="J10" s="52"/>
+        <v>45390</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0.74534959148525493</v>
+      </c>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="50" t="str">
+      <c r="D11" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H12Y</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="49">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.8200000000000003E-2</v>
-      </c>
-      <c r="F11" s="51">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="F11" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41687</v>
-      </c>
-      <c r="H11" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H11" s="59">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>46070</v>
-      </c>
-      <c r="I11" s="47">
-        <v>0.70290577559187029</v>
-      </c>
-      <c r="J11" s="52"/>
+        <v>46119</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0.68822028033373861</v>
+      </c>
+      <c r="J11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="50" t="str">
+      <c r="D12" s="48" t="str">
         <v>HKD_YCSTDRH_QM3H15Y</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="49">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.9500000000000002E-2</v>
-      </c>
-      <c r="F12" s="51">
+        <v>3.0899999999999997E-2</v>
+      </c>
+      <c r="F12" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="38">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41687</v>
-      </c>
-      <c r="H12" s="61">
+        <v>41736</v>
+      </c>
+      <c r="H12" s="59">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>47168</v>
-      </c>
-      <c r="I12" s="47">
-        <v>0.63042303260485588</v>
-      </c>
-      <c r="J12" s="52"/>
+        <v>47217</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0.61954591689836669</v>
+      </c>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="51" t="e">
+      <c r="D13" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="49" t="e">
         <f>_xll.qlRateHelperRate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="40" t="e">
+      <c r="G13" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H13" s="61" t="e">
+      <c r="H13" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I13" s="47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J13" s="52"/>
+      <c r="I13" s="45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D14" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="51" t="e">
+      <c r="D14" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="49" t="e">
         <f>_xll.qlRateHelperRate($D14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="40" t="e">
+      <c r="G14" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H14" s="61" t="e">
+      <c r="H14" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="47" t="e">
+      <c r="I14" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="51" t="e">
+      <c r="D15" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="49" t="e">
         <f>_xll.qlRateHelperRate($D15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
         <v>0</v>
       </c>
-      <c r="G15" s="40" t="e">
+      <c r="G15" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H15" s="61" t="e">
+      <c r="H15" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="47" t="e">
+      <c r="I15" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="51" t="e">
+      <c r="D16" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="49" t="e">
         <f>_xll.qlRateHelperRate($D16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
         <v>0</v>
       </c>
-      <c r="G16" s="40" t="e">
+      <c r="G16" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H16" s="61" t="e">
+      <c r="H16" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I16" s="47" t="e">
+      <c r="I16" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="51" t="e">
+      <c r="D17" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="49" t="e">
         <f>_xll.qlRateHelperRate($D17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
         <v>0</v>
       </c>
-      <c r="G17" s="40" t="e">
+      <c r="G17" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="61" t="e">
+      <c r="H17" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="47" t="e">
+      <c r="I17" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="51" t="e">
+      <c r="D18" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="49" t="e">
         <f>_xll.qlRateHelperRate($D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="40" t="e">
+      <c r="G18" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H18" s="61" t="e">
+      <c r="H18" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="47" t="e">
+      <c r="I18" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="51" t="e">
+      <c r="D19" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="49" t="e">
         <f>_xll.qlRateHelperRate($D19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
         <v>0</v>
       </c>
-      <c r="G19" s="40" t="e">
+      <c r="G19" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H19" s="61" t="e">
+      <c r="H19" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I19" s="47" t="e">
+      <c r="I19" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D20" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="51" t="e">
+      <c r="D20" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="49" t="e">
         <f>_xll.qlRateHelperRate($D20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
         <v>0</v>
       </c>
-      <c r="G20" s="40" t="e">
+      <c r="G20" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H20" s="61" t="e">
+      <c r="H20" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I20" s="47" t="e">
+      <c r="I20" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D21" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" s="51" t="e">
+      <c r="D21" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="49" t="e">
         <f>_xll.qlRateHelperRate($D21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
         <v>0</v>
       </c>
-      <c r="G21" s="40" t="e">
+      <c r="G21" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="61" t="e">
+      <c r="H21" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I21" s="47" t="e">
+      <c r="I21" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="51" t="e">
+      <c r="D22" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="49" t="e">
         <f>_xll.qlRateHelperRate($D22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
         <v>0</v>
       </c>
-      <c r="G22" s="40" t="e">
+      <c r="G22" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H22" s="61" t="e">
+      <c r="H22" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I22" s="47" t="e">
+      <c r="I22" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D23" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="51" t="e">
+      <c r="D23" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="49" t="e">
         <f>_xll.qlRateHelperRate($D23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F23" s="51">
+      <c r="F23" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="40" t="e">
+      <c r="G23" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H23" s="61" t="e">
+      <c r="H23" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I23" s="47" t="e">
+      <c r="I23" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D24" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="51" t="e">
+      <c r="D24" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="49" t="e">
         <f>_xll.qlRateHelperRate($D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F24" s="51">
+      <c r="F24" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
         <v>0</v>
       </c>
-      <c r="G24" s="40" t="e">
+      <c r="G24" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H24" s="61" t="e">
+      <c r="H24" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I24" s="47" t="e">
+      <c r="I24" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" s="51" t="e">
+      <c r="D25" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="49" t="e">
         <f>_xll.qlRateHelperRate($D25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F25" s="51">
+      <c r="F25" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="40" t="e">
+      <c r="G25" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H25" s="61" t="e">
+      <c r="H25" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I25" s="47" t="e">
+      <c r="I25" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D26" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" s="51" t="e">
+      <c r="D26" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="49" t="e">
         <f>_xll.qlRateHelperRate($D26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="40" t="e">
+      <c r="G26" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H26" s="61" t="e">
+      <c r="H26" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I26" s="47" t="e">
+      <c r="I26" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D27" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="51" t="e">
+      <c r="D27" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="49" t="e">
         <f>_xll.qlRateHelperRate($D27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
         <v>0</v>
       </c>
-      <c r="G27" s="40" t="e">
+      <c r="G27" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="61" t="e">
+      <c r="H27" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I27" s="47" t="e">
+      <c r="I27" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="51" t="e">
+      <c r="D28" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" s="49" t="e">
         <f>_xll.qlRateHelperRate($D28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F28" s="51">
+      <c r="F28" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
         <v>0</v>
       </c>
-      <c r="G28" s="40" t="e">
+      <c r="G28" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H28" s="61" t="e">
+      <c r="H28" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I28" s="47" t="e">
+      <c r="I28" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D29" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="51" t="e">
+      <c r="D29" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" s="49" t="e">
         <f>_xll.qlRateHelperRate($D29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="40" t="e">
+      <c r="G29" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H29" s="61" t="e">
+      <c r="H29" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I29" s="47" t="e">
+      <c r="I29" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D30" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="51" t="e">
+      <c r="D30" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" s="49" t="e">
         <f>_xll.qlRateHelperRate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="40" t="e">
+      <c r="G30" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H30" s="61" t="e">
+      <c r="H30" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="47" t="e">
+      <c r="I30" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" s="51" t="e">
+      <c r="D31" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" s="49" t="e">
         <f>_xll.qlRateHelperRate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="40" t="e">
+      <c r="G31" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H31" s="61" t="e">
+      <c r="H31" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="47" t="e">
+      <c r="I31" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D32" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" s="51" t="e">
+      <c r="D32" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" s="49" t="e">
         <f>_xll.qlRateHelperRate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="40" t="e">
+      <c r="G32" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H32" s="61" t="e">
+      <c r="H32" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="47" t="e">
+      <c r="I32" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" s="51" t="e">
+      <c r="D33" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" s="49" t="e">
         <f>_xll.qlRateHelperRate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
         <v>0</v>
       </c>
-      <c r="G33" s="40" t="e">
+      <c r="G33" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H33" s="61" t="e">
+      <c r="H33" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="47" t="e">
+      <c r="I33" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" s="51" t="e">
+      <c r="D34" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" s="49" t="e">
         <f>_xll.qlRateHelperRate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="40" t="e">
+      <c r="G34" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H34" s="61" t="e">
+      <c r="H34" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I34" s="47" t="e">
+      <c r="I34" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" s="51" t="e">
+      <c r="D35" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E35" s="49" t="e">
         <f>_xll.qlRateHelperRate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="40" t="e">
+      <c r="G35" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H35" s="61" t="e">
+      <c r="H35" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I35" s="47" t="e">
+      <c r="I35" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" s="51" t="e">
+      <c r="D36" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="49" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F36" s="51">
+      <c r="F36" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="40" t="e">
+      <c r="G36" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H36" s="61" t="e">
+      <c r="H36" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I36" s="47" t="e">
+      <c r="I36" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="51" t="e">
+      <c r="D37" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E37" s="49" t="e">
         <f>_xll.qlRateHelperRate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F37" s="51">
+      <c r="F37" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D37)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D37)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D37)),_xll.qlSwapRateHelperSpread($D37))</f>
         <v>0</v>
       </c>
-      <c r="G37" s="40" t="e">
+      <c r="G37" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H37" s="61" t="e">
+      <c r="H37" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D37)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I37" s="47" t="e">
+      <c r="I37" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="51" t="e">
+      <c r="D38" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="49" t="e">
         <f>_xll.qlRateHelperRate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D38)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D38)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D38)),_xll.qlSwapRateHelperSpread($D38))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="40" t="e">
+      <c r="G38" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H38" s="61" t="e">
+      <c r="H38" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D38)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I38" s="47" t="e">
+      <c r="I38" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" s="51" t="e">
+      <c r="D39" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E39" s="49" t="e">
         <f>_xll.qlRateHelperRate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F39" s="51">
+      <c r="F39" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D39)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D39)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D39)),_xll.qlSwapRateHelperSpread($D39))</f>
         <v>0</v>
       </c>
-      <c r="G39" s="40" t="e">
+      <c r="G39" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H39" s="61" t="e">
+      <c r="H39" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D39)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I39" s="47" t="e">
+      <c r="I39" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="51" t="e">
+      <c r="D40" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E40" s="49" t="e">
         <f>_xll.qlRateHelperRate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F40" s="51">
+      <c r="F40" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D40)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D40)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D40)),_xll.qlSwapRateHelperSpread($D40))</f>
         <v>0</v>
       </c>
-      <c r="G40" s="40" t="e">
+      <c r="G40" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H40" s="61" t="e">
+      <c r="H40" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D40)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I40" s="47" t="e">
+      <c r="I40" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" s="51" t="e">
+      <c r="D41" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E41" s="49" t="e">
         <f>_xll.qlRateHelperRate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D41)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D41)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D41)),_xll.qlSwapRateHelperSpread($D41))</f>
         <v>0</v>
       </c>
-      <c r="G41" s="40" t="e">
+      <c r="G41" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H41" s="61" t="e">
+      <c r="H41" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D41)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I41" s="47" t="e">
+      <c r="I41" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" s="51" t="e">
+      <c r="D42" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E42" s="49" t="e">
         <f>_xll.qlRateHelperRate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F42" s="51">
+      <c r="F42" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D42)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D42)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D42)),_xll.qlSwapRateHelperSpread($D42))</f>
         <v>0</v>
       </c>
-      <c r="G42" s="40" t="e">
+      <c r="G42" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H42" s="61" t="e">
+      <c r="H42" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D42)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="47" t="e">
+      <c r="I42" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" s="51" t="e">
+      <c r="D43" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E43" s="49" t="e">
         <f>_xll.qlRateHelperRate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F43" s="51">
+      <c r="F43" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D43)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D43)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D43)),_xll.qlSwapRateHelperSpread($D43))</f>
         <v>0</v>
       </c>
-      <c r="G43" s="40" t="e">
+      <c r="G43" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H43" s="61" t="e">
+      <c r="H43" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D43)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I43" s="47" t="e">
+      <c r="I43" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" s="51" t="e">
+      <c r="D44" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E44" s="49" t="e">
         <f>_xll.qlRateHelperRate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D44)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D44)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D44)),_xll.qlSwapRateHelperSpread($D44))</f>
         <v>0</v>
       </c>
-      <c r="G44" s="40" t="e">
+      <c r="G44" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H44" s="61" t="e">
+      <c r="H44" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D44)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="47" t="e">
+      <c r="I44" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" s="51" t="e">
+      <c r="D45" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E45" s="49" t="e">
         <f>_xll.qlRateHelperRate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D45)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D45)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D45)),_xll.qlSwapRateHelperSpread($D45))</f>
         <v>0</v>
       </c>
-      <c r="G45" s="40" t="e">
+      <c r="G45" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H45" s="61" t="e">
+      <c r="H45" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D45)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I45" s="47" t="e">
+      <c r="I45" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" s="51" t="e">
+      <c r="D46" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E46" s="49" t="e">
         <f>_xll.qlRateHelperRate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D46)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D46)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D46)),_xll.qlSwapRateHelperSpread($D46))</f>
         <v>0</v>
       </c>
-      <c r="G46" s="40" t="e">
+      <c r="G46" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H46" s="61" t="e">
+      <c r="H46" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D46)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I46" s="47" t="e">
+      <c r="I46" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" s="51" t="e">
+      <c r="D47" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E47" s="49" t="e">
         <f>_xll.qlRateHelperRate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D47)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D47)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D47)),_xll.qlSwapRateHelperSpread($D47))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="40" t="e">
+      <c r="G47" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H47" s="61" t="e">
+      <c r="H47" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D47)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I47" s="47" t="e">
+      <c r="I47" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" s="51" t="e">
+      <c r="D48" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E48" s="49" t="e">
         <f>_xll.qlRateHelperRate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F48" s="51">
+      <c r="F48" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D48)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D48)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D48)),_xll.qlSwapRateHelperSpread($D48))</f>
         <v>0</v>
       </c>
-      <c r="G48" s="40" t="e">
+      <c r="G48" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H48" s="61" t="e">
+      <c r="H48" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D48)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I48" s="47" t="e">
+      <c r="I48" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" s="51" t="e">
+      <c r="D49" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E49" s="49" t="e">
         <f>_xll.qlRateHelperRate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F49" s="51">
+      <c r="F49" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D49)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D49)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D49)),_xll.qlSwapRateHelperSpread($D49))</f>
         <v>0</v>
       </c>
-      <c r="G49" s="40" t="e">
+      <c r="G49" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H49" s="61" t="e">
+      <c r="H49" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D49)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I49" s="47" t="e">
+      <c r="I49" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" s="51" t="e">
+      <c r="D50" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E50" s="49" t="e">
         <f>_xll.qlRateHelperRate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D50)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D50)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D50)),_xll.qlSwapRateHelperSpread($D50))</f>
         <v>0</v>
       </c>
-      <c r="G50" s="40" t="e">
+      <c r="G50" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H50" s="61" t="e">
+      <c r="H50" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D50)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I50" s="47" t="e">
+      <c r="I50" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" s="51" t="e">
+      <c r="D51" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E51" s="49" t="e">
         <f>_xll.qlRateHelperRate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="51">
+      <c r="F51" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D51)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D51)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D51)),_xll.qlSwapRateHelperSpread($D51))</f>
         <v>0</v>
       </c>
-      <c r="G51" s="40" t="e">
+      <c r="G51" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H51" s="61" t="e">
+      <c r="H51" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I51" s="47" t="e">
+      <c r="I51" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" s="51" t="e">
+      <c r="D52" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E52" s="49" t="e">
         <f>_xll.qlRateHelperRate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F52" s="51">
+      <c r="F52" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D52)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D52)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D52)),_xll.qlSwapRateHelperSpread($D52))</f>
         <v>0</v>
       </c>
-      <c r="G52" s="40" t="e">
+      <c r="G52" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H52" s="61" t="e">
+      <c r="H52" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D52)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I52" s="47" t="e">
+      <c r="I52" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" s="51" t="e">
+      <c r="D53" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E53" s="49" t="e">
         <f>_xll.qlRateHelperRate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="51">
+      <c r="F53" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D53)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D53)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D53)),_xll.qlSwapRateHelperSpread($D53))</f>
         <v>0</v>
       </c>
-      <c r="G53" s="40" t="e">
+      <c r="G53" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="61" t="e">
+      <c r="H53" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D53)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I53" s="47" t="e">
+      <c r="I53" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="51" t="e">
+      <c r="D54" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="49" t="e">
         <f>_xll.qlRateHelperRate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="51">
+      <c r="F54" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D54)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D54)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D54)),_xll.qlSwapRateHelperSpread($D54))</f>
         <v>0</v>
       </c>
-      <c r="G54" s="40" t="e">
+      <c r="G54" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H54" s="61" t="e">
+      <c r="H54" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D54)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I54" s="47" t="e">
+      <c r="I54" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" s="51" t="e">
+      <c r="D55" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E55" s="49" t="e">
         <f>_xll.qlRateHelperRate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F55" s="51">
+      <c r="F55" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D55)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D55)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D55)),_xll.qlSwapRateHelperSpread($D55))</f>
         <v>0</v>
       </c>
-      <c r="G55" s="40" t="e">
+      <c r="G55" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H55" s="61" t="e">
+      <c r="H55" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D55)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I55" s="47" t="e">
+      <c r="I55" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" s="51" t="e">
+      <c r="D56" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E56" s="49" t="e">
         <f>_xll.qlRateHelperRate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D56)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D56)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D56)),_xll.qlSwapRateHelperSpread($D56))</f>
         <v>0</v>
       </c>
-      <c r="G56" s="40" t="e">
+      <c r="G56" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H56" s="61" t="e">
+      <c r="H56" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D56)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I56" s="47" t="e">
+      <c r="I56" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D57" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" s="51" t="e">
+      <c r="D57" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E57" s="49" t="e">
         <f>_xll.qlRateHelperRate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F57" s="51">
+      <c r="F57" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D57)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D57)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D57)),_xll.qlSwapRateHelperSpread($D57))</f>
         <v>0</v>
       </c>
-      <c r="G57" s="40" t="e">
+      <c r="G57" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H57" s="61" t="e">
+      <c r="H57" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D57)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I57" s="47" t="e">
+      <c r="I57" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D58" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" s="51" t="e">
+      <c r="D58" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E58" s="49" t="e">
         <f>_xll.qlRateHelperRate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="51">
+      <c r="F58" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D58)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D58)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D58)),_xll.qlSwapRateHelperSpread($D58))</f>
         <v>0</v>
       </c>
-      <c r="G58" s="40" t="e">
+      <c r="G58" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="61" t="e">
+      <c r="H58" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D58)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I58" s="47" t="e">
+      <c r="I58" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D59" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" s="51" t="e">
+      <c r="D59" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E59" s="49" t="e">
         <f>_xll.qlRateHelperRate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="51">
+      <c r="F59" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D59)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D59)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D59)),_xll.qlSwapRateHelperSpread($D59))</f>
         <v>0</v>
       </c>
-      <c r="G59" s="40" t="e">
+      <c r="G59" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="61" t="e">
+      <c r="H59" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D59)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I59" s="47" t="e">
+      <c r="I59" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D60" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" s="51" t="e">
+      <c r="D60" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E60" s="49" t="e">
         <f>_xll.qlRateHelperRate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F60" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D60)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D60)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D60)),_xll.qlSwapRateHelperSpread($D60))</f>
         <v>0</v>
       </c>
-      <c r="G60" s="40" t="e">
+      <c r="G60" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H60" s="61" t="e">
+      <c r="H60" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I60" s="47" t="e">
+      <c r="I60" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D61" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E61" s="51" t="e">
+      <c r="D61" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E61" s="49" t="e">
         <f>_xll.qlRateHelperRate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D61)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D61)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D61)),_xll.qlSwapRateHelperSpread($D61))</f>
         <v>0</v>
       </c>
-      <c r="G61" s="40" t="e">
+      <c r="G61" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H61" s="61" t="e">
+      <c r="H61" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D61)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I61" s="47" t="e">
+      <c r="I61" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D62" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E62" s="51" t="e">
+      <c r="D62" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E62" s="49" t="e">
         <f>_xll.qlRateHelperRate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F62" s="51">
+      <c r="F62" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D62)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D62)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D62)),_xll.qlSwapRateHelperSpread($D62))</f>
         <v>0</v>
       </c>
-      <c r="G62" s="40" t="e">
+      <c r="G62" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H62" s="61" t="e">
+      <c r="H62" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D62)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I62" s="47" t="e">
+      <c r="I62" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D63" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E63" s="51" t="e">
+      <c r="D63" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E63" s="49" t="e">
         <f>_xll.qlRateHelperRate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D63)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D63)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D63)),_xll.qlSwapRateHelperSpread($D63))</f>
         <v>0</v>
       </c>
-      <c r="G63" s="40" t="e">
+      <c r="G63" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H63" s="61" t="e">
+      <c r="H63" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D63)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I63" s="47" t="e">
+      <c r="I63" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D64" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E64" s="51" t="e">
+      <c r="D64" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E64" s="49" t="e">
         <f>_xll.qlRateHelperRate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F64" s="51">
+      <c r="F64" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D64)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D64)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D64)),_xll.qlSwapRateHelperSpread($D64))</f>
         <v>0</v>
       </c>
-      <c r="G64" s="40" t="e">
+      <c r="G64" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H64" s="61" t="e">
+      <c r="H64" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D64)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I64" s="47" t="e">
+      <c r="I64" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D65" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E65" s="51" t="e">
+      <c r="D65" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E65" s="49" t="e">
         <f>_xll.qlRateHelperRate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F65" s="51">
+      <c r="F65" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D65)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D65)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D65)),_xll.qlSwapRateHelperSpread($D65))</f>
         <v>0</v>
       </c>
-      <c r="G65" s="40" t="e">
+      <c r="G65" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H65" s="61" t="e">
+      <c r="H65" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D65)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I65" s="47" t="e">
+      <c r="I65" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D66" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E66" s="51" t="e">
+      <c r="D66" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E66" s="49" t="e">
         <f>_xll.qlRateHelperRate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F66" s="51">
+      <c r="F66" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D66)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D66)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D66)),_xll.qlSwapRateHelperSpread($D66))</f>
         <v>0</v>
       </c>
-      <c r="G66" s="40" t="e">
+      <c r="G66" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H66" s="61" t="e">
+      <c r="H66" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D66)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I66" s="47" t="e">
+      <c r="I66" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D67" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E67" s="51" t="e">
+      <c r="D67" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E67" s="49" t="e">
         <f>_xll.qlRateHelperRate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F67" s="51">
+      <c r="F67" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D67)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D67)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D67)),_xll.qlSwapRateHelperSpread($D67))</f>
         <v>0</v>
       </c>
-      <c r="G67" s="40" t="e">
+      <c r="G67" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H67" s="61" t="e">
+      <c r="H67" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D67)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I67" s="47" t="e">
+      <c r="I67" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D68" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E68" s="51" t="e">
+      <c r="D68" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E68" s="49" t="e">
         <f>_xll.qlRateHelperRate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F68" s="51">
+      <c r="F68" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D68)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D68)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D68)),_xll.qlSwapRateHelperSpread($D68))</f>
         <v>0</v>
       </c>
-      <c r="G68" s="40" t="e">
+      <c r="G68" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H68" s="61" t="e">
+      <c r="H68" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D68)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I68" s="47" t="e">
+      <c r="I68" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D69" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E69" s="51" t="e">
+      <c r="D69" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E69" s="49" t="e">
         <f>_xll.qlRateHelperRate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F69" s="51">
+      <c r="F69" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D69)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D69)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D69)),_xll.qlSwapRateHelperSpread($D69))</f>
         <v>0</v>
       </c>
-      <c r="G69" s="40" t="e">
+      <c r="G69" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H69" s="61" t="e">
+      <c r="H69" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D69)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I69" s="47" t="e">
+      <c r="I69" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D70" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E70" s="51" t="e">
+      <c r="D70" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E70" s="49" t="e">
         <f>_xll.qlRateHelperRate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F70" s="51">
+      <c r="F70" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D70)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D70)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D70)),_xll.qlSwapRateHelperSpread($D70))</f>
         <v>0</v>
       </c>
-      <c r="G70" s="40" t="e">
+      <c r="G70" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H70" s="61" t="e">
+      <c r="H70" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D70)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I70" s="47" t="e">
+      <c r="I70" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D71" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E71" s="51" t="e">
+      <c r="D71" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E71" s="49" t="e">
         <f>_xll.qlRateHelperRate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F71" s="51">
+      <c r="F71" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D71)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D71)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D71)),_xll.qlSwapRateHelperSpread($D71))</f>
         <v>0</v>
       </c>
-      <c r="G71" s="40" t="e">
+      <c r="G71" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H71" s="61" t="e">
+      <c r="H71" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D71)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I71" s="47" t="e">
+      <c r="I71" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D72" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E72" s="51" t="e">
+      <c r="D72" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E72" s="49" t="e">
         <f>_xll.qlRateHelperRate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F72" s="51">
+      <c r="F72" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D72)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D72)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D72)),_xll.qlSwapRateHelperSpread($D72))</f>
         <v>0</v>
       </c>
-      <c r="G72" s="40" t="e">
+      <c r="G72" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H72" s="61" t="e">
+      <c r="H72" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D72)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I72" s="47" t="e">
+      <c r="I72" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D73" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E73" s="51" t="e">
+      <c r="D73" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E73" s="49" t="e">
         <f>_xll.qlRateHelperRate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F73" s="51">
+      <c r="F73" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D73)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D73)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D73)),_xll.qlSwapRateHelperSpread($D73))</f>
         <v>0</v>
       </c>
-      <c r="G73" s="40" t="e">
+      <c r="G73" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H73" s="61" t="e">
+      <c r="H73" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D73)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I73" s="47" t="e">
+      <c r="I73" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D74" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E74" s="51" t="e">
+      <c r="D74" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E74" s="49" t="e">
         <f>_xll.qlRateHelperRate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F74" s="51">
+      <c r="F74" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D74)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D74)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D74)),_xll.qlSwapRateHelperSpread($D74))</f>
         <v>0</v>
       </c>
-      <c r="G74" s="40" t="e">
+      <c r="G74" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H74" s="61" t="e">
+      <c r="H74" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D74)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I74" s="47" t="e">
+      <c r="I74" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D75" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E75" s="51" t="e">
+      <c r="D75" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E75" s="49" t="e">
         <f>_xll.qlRateHelperRate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F75" s="51">
+      <c r="F75" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D75)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D75)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D75)),_xll.qlSwapRateHelperSpread($D75))</f>
         <v>0</v>
       </c>
-      <c r="G75" s="40" t="e">
+      <c r="G75" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H75" s="61" t="e">
+      <c r="H75" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D75)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I75" s="47" t="e">
+      <c r="I75" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D76" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E76" s="51" t="e">
+      <c r="D76" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E76" s="49" t="e">
         <f>_xll.qlRateHelperRate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F76" s="51">
+      <c r="F76" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D76)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D76)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D76)),_xll.qlSwapRateHelperSpread($D76))</f>
         <v>0</v>
       </c>
-      <c r="G76" s="40" t="e">
+      <c r="G76" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H76" s="61" t="e">
+      <c r="H76" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D76)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I76" s="47" t="e">
+      <c r="I76" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D77" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E77" s="51" t="e">
+      <c r="D77" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E77" s="49" t="e">
         <f>_xll.qlRateHelperRate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F77" s="51">
+      <c r="F77" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D77)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D77)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D77)),_xll.qlSwapRateHelperSpread($D77))</f>
         <v>0</v>
       </c>
-      <c r="G77" s="40" t="e">
+      <c r="G77" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H77" s="61" t="e">
+      <c r="H77" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D77)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I77" s="47" t="e">
+      <c r="I77" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D78" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E78" s="51" t="e">
+      <c r="D78" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E78" s="49" t="e">
         <f>_xll.qlRateHelperRate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F78" s="51">
+      <c r="F78" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D78)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D78)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D78)),_xll.qlSwapRateHelperSpread($D78))</f>
         <v>0</v>
       </c>
-      <c r="G78" s="40" t="e">
+      <c r="G78" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H78" s="61" t="e">
+      <c r="H78" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D78)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I78" s="47" t="e">
+      <c r="I78" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D79" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E79" s="51" t="e">
+      <c r="D79" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E79" s="49" t="e">
         <f>_xll.qlRateHelperRate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F79" s="51">
+      <c r="F79" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D79)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D79)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D79)),_xll.qlSwapRateHelperSpread($D79))</f>
         <v>0</v>
       </c>
-      <c r="G79" s="40" t="e">
+      <c r="G79" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H79" s="61" t="e">
+      <c r="H79" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D79)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I79" s="47" t="e">
+      <c r="I79" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D80" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E80" s="51" t="e">
+      <c r="D80" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E80" s="49" t="e">
         <f>_xll.qlRateHelperRate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="51">
+      <c r="F80" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D80)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D80)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D80)),_xll.qlSwapRateHelperSpread($D80))</f>
         <v>0</v>
       </c>
-      <c r="G80" s="40" t="e">
+      <c r="G80" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="61" t="e">
+      <c r="H80" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D80)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="47" t="e">
+      <c r="I80" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D81" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E81" s="51" t="e">
+      <c r="D81" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="49" t="e">
         <f>_xll.qlRateHelperRate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F81" s="51">
+      <c r="F81" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D81)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D81)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D81)),_xll.qlSwapRateHelperSpread($D81))</f>
         <v>0</v>
       </c>
-      <c r="G81" s="40" t="e">
+      <c r="G81" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H81" s="61" t="e">
+      <c r="H81" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D81)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I81" s="47" t="e">
+      <c r="I81" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D82" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E82" s="51" t="e">
+      <c r="D82" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="49" t="e">
         <f>_xll.qlRateHelperRate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F82" s="51">
+      <c r="F82" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D82)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D82)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D82)),_xll.qlSwapRateHelperSpread($D82))</f>
         <v>0</v>
       </c>
-      <c r="G82" s="40" t="e">
+      <c r="G82" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H82" s="61" t="e">
+      <c r="H82" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D82)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I82" s="47" t="e">
+      <c r="I82" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D83" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E83" s="51" t="e">
+      <c r="D83" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="49" t="e">
         <f>_xll.qlRateHelperRate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F83" s="51">
+      <c r="F83" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D83)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D83)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D83)),_xll.qlSwapRateHelperSpread($D83))</f>
         <v>0</v>
       </c>
-      <c r="G83" s="40" t="e">
+      <c r="G83" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H83" s="61" t="e">
+      <c r="H83" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D83)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I83" s="47" t="e">
+      <c r="I83" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D84" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E84" s="51" t="e">
+      <c r="D84" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E84" s="49" t="e">
         <f>_xll.qlRateHelperRate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F84" s="51">
+      <c r="F84" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D84)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D84)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D84)),_xll.qlSwapRateHelperSpread($D84))</f>
         <v>0</v>
       </c>
-      <c r="G84" s="40" t="e">
+      <c r="G84" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H84" s="61" t="e">
+      <c r="H84" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D84)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="47" t="e">
+      <c r="I84" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D85" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E85" s="51" t="e">
+      <c r="D85" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E85" s="49" t="e">
         <f>_xll.qlRateHelperRate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F85" s="51">
+      <c r="F85" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D85)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D85)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D85)),_xll.qlSwapRateHelperSpread($D85))</f>
         <v>0</v>
       </c>
-      <c r="G85" s="40" t="e">
+      <c r="G85" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H85" s="61" t="e">
+      <c r="H85" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D85)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I85" s="47" t="e">
+      <c r="I85" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D86" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E86" s="51" t="e">
+      <c r="D86" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E86" s="49" t="e">
         <f>_xll.qlRateHelperRate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F86" s="51">
+      <c r="F86" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D86)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D86)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D86)),_xll.qlSwapRateHelperSpread($D86))</f>
         <v>0</v>
       </c>
-      <c r="G86" s="40" t="e">
+      <c r="G86" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H86" s="61" t="e">
+      <c r="H86" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D86)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I86" s="47" t="e">
+      <c r="I86" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E87" s="51" t="e">
+      <c r="D87" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E87" s="49" t="e">
         <f>_xll.qlRateHelperRate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F87" s="51">
+      <c r="F87" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D87)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D87)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D87)),_xll.qlSwapRateHelperSpread($D87))</f>
         <v>0</v>
       </c>
-      <c r="G87" s="40" t="e">
+      <c r="G87" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H87" s="61" t="e">
+      <c r="H87" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D87)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I87" s="47" t="e">
+      <c r="I87" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D88" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E88" s="51" t="e">
+      <c r="D88" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E88" s="49" t="e">
         <f>_xll.qlRateHelperRate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F88" s="51">
+      <c r="F88" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D88)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D88)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D88)),_xll.qlSwapRateHelperSpread($D88))</f>
         <v>0</v>
       </c>
-      <c r="G88" s="40" t="e">
+      <c r="G88" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H88" s="61" t="e">
+      <c r="H88" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D88)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I88" s="47" t="e">
+      <c r="I88" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D89" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E89" s="51" t="e">
+      <c r="D89" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E89" s="49" t="e">
         <f>_xll.qlRateHelperRate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F89" s="51">
+      <c r="F89" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D89)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D89)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D89)),_xll.qlSwapRateHelperSpread($D89))</f>
         <v>0</v>
       </c>
-      <c r="G89" s="40" t="e">
+      <c r="G89" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H89" s="61" t="e">
+      <c r="H89" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D89)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I89" s="47" t="e">
+      <c r="I89" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D90" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E90" s="51" t="e">
+      <c r="D90" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E90" s="49" t="e">
         <f>_xll.qlRateHelperRate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F90" s="51">
+      <c r="F90" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D90)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D90)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D90)),_xll.qlSwapRateHelperSpread($D90))</f>
         <v>0</v>
       </c>
-      <c r="G90" s="40" t="e">
+      <c r="G90" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H90" s="61" t="e">
+      <c r="H90" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I90" s="47" t="e">
+      <c r="I90" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D91" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E91" s="51" t="e">
+      <c r="D91" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E91" s="49" t="e">
         <f>_xll.qlRateHelperRate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F91" s="51">
+      <c r="F91" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D91)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D91)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D91)),_xll.qlSwapRateHelperSpread($D91))</f>
         <v>0</v>
       </c>
-      <c r="G91" s="40" t="e">
+      <c r="G91" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H91" s="61" t="e">
+      <c r="H91" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D91)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I91" s="47" t="e">
+      <c r="I91" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D92" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E92" s="51" t="e">
+      <c r="D92" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E92" s="49" t="e">
         <f>_xll.qlRateHelperRate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F92" s="51">
+      <c r="F92" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D92)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D92)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D92)),_xll.qlSwapRateHelperSpread($D92))</f>
         <v>0</v>
       </c>
-      <c r="G92" s="40" t="e">
+      <c r="G92" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H92" s="61" t="e">
+      <c r="H92" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D92)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I92" s="47" t="e">
+      <c r="I92" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D93" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E93" s="51" t="e">
+      <c r="D93" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E93" s="49" t="e">
         <f>_xll.qlRateHelperRate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F93" s="51">
+      <c r="F93" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D93)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D93)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D93)),_xll.qlSwapRateHelperSpread($D93))</f>
         <v>0</v>
       </c>
-      <c r="G93" s="40" t="e">
+      <c r="G93" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H93" s="61" t="e">
+      <c r="H93" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D93)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I93" s="47" t="e">
+      <c r="I93" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D94" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E94" s="51" t="e">
+      <c r="D94" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E94" s="49" t="e">
         <f>_xll.qlRateHelperRate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F94" s="51">
+      <c r="F94" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D94)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D94)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D94)),_xll.qlSwapRateHelperSpread($D94))</f>
         <v>0</v>
       </c>
-      <c r="G94" s="40" t="e">
+      <c r="G94" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H94" s="61" t="e">
+      <c r="H94" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D94)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I94" s="47" t="e">
+      <c r="I94" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D95" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E95" s="51" t="e">
+      <c r="D95" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E95" s="49" t="e">
         <f>_xll.qlRateHelperRate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F95" s="51">
+      <c r="F95" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D95)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D95)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D95)),_xll.qlSwapRateHelperSpread($D95))</f>
         <v>0</v>
       </c>
-      <c r="G95" s="40" t="e">
+      <c r="G95" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H95" s="61" t="e">
+      <c r="H95" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D95)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I95" s="47" t="e">
+      <c r="I95" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D96" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E96" s="51" t="e">
+      <c r="D96" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E96" s="49" t="e">
         <f>_xll.qlRateHelperRate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F96" s="51">
+      <c r="F96" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D96)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D96)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D96)),_xll.qlSwapRateHelperSpread($D96))</f>
         <v>0</v>
       </c>
-      <c r="G96" s="40" t="e">
+      <c r="G96" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H96" s="61" t="e">
+      <c r="H96" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D96)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I96" s="47" t="e">
+      <c r="I96" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D97" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E97" s="51" t="e">
+      <c r="D97" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E97" s="49" t="e">
         <f>_xll.qlRateHelperRate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F97" s="51">
+      <c r="F97" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D97)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D97)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D97)),_xll.qlSwapRateHelperSpread($D97))</f>
         <v>0</v>
       </c>
-      <c r="G97" s="40" t="e">
+      <c r="G97" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H97" s="61" t="e">
+      <c r="H97" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D97)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I97" s="47" t="e">
+      <c r="I97" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D98" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E98" s="51" t="e">
+      <c r="D98" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E98" s="49" t="e">
         <f>_xll.qlRateHelperRate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F98" s="51">
+      <c r="F98" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D98)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D98)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D98)),_xll.qlSwapRateHelperSpread($D98))</f>
         <v>0</v>
       </c>
-      <c r="G98" s="40" t="e">
+      <c r="G98" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H98" s="61" t="e">
+      <c r="H98" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D98)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I98" s="47" t="e">
+      <c r="I98" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D99" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E99" s="51" t="e">
+      <c r="D99" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E99" s="49" t="e">
         <f>_xll.qlRateHelperRate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F99" s="51">
+      <c r="F99" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D99)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D99)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D99)),_xll.qlSwapRateHelperSpread($D99))</f>
         <v>0</v>
       </c>
-      <c r="G99" s="40" t="e">
+      <c r="G99" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H99" s="61" t="e">
+      <c r="H99" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D99)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I99" s="47" t="e">
+      <c r="I99" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D100" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E100" s="51" t="e">
+      <c r="D100" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E100" s="49" t="e">
         <f>_xll.qlRateHelperRate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F100" s="51">
+      <c r="F100" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D100)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D100)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D100)),_xll.qlSwapRateHelperSpread($D100))</f>
         <v>0</v>
       </c>
-      <c r="G100" s="40" t="e">
+      <c r="G100" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H100" s="61" t="e">
+      <c r="H100" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I100" s="47" t="e">
+      <c r="I100" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D101" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E101" s="51" t="e">
+      <c r="D101" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E101" s="49" t="e">
         <f>_xll.qlRateHelperRate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F101" s="51">
+      <c r="F101" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D101)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D101)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D101)),_xll.qlSwapRateHelperSpread($D101))</f>
         <v>0</v>
       </c>
-      <c r="G101" s="40" t="e">
+      <c r="G101" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H101" s="61" t="e">
+      <c r="H101" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D101)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I101" s="47" t="e">
+      <c r="I101" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D102" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E102" s="51" t="e">
+      <c r="D102" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E102" s="49" t="e">
         <f>_xll.qlRateHelperRate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F102" s="51">
+      <c r="F102" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D102)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D102)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D102)),_xll.qlSwapRateHelperSpread($D102))</f>
         <v>0</v>
       </c>
-      <c r="G102" s="40" t="e">
+      <c r="G102" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H102" s="61" t="e">
+      <c r="H102" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D102)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I102" s="47" t="e">
+      <c r="I102" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D103" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E103" s="51" t="e">
+      <c r="D103" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E103" s="49" t="e">
         <f>_xll.qlRateHelperRate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F103" s="51">
+      <c r="F103" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D103)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D103)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D103)),_xll.qlSwapRateHelperSpread($D103))</f>
         <v>0</v>
       </c>
-      <c r="G103" s="40" t="e">
+      <c r="G103" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H103" s="61" t="e">
+      <c r="H103" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D103)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I103" s="47" t="e">
+      <c r="I103" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D104" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E104" s="51" t="e">
+      <c r="D104" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E104" s="49" t="e">
         <f>_xll.qlRateHelperRate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F104" s="51">
+      <c r="F104" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D104)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D104)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D104)),_xll.qlSwapRateHelperSpread($D104))</f>
         <v>0</v>
       </c>
-      <c r="G104" s="40" t="e">
+      <c r="G104" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H104" s="61" t="e">
+      <c r="H104" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D104)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I104" s="47" t="e">
+      <c r="I104" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D105" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E105" s="51" t="e">
+      <c r="D105" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E105" s="49" t="e">
         <f>_xll.qlRateHelperRate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F105" s="51">
+      <c r="F105" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D105)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D105)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D105)),_xll.qlSwapRateHelperSpread($D105))</f>
         <v>0</v>
       </c>
-      <c r="G105" s="40" t="e">
+      <c r="G105" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H105" s="61" t="e">
+      <c r="H105" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D105)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I105" s="47" t="e">
+      <c r="I105" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D106" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E106" s="51" t="e">
+      <c r="D106" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E106" s="49" t="e">
         <f>_xll.qlRateHelperRate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F106" s="51">
+      <c r="F106" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D106)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D106)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D106)),_xll.qlSwapRateHelperSpread($D106))</f>
         <v>0</v>
       </c>
-      <c r="G106" s="40" t="e">
+      <c r="G106" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H106" s="61" t="e">
+      <c r="H106" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="47" t="e">
+      <c r="I106" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D107" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E107" s="51" t="e">
+      <c r="D107" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E107" s="49" t="e">
         <f>_xll.qlRateHelperRate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F107" s="51">
+      <c r="F107" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D107)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D107)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D107)),_xll.qlSwapRateHelperSpread($D107))</f>
         <v>0</v>
       </c>
-      <c r="G107" s="40" t="e">
+      <c r="G107" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H107" s="61" t="e">
+      <c r="H107" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="47" t="e">
+      <c r="I107" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D108" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E108" s="51" t="e">
+      <c r="D108" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E108" s="49" t="e">
         <f>_xll.qlRateHelperRate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F108" s="51">
+      <c r="F108" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D108)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D108)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D108)),_xll.qlSwapRateHelperSpread($D108))</f>
         <v>0</v>
       </c>
-      <c r="G108" s="40" t="e">
+      <c r="G108" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H108" s="61" t="e">
+      <c r="H108" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D108)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="47" t="e">
+      <c r="I108" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D109" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E109" s="51" t="e">
+      <c r="D109" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E109" s="49" t="e">
         <f>_xll.qlRateHelperRate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F109" s="51">
+      <c r="F109" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D109)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D109)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D109)),_xll.qlSwapRateHelperSpread($D109))</f>
         <v>0</v>
       </c>
-      <c r="G109" s="40" t="e">
+      <c r="G109" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H109" s="61" t="e">
+      <c r="H109" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D109)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="47" t="e">
+      <c r="I109" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E110" s="51" t="e">
+      <c r="D110" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E110" s="49" t="e">
         <f>_xll.qlRateHelperRate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F110" s="51">
+      <c r="F110" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D110)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D110)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D110)),_xll.qlSwapRateHelperSpread($D110))</f>
         <v>0</v>
       </c>
-      <c r="G110" s="40" t="e">
+      <c r="G110" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H110" s="61" t="e">
+      <c r="H110" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D110)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="47" t="e">
+      <c r="I110" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D111" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="51" t="e">
+      <c r="D111" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="49" t="e">
         <f>_xll.qlRateHelperRate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F111" s="51">
+      <c r="F111" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D111)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D111)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D111)),_xll.qlSwapRateHelperSpread($D111))</f>
         <v>0</v>
       </c>
-      <c r="G111" s="40" t="e">
+      <c r="G111" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H111" s="61" t="e">
+      <c r="H111" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D111)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="47" t="e">
+      <c r="I111" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D112" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E112" s="51" t="e">
+      <c r="D112" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E112" s="49" t="e">
         <f>_xll.qlRateHelperRate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F112" s="51">
+      <c r="F112" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D112)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D112)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D112)),_xll.qlSwapRateHelperSpread($D112))</f>
         <v>0</v>
       </c>
-      <c r="G112" s="40" t="e">
+      <c r="G112" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H112" s="61" t="e">
+      <c r="H112" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D112)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="47" t="e">
+      <c r="I112" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D113" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E113" s="51" t="e">
+      <c r="D113" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E113" s="49" t="e">
         <f>_xll.qlRateHelperRate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F113" s="51">
+      <c r="F113" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D113)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D113)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D113)),_xll.qlSwapRateHelperSpread($D113))</f>
         <v>0</v>
       </c>
-      <c r="G113" s="40" t="e">
+      <c r="G113" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H113" s="61" t="e">
+      <c r="H113" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D113)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="47" t="e">
+      <c r="I113" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D114" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E114" s="51" t="e">
+      <c r="D114" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E114" s="49" t="e">
         <f>_xll.qlRateHelperRate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F114" s="51">
+      <c r="F114" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D114)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D114)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D114)),_xll.qlSwapRateHelperSpread($D114))</f>
         <v>0</v>
       </c>
-      <c r="G114" s="40" t="e">
+      <c r="G114" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H114" s="61" t="e">
+      <c r="H114" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D114)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I114" s="47" t="e">
+      <c r="I114" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D115" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E115" s="51" t="e">
+      <c r="D115" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E115" s="49" t="e">
         <f>_xll.qlRateHelperRate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F115" s="51">
+      <c r="F115" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D115)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D115)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D115)),_xll.qlSwapRateHelperSpread($D115))</f>
         <v>0</v>
       </c>
-      <c r="G115" s="40" t="e">
+      <c r="G115" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H115" s="61" t="e">
+      <c r="H115" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D115)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="47" t="e">
+      <c r="I115" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D116" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E116" s="51" t="e">
+      <c r="D116" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E116" s="49" t="e">
         <f>_xll.qlRateHelperRate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F116" s="51">
+      <c r="F116" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D116)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D116)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D116)),_xll.qlSwapRateHelperSpread($D116))</f>
         <v>0</v>
       </c>
-      <c r="G116" s="40" t="e">
+      <c r="G116" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H116" s="61" t="e">
+      <c r="H116" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D116)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="47" t="e">
+      <c r="I116" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E117" s="51" t="e">
+      <c r="D117" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E117" s="49" t="e">
         <f>_xll.qlRateHelperRate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F117" s="51">
+      <c r="F117" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D117)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D117)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D117)),_xll.qlSwapRateHelperSpread($D117))</f>
         <v>0</v>
       </c>
-      <c r="G117" s="40" t="e">
+      <c r="G117" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H117" s="61" t="e">
+      <c r="H117" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D117)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="47" t="e">
+      <c r="I117" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D118" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E118" s="51" t="e">
+      <c r="D118" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E118" s="49" t="e">
         <f>_xll.qlRateHelperRate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F118" s="51">
+      <c r="F118" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D118)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D118)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D118)),_xll.qlSwapRateHelperSpread($D118))</f>
         <v>0</v>
       </c>
-      <c r="G118" s="40" t="e">
+      <c r="G118" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H118" s="61" t="e">
+      <c r="H118" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D118)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="47" t="e">
+      <c r="I118" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D119" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E119" s="51" t="e">
+      <c r="D119" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E119" s="49" t="e">
         <f>_xll.qlRateHelperRate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F119" s="51">
+      <c r="F119" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D119)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D119)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D119)),_xll.qlSwapRateHelperSpread($D119))</f>
         <v>0</v>
       </c>
-      <c r="G119" s="40" t="e">
+      <c r="G119" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H119" s="61" t="e">
+      <c r="H119" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D119)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="47" t="e">
+      <c r="I119" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D120" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E120" s="51" t="e">
+      <c r="D120" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E120" s="49" t="e">
         <f>_xll.qlRateHelperRate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F120" s="51">
+      <c r="F120" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D120)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D120)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D120)),_xll.qlSwapRateHelperSpread($D120))</f>
         <v>0</v>
       </c>
-      <c r="G120" s="40" t="e">
+      <c r="G120" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H120" s="61" t="e">
+      <c r="H120" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D120)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="47" t="e">
+      <c r="I120" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D121" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E121" s="51" t="e">
+      <c r="D121" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E121" s="49" t="e">
         <f>_xll.qlRateHelperRate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F121" s="51">
+      <c r="F121" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D121)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D121)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D121)),_xll.qlSwapRateHelperSpread($D121))</f>
         <v>0</v>
       </c>
-      <c r="G121" s="40" t="e">
+      <c r="G121" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H121" s="61" t="e">
+      <c r="H121" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D121)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="47" t="e">
+      <c r="I121" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D122" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E122" s="51" t="e">
+      <c r="D122" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E122" s="49" t="e">
         <f>_xll.qlRateHelperRate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F122" s="51">
+      <c r="F122" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D122)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D122)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D122)),_xll.qlSwapRateHelperSpread($D122))</f>
         <v>0</v>
       </c>
-      <c r="G122" s="40" t="e">
+      <c r="G122" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H122" s="61" t="e">
+      <c r="H122" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D122)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="47" t="e">
+      <c r="I122" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D123" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E123" s="51" t="e">
+      <c r="D123" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E123" s="49" t="e">
         <f>_xll.qlRateHelperRate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F123" s="51">
+      <c r="F123" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D123)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D123)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D123)),_xll.qlSwapRateHelperSpread($D123))</f>
         <v>0</v>
       </c>
-      <c r="G123" s="40" t="e">
+      <c r="G123" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H123" s="61" t="e">
+      <c r="H123" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D123)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="47" t="e">
+      <c r="I123" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D124" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E124" s="51" t="e">
+      <c r="D124" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E124" s="49" t="e">
         <f>_xll.qlRateHelperRate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F124" s="51">
+      <c r="F124" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D124)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D124)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D124)),_xll.qlSwapRateHelperSpread($D124))</f>
         <v>0</v>
       </c>
-      <c r="G124" s="40" t="e">
+      <c r="G124" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H124" s="61" t="e">
+      <c r="H124" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D124)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="47" t="e">
+      <c r="I124" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E125" s="51" t="e">
+      <c r="D125" s="48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E125" s="49" t="e">
         <f>_xll.qlRateHelperRate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F125" s="51">
+      <c r="F125" s="49">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D125)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D125)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D125)),_xll.qlSwapRateHelperSpread($D125))</f>
         <v>0</v>
       </c>
-      <c r="G125" s="40" t="e">
+      <c r="G125" s="38" t="e">
         <f>_xll.qlRateHelperEarliestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H125" s="61" t="e">
+      <c r="H125" s="59" t="e">
         <f>_xll.qlRateHelperLatestDate($D125)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="47" t="e">
+      <c r="I125" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="4:9" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D126" s="59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E126" s="60" t="e">
+      <c r="D126" s="57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E126" s="58" t="e">
         <f>_xll.qlRateHelperRate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="F126" s="60">
+      <c r="F126" s="58">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D126)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D126)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D126)),_xll.qlSwapRateHelperSpread($D126))</f>
         <v>0</v>
       </c>
-      <c r="G126" s="62" t="e">
+      <c r="G126" s="60" t="e">
         <f>_xll.qlRateHelperEarliestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H126" s="63" t="e">
+      <c r="H126" s="61" t="e">
         <f>_xll.qlRateHelperLatestDate($D126)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="47" t="e">
+      <c r="I126" s="45" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/HKD_YCSTDBootstrapping.xlsx
@@ -13,6 +13,9 @@
     <sheet name="Deposits" sheetId="6" r:id="rId4"/>
     <sheet name="Swaps" sheetId="8" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Accuracy">'General Settings'!$D$19</definedName>
     <definedName name="BondBasisDayCounter">'General Settings'!$I$15</definedName>
@@ -1292,12 +1295,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1407,6 +1404,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1435,6 +1438,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="General Settings"/>
+      <sheetName val="Hibor"/>
+      <sheetName val="Hibor Time Series"/>
+      <sheetName val="OIS"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="BasisSwap1M3M"/>
+      <sheetName val="BasisSwap3M6M"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="15">
+          <cell r="K15" t="str">
+            <v>HKDSTD#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1733,409 +1775,409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.7109375" style="79" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" style="79" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="79" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.7109375" style="79" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="79" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="79"/>
+    <col min="1" max="2" width="2.7109375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" style="77" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="77" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.7109375" style="77" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="77" customWidth="1"/>
+    <col min="11" max="16384" width="8" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="str">
+      <c r="B1" s="77" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Oct 13 2014 15:51:57</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="85"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="80"/>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="88" t="s">
+      <c r="E4" s="80"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="90"/>
+      <c r="I4" s="87" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="88"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
-      <c r="C5" s="91" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="92">
+      <c r="D5" s="90">
         <v>3</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="88" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="93"/>
-      <c r="J5" s="90"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="88"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="80"/>
-      <c r="C6" s="91" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="88" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="94" t="b">
+      <c r="I6" s="92" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="90"/>
+      <c r="J6" s="88"/>
     </row>
     <row r="7" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
     </row>
     <row r="8" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="80"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="124"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="80"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="78"/>
+      <c r="C9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="92" t="str">
+      <c r="D9" s="90" t="str">
         <f>Currency&amp;"_"&amp;$E$16&amp;"RH"</f>
         <v>HKD_YCSTDRH</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="124"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="80"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="92" t="b">
+      <c r="D10" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
-      <c r="C11" s="91" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="99" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="89" t="s">
+      <c r="I11" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="J11" s="85"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="80"/>
-      <c r="C12" s="100" t="s">
+      <c r="B12" s="78"/>
+      <c r="C12" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="101" t="b">
+      <c r="D12" s="99" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="99" t="s">
+      <c r="E12" s="80"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="94" t="s">
+      <c r="I12" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="85"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="80"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="99" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="85"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="83"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="80"/>
-      <c r="C14" s="103" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="104" t="str">
+      <c r="D14" s="102" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>HKDYCSTD#0002</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="99" t="s">
+        <v>HKDYCSTD#0001</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="85"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="83"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="80"/>
-      <c r="C15" s="105" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="106" t="str">
+      <c r="D15" s="104" t="str">
         <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="124"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="99" t="s">
+      <c r="F15" s="122"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="85"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="80"/>
-      <c r="C16" s="103" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="108" t="str">
+      <c r="D16" s="106" t="str">
         <f>Currency&amp;$E$16</f>
         <v>HKDYCSTD</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="99" t="s">
+      <c r="F16" s="122"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="89" t="s">
+      <c r="I16" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="85"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="110" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="111">
-        <v>0</v>
-      </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
+      <c r="D17" s="109">
+        <v>0</v>
+      </c>
+      <c r="E17" s="80"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="80"/>
-      <c r="C18" s="110" t="s">
+      <c r="B18" s="78"/>
+      <c r="C18" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="124"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="80"/>
-      <c r="C19" s="110" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="113" t="e">
+      <c r="D19" s="111" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="124"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="80"/>
-      <c r="C20" s="110" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="124"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="80"/>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="78"/>
+      <c r="C21" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="114" t="s">
+      <c r="D21" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="124"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="80"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="124"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="122"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="80"/>
-      <c r="C23" s="115">
+      <c r="B23" s="78"/>
+      <c r="C23" s="113">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>41820</v>
-      </c>
-      <c r="D23" s="116">
+        <v>41943</v>
+      </c>
+      <c r="D23" s="114">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
         <v>1</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="124"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="80"/>
-      <c r="C24" s="117">
+      <c r="B24" s="78"/>
+      <c r="C24" s="115">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>47302</v>
-      </c>
-      <c r="D24" s="92">
+        <v>49251</v>
+      </c>
+      <c r="D24" s="90">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>0.64840439763604429</v>
-      </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="124"/>
+        <v>0.57776018256954154</v>
+      </c>
+      <c r="E24" s="80"/>
+      <c r="F24" s="122"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="80"/>
-      <c r="C25" s="118" t="s">
+      <c r="B25" s="78"/>
+      <c r="C25" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="92" t="str">
+      <c r="D25" s="90" t="str">
         <f>_xll.ohRangeRetrieveError(Selected!J1)</f>
         <v/>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="124"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="122"/>
     </row>
     <row r="26" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="80"/>
-      <c r="C26" s="118" t="str">
-        <f>UPPER(Currency)&amp;"STD"</f>
-        <v>HKDSTD</v>
-      </c>
-      <c r="D26" s="92" t="b">
+      <c r="B26" s="78"/>
+      <c r="C26" s="116" t="str">
+        <f>[1]Hibor!$K$15</f>
+        <v>HKDSTD#0000</v>
+      </c>
+      <c r="D26" s="90" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
         <v>1</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="124"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="80"/>
-      <c r="C27" s="119" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="124"/>
+      <c r="D27" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="80"/>
+      <c r="F27" s="122"/>
     </row>
     <row r="28" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="121"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="124"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="122"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2218,7 +2260,7 @@
     <row r="2" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="str">
         <f>Deposits!E3</f>
-        <v>obj_00127#0002</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="B2" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A2)</f>
@@ -2226,7 +2268,7 @@
       </c>
       <c r="C2" s="5">
         <f>_xll.qlRateHelperQuoteValue($A2,Trigger)</f>
-        <v>1.9857000000000004E-3</v>
+        <v>4.9790000000000001E-4</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="b">
@@ -2240,17 +2282,17 @@
       </c>
       <c r="H2" s="11">
         <f>_xll.qlRateHelperEarliestDate($A2,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I2" s="12">
         <f>_xll.qlRateHelperLatestDate($A2,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="str">
         <f>Deposits!E4</f>
-        <v>obj_00129#0002</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="B3" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A3)</f>
@@ -2258,7 +2300,7 @@
       </c>
       <c r="C3" s="5">
         <f>_xll.qlRateHelperQuoteValue($A3,Trigger)</f>
-        <v>1.9285999999999999E-3</v>
+        <v>1.1357000000000001E-3</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="b">
@@ -2272,17 +2314,17 @@
       </c>
       <c r="H3" s="11">
         <f>_xll.qlRateHelperEarliestDate($A3,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I3" s="12">
         <f>_xll.qlRateHelperLatestDate($A3,Trigger)</f>
-        <v>41827</v>
+        <v>41950</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="str">
         <f>Deposits!E5</f>
-        <v>obj_0012f#0002</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="B4" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A4)</f>
@@ -2290,7 +2332,7 @@
       </c>
       <c r="C4" s="5">
         <f>_xll.qlRateHelperQuoteValue($A4,Trigger)</f>
-        <v>2.0214E-3</v>
+        <v>1.5713999999999999E-3</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="b">
@@ -2304,17 +2346,17 @@
       </c>
       <c r="H4" s="11">
         <f>_xll.qlRateHelperEarliestDate($A4,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I4" s="12">
         <f>_xll.qlRateHelperLatestDate($A4,Trigger)</f>
-        <v>41834</v>
+        <v>41957</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="str">
         <f>Deposits!E6</f>
-        <v>obj_0012b#0002</v>
+        <v>obj_0013c#0001</v>
       </c>
       <c r="B5" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A5)</f>
@@ -2322,7 +2364,7 @@
       </c>
       <c r="C5" s="5">
         <f>_xll.qlRateHelperQuoteValue($A5,Trigger)</f>
-        <v>2.2714000000000002E-3</v>
+        <v>2.3070999999999999E-3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6" t="b">
@@ -2336,17 +2378,17 @@
       </c>
       <c r="H5" s="11">
         <f>_xll.qlRateHelperEarliestDate($A5,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I5" s="12">
         <f>_xll.qlRateHelperLatestDate($A5,Trigger)</f>
-        <v>41851</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="str">
         <f>Deposits!E7</f>
-        <v>obj_00128#0002</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="B6" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A6)</f>
@@ -2354,7 +2396,7 @@
       </c>
       <c r="C6" s="5">
         <f>_xll.qlRateHelperQuoteValue($A6,Trigger)</f>
-        <v>3.1143000000000004E-3</v>
+        <v>3.1713999999999996E-3</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="b">
@@ -2368,17 +2410,17 @@
       </c>
       <c r="H6" s="11">
         <f>_xll.qlRateHelperEarliestDate($A6,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I6" s="12">
         <f>_xll.qlRateHelperLatestDate($A6,Trigger)</f>
-        <v>41880</v>
+        <v>42004</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="str">
         <f>Deposits!E8</f>
-        <v>obj_0012c#0002</v>
+        <v>obj_0013d#0001</v>
       </c>
       <c r="B7" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A7)</f>
@@ -2386,7 +2428,7 @@
       </c>
       <c r="C7" s="5">
         <f>_xll.qlRateHelperQuoteValue($A7,Trigger)</f>
-        <v>3.7929000000000001E-3</v>
+        <v>3.7713999999999998E-3</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="b">
@@ -2400,17 +2442,17 @@
       </c>
       <c r="H7" s="11">
         <f>_xll.qlRateHelperEarliestDate($A7,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I7" s="12">
         <f>_xll.qlRateHelperLatestDate($A7,Trigger)</f>
-        <v>41912</v>
+        <v>42034</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="str">
         <f>Deposits!E9</f>
-        <v>obj_0012a#0002</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="B8" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A8)</f>
@@ -2418,7 +2460,7 @@
       </c>
       <c r="C8" s="5">
         <f>_xll.qlRateHelperQuoteValue($A8,Trigger)</f>
-        <v>5.5071E-3</v>
+        <v>5.3785999999999999E-3</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6" t="b">
@@ -2432,17 +2474,17 @@
       </c>
       <c r="H8" s="11">
         <f>_xll.qlRateHelperEarliestDate($A8,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I8" s="12">
         <f>_xll.qlRateHelperLatestDate($A8,Trigger)</f>
-        <v>42004</v>
+        <v>42124</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f>Deposits!E10</f>
-        <v>obj_0012d#0002</v>
+        <v>obj_0013e#0001</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A9)</f>
@@ -2464,17 +2506,17 @@
       </c>
       <c r="H9" s="11">
         <f>_xll.qlRateHelperEarliestDate($A9,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I9" s="12">
         <f>_xll.qlRateHelperLatestDate($A9,Trigger)</f>
-        <v>42094</v>
+        <v>42216</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
         <f>Deposits!E11</f>
-        <v>obj_0012e#0002</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="B10" s="7" t="str">
         <f>_xll.qlRateHelperQuoteName(A10)</f>
@@ -2482,7 +2524,7 @@
       </c>
       <c r="C10" s="8">
         <f>_xll.qlRateHelperQuoteValue($A10,Trigger)</f>
-        <v>8.6500000000000014E-3</v>
+        <v>8.3929E-3</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="b">
@@ -2496,17 +2538,17 @@
       </c>
       <c r="H10" s="13">
         <f>_xll.qlRateHelperEarliestDate($A10,Trigger)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I10" s="14">
         <f>_xll.qlRateHelperLatestDate($A10,Trigger)</f>
-        <v>42185</v>
+        <v>42307</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f>Swaps!K6</f>
-        <v>obj_00110#0002</v>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A11)</f>
@@ -2514,7 +2556,7 @@
       </c>
       <c r="C11" s="5">
         <f>_xll.qlRateHelperQuoteValue($A11,Trigger)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="D11" s="5">
         <f>_xll.qlSwapRateHelperSpread($A11,Trigger)</f>
@@ -2532,17 +2574,17 @@
       </c>
       <c r="H11" s="11">
         <f>_xll.qlRateHelperEarliestDate($A11,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I11" s="12">
         <f>_xll.qlRateHelperLatestDate($A11,Trigger)</f>
-        <v>42187</v>
+        <v>42311</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00122#0002</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A12)</f>
@@ -2568,17 +2610,17 @@
       </c>
       <c r="H12" s="11">
         <f>_xll.qlRateHelperEarliestDate($A12,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I12" s="12">
         <f>_xll.qlRateHelperLatestDate($A12,Trigger)</f>
-        <v>42279</v>
+        <v>42403</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00118#0002</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A13)</f>
@@ -2586,7 +2628,7 @@
       </c>
       <c r="C13" s="5">
         <f>_xll.qlRateHelperQuoteValue($A13,Trigger)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="D13" s="5">
         <f>_xll.qlSwapRateHelperSpread($A13,Trigger)</f>
@@ -2604,17 +2646,17 @@
       </c>
       <c r="H13" s="11">
         <f>_xll.qlRateHelperEarliestDate($A13,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I13" s="12">
         <f>_xll.qlRateHelperLatestDate($A13,Trigger)</f>
-        <v>42373</v>
+        <v>42493</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
         <f>Swaps!K9</f>
-        <v>obj_0011d#0002</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A14)</f>
@@ -2640,17 +2682,17 @@
       </c>
       <c r="H14" s="11">
         <f>_xll.qlRateHelperEarliestDate($A14,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I14" s="12">
         <f>_xll.qlRateHelperLatestDate($A14,Trigger)</f>
-        <v>42464</v>
+        <v>42585</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00114#0002</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A15)</f>
@@ -2658,7 +2700,7 @@
       </c>
       <c r="C15" s="5">
         <f>_xll.qlRateHelperQuoteValue($A15,Trigger)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="D15" s="5">
         <f>_xll.qlSwapRateHelperSpread($A15,Trigger)</f>
@@ -2676,17 +2718,17 @@
       </c>
       <c r="H15" s="11">
         <f>_xll.qlRateHelperEarliestDate($A15,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I15" s="12">
         <f>_xll.qlRateHelperLatestDate($A15,Trigger)</f>
-        <v>42555</v>
+        <v>42677</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f>Swaps!K11</f>
-        <v>obj_00120#0002</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A16)</f>
@@ -2712,17 +2754,17 @@
       </c>
       <c r="H16" s="11">
         <f>_xll.qlRateHelperEarliestDate($A16,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I16" s="12">
         <f>_xll.qlRateHelperLatestDate($A16,Trigger)</f>
-        <v>42920</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
         <f>Swaps!K12</f>
-        <v>obj_0011e#0002</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A17)</f>
@@ -2730,7 +2772,7 @@
       </c>
       <c r="C17" s="5">
         <f>_xll.qlRateHelperQuoteValue($A17,Trigger)</f>
-        <v>1.49E-2</v>
+        <v>1.4499999999999999E-2</v>
       </c>
       <c r="D17" s="5">
         <f>_xll.qlSwapRateHelperSpread($A17,Trigger)</f>
@@ -2748,17 +2790,17 @@
       </c>
       <c r="H17" s="11">
         <f>_xll.qlRateHelperEarliestDate($A17,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I17" s="12">
         <f>_xll.qlRateHelperLatestDate($A17,Trigger)</f>
-        <v>43284</v>
+        <v>43409</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f>Swaps!K13</f>
-        <v>obj_00124#0002</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A18)</f>
@@ -2766,7 +2808,7 @@
       </c>
       <c r="C18" s="5">
         <f>_xll.qlRateHelperQuoteValue($A18,Trigger)</f>
-        <v>1.78E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D18" s="5">
         <f>_xll.qlSwapRateHelperSpread($A18,Trigger)</f>
@@ -2784,17 +2826,17 @@
       </c>
       <c r="H18" s="11">
         <f>_xll.qlRateHelperEarliestDate($A18,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I18" s="12">
         <f>_xll.qlRateHelperLatestDate($A18,Trigger)</f>
-        <v>43648</v>
+        <v>43773</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00121#0002</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A19)</f>
@@ -2820,17 +2862,17 @@
       </c>
       <c r="H19" s="11">
         <f>_xll.qlRateHelperEarliestDate($A19,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I19" s="12">
         <f>_xll.qlRateHelperLatestDate($A19,Trigger)</f>
-        <v>44014</v>
+        <v>44138</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00117#0002</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A20)</f>
@@ -2838,7 +2880,7 @@
       </c>
       <c r="C20" s="5">
         <f>_xll.qlRateHelperQuoteValue($A20,Trigger)</f>
-        <v>2.1799999999999996E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="D20" s="5">
         <f>_xll.qlSwapRateHelperSpread($A20,Trigger)</f>
@@ -2856,17 +2898,17 @@
       </c>
       <c r="H20" s="11">
         <f>_xll.qlRateHelperEarliestDate($A20,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I20" s="12">
         <f>_xll.qlRateHelperLatestDate($A20,Trigger)</f>
-        <v>44379</v>
+        <v>44503</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00119#0002</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A21)</f>
@@ -2892,17 +2934,17 @@
       </c>
       <c r="H21" s="11">
         <f>_xll.qlRateHelperEarliestDate($A21,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I21" s="12">
         <f>_xll.qlRateHelperLatestDate($A21,Trigger)</f>
-        <v>44746</v>
+        <v>44868</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00112#0002</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A22)</f>
@@ -2928,17 +2970,17 @@
       </c>
       <c r="H22" s="11">
         <f>_xll.qlRateHelperEarliestDate($A22,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I22" s="12">
         <f>_xll.qlRateHelperLatestDate($A22,Trigger)</f>
-        <v>45111</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00116#0002</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A23)</f>
@@ -2946,7 +2988,7 @@
       </c>
       <c r="C23" s="5">
         <f>_xll.qlRateHelperQuoteValue($A23,Trigger)</f>
-        <v>2.5399999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D23" s="5">
         <f>_xll.qlSwapRateHelperSpread($A23,Trigger)</f>
@@ -2964,17 +3006,17 @@
       </c>
       <c r="H23" s="11">
         <f>_xll.qlRateHelperEarliestDate($A23,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I23" s="12">
         <f>_xll.qlRateHelperLatestDate($A23,Trigger)</f>
-        <v>45475</v>
+        <v>45600</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00125#0002</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A24)</f>
@@ -3000,17 +3042,17 @@
       </c>
       <c r="H24" s="11">
         <f>_xll.qlRateHelperEarliestDate($A24,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I24" s="12">
         <f>_xll.qlRateHelperLatestDate($A24,Trigger)</f>
-        <v>45840</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0011c#0002</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="B25" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A25)</f>
@@ -3018,7 +3060,7 @@
       </c>
       <c r="C25" s="5">
         <f>_xll.qlRateHelperQuoteValue($A25,Trigger)</f>
-        <v>2.6900000000000004E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="D25" s="5">
         <f>_xll.qlSwapRateHelperSpread($A25,Trigger)</f>
@@ -3036,17 +3078,17 @@
       </c>
       <c r="H25" s="11">
         <f>_xll.qlRateHelperEarliestDate($A25,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I25" s="12">
         <f>_xll.qlRateHelperLatestDate($A25,Trigger)</f>
-        <v>46205</v>
+        <v>46329</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00113#0002</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="B26" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A26)</f>
@@ -3072,17 +3114,17 @@
       </c>
       <c r="H26" s="11">
         <f>_xll.qlRateHelperEarliestDate($A26,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I26" s="12">
         <f>_xll.qlRateHelperLatestDate($A26,Trigger)</f>
-        <v>46570</v>
+        <v>46694</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
         <f>Swaps!K22</f>
-        <v>obj_0011a#0002</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="B27" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A27)</f>
@@ -3108,17 +3150,17 @@
       </c>
       <c r="H27" s="11">
         <f>_xll.qlRateHelperEarliestDate($A27,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I27" s="12">
         <f>_xll.qlRateHelperLatestDate($A27,Trigger)</f>
-        <v>46938</v>
+        <v>47060</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="str">
         <f>Swaps!K23</f>
-        <v>obj_00115#0002</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="B28" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A28)</f>
@@ -3126,7 +3168,7 @@
       </c>
       <c r="C28" s="5">
         <f>_xll.qlRateHelperQuoteValue($A28,Trigger)</f>
-        <v>2.7999999999999997E-2</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="D28" s="5">
         <f>_xll.qlSwapRateHelperSpread($A28,Trigger)</f>
@@ -3144,17 +3186,17 @@
       </c>
       <c r="H28" s="11">
         <f>_xll.qlRateHelperEarliestDate($A28,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I28" s="12">
         <f>_xll.qlRateHelperLatestDate($A28,Trigger)</f>
-        <v>47302</v>
+        <v>47427</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="str">
         <f>Swaps!K24</f>
-        <v>obj_00123#0002</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="B29" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A29)</f>
@@ -3180,17 +3222,17 @@
       </c>
       <c r="H29" s="11">
         <f>_xll.qlRateHelperEarliestDate($A29,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I29" s="12">
         <f>_xll.qlRateHelperLatestDate($A29,Trigger)</f>
-        <v>47666</v>
+        <v>47791</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="str">
         <f>Swaps!K25</f>
-        <v>obj_0011b#0002</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="B30" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A30)</f>
@@ -3216,17 +3258,17 @@
       </c>
       <c r="H30" s="11">
         <f>_xll.qlRateHelperEarliestDate($A30,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I30" s="12">
         <f>_xll.qlRateHelperLatestDate($A30,Trigger)</f>
-        <v>48031</v>
+        <v>48155</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="str">
         <f>Swaps!K26</f>
-        <v>obj_00126#0002</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="B31" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A31)</f>
@@ -3252,17 +3294,17 @@
       </c>
       <c r="H31" s="11">
         <f>_xll.qlRateHelperEarliestDate($A31,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I31" s="12">
         <f>_xll.qlRateHelperLatestDate($A31,Trigger)</f>
-        <v>48397</v>
+        <v>48521</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="str">
         <f>Swaps!K27</f>
-        <v>obj_0011f#0002</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="B32" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A32)</f>
@@ -3288,25 +3330,25 @@
       </c>
       <c r="H32" s="11">
         <f>_xll.qlRateHelperEarliestDate($A32,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I32" s="12">
         <f>_xll.qlRateHelperLatestDate($A32,Trigger)</f>
-        <v>48764</v>
+        <v>48886</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00111#0002</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="B33" s="4" t="str">
         <f>_xll.qlRateHelperQuoteName(A33)</f>
         <v>HKDQM3H20Y_Quote</v>
       </c>
-      <c r="C33" s="5" t="e">
+      <c r="C33" s="5">
         <f>_xll.qlRateHelperQuoteValue($A33,Trigger)</f>
-        <v>#NUM!</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="D33" s="5">
         <f>_xll.qlSwapRateHelperSpread($A33,Trigger)</f>
@@ -3314,7 +3356,7 @@
       </c>
       <c r="E33" s="6" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="6">
         <v>50</v>
@@ -3324,11 +3366,11 @@
       </c>
       <c r="H33" s="11">
         <f>_xll.qlRateHelperEarliestDate($A33,Trigger)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I33" s="12">
         <f>_xll.qlRateHelperLatestDate($A33,Trigger)</f>
-        <v>49129</v>
+        <v>49251</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3375,10 +3417,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="126"/>
       <c r="D1" s="15" t="s">
         <v>19</v>
       </c>
@@ -3409,7 +3451,7 @@
       </c>
       <c r="D2" s="21" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_0012a</v>
+        <v>obj_0013b</v>
       </c>
       <c r="E2" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -3417,7 +3459,7 @@
       </c>
       <c r="F2" s="22">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>5.5071E-3</v>
+        <v>5.3785999999999999E-3</v>
       </c>
       <c r="G2" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -3425,14 +3467,14 @@
       </c>
       <c r="H2" s="11">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>41820</v>
+        <v>41943</v>
       </c>
       <c r="I2" s="28">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42004</v>
+        <v>42124</v>
       </c>
       <c r="J2" s="18">
-        <v>0.99723150393091831</v>
+        <v>0.99733989884720808</v>
       </c>
       <c r="K2" s="23"/>
     </row>
@@ -3444,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="21" t="str">
-        <v>obj_00110</v>
+        <v>obj_0011f</v>
       </c>
       <c r="E3" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -3452,7 +3494,7 @@
       </c>
       <c r="F3" s="22">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>4.2000000000000006E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="G3" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -3460,14 +3502,14 @@
       </c>
       <c r="H3" s="11">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I3" s="28">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42187</v>
+        <v>42311</v>
       </c>
       <c r="J3" s="18">
-        <v>0.99577706452818582</v>
+        <v>0.99566169873999066</v>
       </c>
       <c r="K3" s="23"/>
     </row>
@@ -3479,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="21" t="str">
-        <v>obj_00118</v>
+        <v>obj_00125</v>
       </c>
       <c r="E4" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -3487,7 +3529,7 @@
       </c>
       <c r="F4" s="22">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>5.5000000000000005E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="G4" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -3495,14 +3537,14 @@
       </c>
       <c r="H4" s="11">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I4" s="28">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42373</v>
+        <v>42493</v>
       </c>
       <c r="J4" s="18">
-        <v>0.99169811311313849</v>
+        <v>0.99144452267186178</v>
       </c>
       <c r="K4" s="23"/>
     </row>
@@ -3514,7 +3556,7 @@
         <v>63</v>
       </c>
       <c r="D5" s="21" t="str">
-        <v>obj_00114</v>
+        <v>obj_00130</v>
       </c>
       <c r="E5" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -3522,7 +3564,7 @@
       </c>
       <c r="F5" s="22">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>7.3000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G5" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -3530,14 +3572,14 @@
       </c>
       <c r="H5" s="11">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I5" s="28">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42555</v>
+        <v>42677</v>
       </c>
       <c r="J5" s="18">
-        <v>0.98539970496567675</v>
+        <v>0.98502821458261403</v>
       </c>
       <c r="K5" s="23"/>
     </row>
@@ -3545,7 +3587,7 @@
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="D6" s="21" t="str">
-        <v>obj_00120</v>
+        <v>obj_0012d</v>
       </c>
       <c r="E6" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -3561,20 +3603,20 @@
       </c>
       <c r="H6" s="11">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I6" s="28">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42920</v>
+        <v>43042</v>
       </c>
       <c r="J6" s="18">
-        <v>0.96641134247952087</v>
+        <v>0.96646292054688687</v>
       </c>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D7" s="21" t="str">
-        <v>obj_0011e</v>
+        <v>obj_00126</v>
       </c>
       <c r="E7" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -3582,7 +3624,7 @@
       </c>
       <c r="F7" s="22">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.49E-2</v>
+        <v>1.4499999999999999E-2</v>
       </c>
       <c r="G7" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -3590,20 +3632,20 @@
       </c>
       <c r="H7" s="11">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I7" s="28">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>43284</v>
+        <v>43409</v>
       </c>
       <c r="J7" s="18">
-        <v>0.94158735841893471</v>
+        <v>0.94309882368668019</v>
       </c>
       <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="21" t="str">
-        <v>obj_00124</v>
+        <v>obj_00121</v>
       </c>
       <c r="E8" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -3611,7 +3653,7 @@
       </c>
       <c r="F8" s="22">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.78E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G8" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -3619,20 +3661,20 @@
       </c>
       <c r="H8" s="11">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I8" s="28">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>43648</v>
+        <v>43773</v>
       </c>
       <c r="J8" s="18">
-        <v>0.91381675656223083</v>
+        <v>0.9175773083304064</v>
       </c>
       <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D9" s="21" t="str">
-        <v>obj_00117</v>
+        <v>obj_00122</v>
       </c>
       <c r="E9" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -3640,7 +3682,7 @@
       </c>
       <c r="F9" s="22">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.1799999999999996E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="G9" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -3648,20 +3690,20 @@
       </c>
       <c r="H9" s="11">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I9" s="28">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>44379</v>
+        <v>44503</v>
       </c>
       <c r="J9" s="18">
-        <v>0.8559781337806398</v>
+        <v>0.86617280980762246</v>
       </c>
       <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="21" t="str">
-        <v>obj_00116</v>
+        <v>obj_00120</v>
       </c>
       <c r="E10" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -3669,7 +3711,7 @@
       </c>
       <c r="F10" s="22">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.5399999999999999E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G10" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -3677,20 +3719,20 @@
       </c>
       <c r="H10" s="11">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I10" s="28">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>45475</v>
+        <v>45600</v>
       </c>
       <c r="J10" s="18">
-        <v>0.7704707600219155</v>
+        <v>0.79059971098115767</v>
       </c>
       <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D11" s="21" t="str">
-        <v>obj_0011c</v>
+        <v>obj_00134</v>
       </c>
       <c r="E11" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -3698,7 +3740,7 @@
       </c>
       <c r="F11" s="22">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.6900000000000004E-2</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="G11" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -3706,20 +3748,20 @@
       </c>
       <c r="H11" s="11">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I11" s="28">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>46205</v>
+        <v>46329</v>
       </c>
       <c r="J11" s="18">
-        <v>0.71710513962048172</v>
+        <v>0.74277748536476151</v>
       </c>
       <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D12" s="21" t="str">
-        <v>obj_00115</v>
+        <v>obj_00133</v>
       </c>
       <c r="E12" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -3727,7 +3769,7 @@
       </c>
       <c r="F12" s="22">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>2.7999999999999997E-2</v>
+        <v>2.5300000000000003E-2</v>
       </c>
       <c r="G12" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -3735,43 +3777,43 @@
       </c>
       <c r="H12" s="11">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>41822</v>
+        <v>41946</v>
       </c>
       <c r="I12" s="28">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>47302</v>
+        <v>47427</v>
       </c>
       <c r="J12" s="18">
-        <v>0.64840439763604429</v>
+        <v>0.67729530569740715</v>
       </c>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="21" t="e">
+      <c r="D13" s="21" t="str">
+        <v>obj_00128</v>
+      </c>
+      <c r="E13" s="21" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="22" t="e">
+        <v>HKDQM3H20Y_Quote</v>
+      </c>
+      <c r="F13" s="22">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>#VALUE!</v>
+        <v>2.6600000000000002E-2</v>
       </c>
       <c r="G13" s="22">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),0,_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
         <v>0</v>
       </c>
-      <c r="H13" s="11" t="e">
+      <c r="H13" s="11">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="28" t="e">
+        <v>41946</v>
+      </c>
+      <c r="I13" s="28">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="18" t="e">
-        <v>#N/A</v>
+        <v>49251</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.57776018256954154</v>
       </c>
       <c r="K13" s="23"/>
     </row>
@@ -7028,7 +7070,7 @@
       </c>
       <c r="E3" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D3,C3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00127#0002</v>
+        <v>obj_00136#0001</v>
       </c>
       <c r="F3" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -7053,7 +7095,7 @@
       </c>
       <c r="E4" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D4,C4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00129#0002</v>
+        <v>obj_0013a#0001</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -7078,7 +7120,7 @@
       </c>
       <c r="E5" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D5,C5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012f#0002</v>
+        <v>obj_00139#0001</v>
       </c>
       <c r="F5" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -7103,7 +7145,7 @@
       </c>
       <c r="E6" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D6,C6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012b#0002</v>
+        <v>obj_0013c#0001</v>
       </c>
       <c r="F6" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -7128,7 +7170,7 @@
       </c>
       <c r="E7" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D7,C7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00128#0002</v>
+        <v>obj_00138#0001</v>
       </c>
       <c r="F7" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -7153,7 +7195,7 @@
       </c>
       <c r="E8" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D8,C8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012c#0002</v>
+        <v>obj_0013d#0001</v>
       </c>
       <c r="F8" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -7178,7 +7220,7 @@
       </c>
       <c r="E9" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D9,C9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012a#0002</v>
+        <v>obj_0013b#0001</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -7203,7 +7245,7 @@
       </c>
       <c r="E10" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D10,C10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012d#0002</v>
+        <v>obj_0013e#0001</v>
       </c>
       <c r="F10" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -7228,7 +7270,7 @@
       </c>
       <c r="E11" s="37" t="str">
         <f>_xll.qlDepositRateHelper(,D11,C11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0012e#0002</v>
+        <v>obj_00137#0001</v>
       </c>
       <c r="F11" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -7389,7 +7431,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="63" t="str">
         <f>_xll.qlIborIndex(,FamilyName,I2,O4,Currency,P4,Q4,R4,S4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0010f#0002</v>
+        <v>obj_0011e#0001</v>
       </c>
       <c r="L4" s="64" t="str">
         <f>_xll.ohRangeRetrieveError(K4)</f>
@@ -7464,7 +7506,7 @@
       </c>
       <c r="K6" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$4,$I6,B6&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00110#0002</v>
+        <v>obj_0011f#0001</v>
       </c>
       <c r="L6" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -7507,7 +7549,7 @@
       </c>
       <c r="K7" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$4,$I7,B7&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00122#0002</v>
+        <v>obj_00132#0001</v>
       </c>
       <c r="L7" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -7550,7 +7592,7 @@
       </c>
       <c r="K8" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$4,$I8,B8&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00118#0002</v>
+        <v>obj_00125#0001</v>
       </c>
       <c r="L8" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -7593,7 +7635,7 @@
       </c>
       <c r="K9" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$4,$I9,B9&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011d#0002</v>
+        <v>obj_00123#0001</v>
       </c>
       <c r="L9" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -7636,7 +7678,7 @@
       </c>
       <c r="K10" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$4,$I10,B10&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00114#0002</v>
+        <v>obj_00130#0001</v>
       </c>
       <c r="L10" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -7679,7 +7721,7 @@
       </c>
       <c r="K11" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$4,$I11,B11&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00120#0002</v>
+        <v>obj_0012d#0001</v>
       </c>
       <c r="L11" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -7722,7 +7764,7 @@
       </c>
       <c r="K12" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$4,$I12,B12&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011e#0002</v>
+        <v>obj_00126#0001</v>
       </c>
       <c r="L12" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -7765,7 +7807,7 @@
       </c>
       <c r="K13" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$4,$I13,B13&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00124#0002</v>
+        <v>obj_00121#0001</v>
       </c>
       <c r="L13" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -7808,7 +7850,7 @@
       </c>
       <c r="K14" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$4,$I14,B14&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00121#0002</v>
+        <v>obj_0012f#0001</v>
       </c>
       <c r="L14" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -7851,7 +7893,7 @@
       </c>
       <c r="K15" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$4,$I15,B15&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00117#0002</v>
+        <v>obj_00122#0001</v>
       </c>
       <c r="L15" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -7894,7 +7936,7 @@
       </c>
       <c r="K16" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$4,$I16,B16&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00119#0002</v>
+        <v>obj_00129#0001</v>
       </c>
       <c r="L16" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -7937,7 +7979,7 @@
       </c>
       <c r="K17" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$4,$I17,B17&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00112#0002</v>
+        <v>obj_0012b#0001</v>
       </c>
       <c r="L17" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -7980,7 +8022,7 @@
       </c>
       <c r="K18" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$4,$I18,B18&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00116#0002</v>
+        <v>obj_00120#0001</v>
       </c>
       <c r="L18" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -8023,7 +8065,7 @@
       </c>
       <c r="K19" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$4,$I19,B19&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00125#0002</v>
+        <v>obj_00124#0001</v>
       </c>
       <c r="L19" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -8066,7 +8108,7 @@
       </c>
       <c r="K20" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$4,$I20,B20&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011c#0002</v>
+        <v>obj_00134#0001</v>
       </c>
       <c r="L20" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -8109,7 +8151,7 @@
       </c>
       <c r="K21" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$4,$I21,B21&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00113#0002</v>
+        <v>obj_0012e#0001</v>
       </c>
       <c r="L21" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -8152,7 +8194,7 @@
       </c>
       <c r="K22" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$4,$I22,B22&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011a#0002</v>
+        <v>obj_0012c#0001</v>
       </c>
       <c r="L22" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -8195,7 +8237,7 @@
       </c>
       <c r="K23" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$4,$I23,B23&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00115#0002</v>
+        <v>obj_00133#0001</v>
       </c>
       <c r="L23" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -8238,7 +8280,7 @@
       </c>
       <c r="K24" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$4,$I24,B24&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00123#0002</v>
+        <v>obj_00135#0001</v>
       </c>
       <c r="L24" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -8281,7 +8323,7 @@
       </c>
       <c r="K25" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$4,$I25,B25&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011b#0002</v>
+        <v>obj_00131#0001</v>
       </c>
       <c r="L25" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -8324,7 +8366,7 @@
       </c>
       <c r="K26" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$4,$I26,B26&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00126#0002</v>
+        <v>obj_00127#0001</v>
       </c>
       <c r="L26" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -8367,7 +8409,7 @@
       </c>
       <c r="K27" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$4,$I27,B27&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0011f#0002</v>
+        <v>obj_0012a#0001</v>
       </c>
       <c r="L27" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -8410,7 +8452,7 @@
       </c>
       <c r="K28" s="71" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$4,$I28,B28&amp;"D",Discounting2,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00111#0002</v>
+        <v>obj_00128#0001</v>
       </c>
       <c r="L28" s="61" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
